--- a/야구K6_ItemTablev1.0.18.xlsx
+++ b/야구K6_ItemTablev1.0.18.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="60" yWindow="-45" windowWidth="34845" windowHeight="11925" activeTab="2"/>
+    <workbookView xWindow="60" yWindow="-45" windowWidth="34845" windowHeight="11925" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="레벨장비검사" sheetId="22" r:id="rId1"/>
@@ -1850,7 +1850,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5091" uniqueCount="1014">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9628" uniqueCount="1014">
   <si>
     <t>//</t>
   </si>
@@ -4571,10 +4571,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>기타아이템(47)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>랜덤다이아(48)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5316,6 +5312,10 @@
   </si>
   <si>
     <t>Lv =SQRT(exp-1+950625)/50-37/2</t>
+  </si>
+  <si>
+    <t>닉네임변경권(47)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -6506,6 +6506,9 @@
     <xf numFmtId="177" fontId="34" fillId="0" borderId="0" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="33" fillId="51" borderId="0" xfId="46" applyFill="1"/>
     <xf numFmtId="177" fontId="34" fillId="51" borderId="0" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="36" fillId="8" borderId="16" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6529,9 +6532,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="47">
@@ -6914,33 +6914,33 @@
       <c r="B1" s="73"/>
     </row>
     <row r="2" spans="2:49" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="D2" s="90" t="s">
+      <c r="D2" s="91" t="s">
+        <v>961</v>
+      </c>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="91"/>
+      <c r="N2" s="91"/>
+      <c r="O2" s="91"/>
+      <c r="P2" s="91"/>
+      <c r="Q2" s="91"/>
+      <c r="V2" s="77" t="s">
         <v>962</v>
       </c>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="90"/>
-      <c r="N2" s="90"/>
-      <c r="O2" s="90"/>
-      <c r="P2" s="90"/>
-      <c r="Q2" s="90"/>
-      <c r="V2" s="77" t="s">
+      <c r="W2" s="77" t="s">
         <v>963</v>
-      </c>
-      <c r="W2" s="77" t="s">
-        <v>964</v>
       </c>
     </row>
     <row r="3" spans="2:49" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="76"/>
       <c r="C3" s="79" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="D3" s="80">
         <v>0</v>
@@ -6986,7 +6986,7 @@
       </c>
       <c r="R3" s="81"/>
       <c r="V3" s="83" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="W3" s="84">
         <v>100</v>
@@ -6995,66 +6995,66 @@
     </row>
     <row r="4" spans="2:49" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B4" s="74" t="s">
+        <v>966</v>
+      </c>
+      <c r="C4" s="73">
+        <v>0</v>
+      </c>
+      <c r="D4" s="73">
+        <v>0</v>
+      </c>
+      <c r="E4" s="73">
+        <v>0</v>
+      </c>
+      <c r="F4" s="73">
+        <v>0</v>
+      </c>
+      <c r="G4" s="73">
+        <v>0</v>
+      </c>
+      <c r="H4" s="73">
+        <v>0</v>
+      </c>
+      <c r="I4" s="73">
+        <v>0</v>
+      </c>
+      <c r="J4" s="73">
+        <v>0</v>
+      </c>
+      <c r="K4" s="73">
+        <v>0</v>
+      </c>
+      <c r="L4" s="73">
+        <v>0</v>
+      </c>
+      <c r="M4" s="73">
+        <v>0</v>
+      </c>
+      <c r="N4" s="73">
+        <v>0</v>
+      </c>
+      <c r="O4" s="73">
+        <v>0</v>
+      </c>
+      <c r="P4" s="73">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="73">
+        <v>0</v>
+      </c>
+      <c r="V4" s="86" t="s">
         <v>967</v>
-      </c>
-      <c r="C4" s="73">
-        <v>0</v>
-      </c>
-      <c r="D4" s="73">
-        <v>0</v>
-      </c>
-      <c r="E4" s="73">
-        <v>0</v>
-      </c>
-      <c r="F4" s="73">
-        <v>0</v>
-      </c>
-      <c r="G4" s="73">
-        <v>0</v>
-      </c>
-      <c r="H4" s="73">
-        <v>0</v>
-      </c>
-      <c r="I4" s="73">
-        <v>0</v>
-      </c>
-      <c r="J4" s="73">
-        <v>0</v>
-      </c>
-      <c r="K4" s="73">
-        <v>0</v>
-      </c>
-      <c r="L4" s="73">
-        <v>0</v>
-      </c>
-      <c r="M4" s="73">
-        <v>0</v>
-      </c>
-      <c r="N4" s="73">
-        <v>0</v>
-      </c>
-      <c r="O4" s="73">
-        <v>0</v>
-      </c>
-      <c r="P4" s="73">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="73">
-        <v>0</v>
-      </c>
-      <c r="V4" s="86" t="s">
-        <v>968</v>
       </c>
       <c r="W4" s="84">
         <v>500</v>
       </c>
       <c r="Y4" s="78" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="5" spans="2:49" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B5" s="76" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="C5" s="73">
         <v>1</v>
@@ -7116,19 +7116,19 @@
         <v>13</v>
       </c>
       <c r="V5" s="77" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="W5" s="84">
         <v>1000</v>
       </c>
       <c r="X5" s="85"/>
       <c r="Y5" s="85" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="6" spans="2:49" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B6" s="76" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="C6" s="73">
         <v>2</v>
@@ -7190,19 +7190,19 @@
         <v>26</v>
       </c>
       <c r="V6" s="77" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="W6" s="84">
         <v>3000</v>
       </c>
       <c r="X6" s="85"/>
       <c r="Y6" s="85" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="7" spans="2:49" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B7" s="76" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="C7" s="73">
         <v>3</v>
@@ -7264,7 +7264,7 @@
         <v>39</v>
       </c>
       <c r="V7" s="77" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="W7" s="84">
         <v>10000</v>
@@ -7273,7 +7273,7 @@
     </row>
     <row r="8" spans="2:49" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B8" s="76" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="C8" s="73">
         <v>4</v>
@@ -7352,7 +7352,7 @@
     </row>
     <row r="9" spans="2:49" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B9" s="76" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="C9" s="73">
         <v>5</v>
@@ -7430,22 +7430,22 @@
       <c r="O10" s="73"/>
       <c r="P10" s="73"/>
       <c r="Q10" s="73"/>
-      <c r="T10" s="91" t="s">
+      <c r="T10" s="92" t="s">
+        <v>976</v>
+      </c>
+      <c r="U10" s="92"/>
+      <c r="AJ10" s="92" t="s">
         <v>977</v>
       </c>
-      <c r="U10" s="91"/>
-      <c r="AJ10" s="91" t="s">
-        <v>978</v>
-      </c>
-      <c r="AK10" s="91"/>
-      <c r="AL10" s="91"/>
+      <c r="AK10" s="92"/>
+      <c r="AL10" s="92"/>
     </row>
     <row r="11" spans="2:49" x14ac:dyDescent="0.2">
       <c r="B11" s="76" t="s">
+        <v>978</v>
+      </c>
+      <c r="C11" s="74" t="s">
         <v>979</v>
-      </c>
-      <c r="C11" s="74" t="s">
-        <v>980</v>
       </c>
       <c r="D11" s="80">
         <v>0</v>
@@ -7490,7 +7490,7 @@
         <v>13</v>
       </c>
       <c r="S11" s="76" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="T11" s="80">
         <v>0</v>
@@ -7535,7 +7535,7 @@
         <v>13</v>
       </c>
       <c r="AI11" s="76" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="AJ11" s="80">
         <v>0</v>
@@ -7582,7 +7582,7 @@
     </row>
     <row r="12" spans="2:49" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B12" s="76" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="C12" s="73">
         <f>$W$3+($W$3*C$4/100)</f>
@@ -7645,7 +7645,7 @@
         <v>100</v>
       </c>
       <c r="S12" s="76" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="T12" s="88">
         <f>D12-$W$3</f>
@@ -7704,7 +7704,7 @@
         <v>0</v>
       </c>
       <c r="AI12" s="76" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="AJ12" s="88">
         <f>ROUNDUP(T12,0)</f>
@@ -7765,7 +7765,7 @@
     </row>
     <row r="13" spans="2:49" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B13" s="76" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="C13" s="73">
         <f>$W$3+($W$3*C$5/100)</f>
@@ -7828,7 +7828,7 @@
         <v>113</v>
       </c>
       <c r="S13" s="76" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="T13" s="88">
         <f t="shared" ref="T13:T17" si="8">D13-$W$3</f>
@@ -7887,7 +7887,7 @@
         <v>13</v>
       </c>
       <c r="AI13" s="76" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="AJ13" s="88">
         <f t="shared" ref="AJ13:AJ17" si="9">ROUNDUP(T13,0)</f>
@@ -7948,7 +7948,7 @@
     </row>
     <row r="14" spans="2:49" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B14" s="76" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="C14" s="73">
         <f>$W$3+($W$3*C$6/100)</f>
@@ -8011,7 +8011,7 @@
         <v>126</v>
       </c>
       <c r="S14" s="76" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="T14" s="88">
         <f t="shared" si="8"/>
@@ -8070,7 +8070,7 @@
         <v>26</v>
       </c>
       <c r="AI14" s="76" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="AJ14" s="88">
         <f t="shared" si="9"/>
@@ -8131,7 +8131,7 @@
     </row>
     <row r="15" spans="2:49" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B15" s="76" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="C15" s="73">
         <f>$W$3+($W$3*C$7/100)</f>
@@ -8194,7 +8194,7 @@
         <v>139</v>
       </c>
       <c r="S15" s="76" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="T15" s="88">
         <f t="shared" si="8"/>
@@ -8253,7 +8253,7 @@
         <v>39</v>
       </c>
       <c r="AI15" s="76" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="AJ15" s="88">
         <f t="shared" si="9"/>
@@ -8314,7 +8314,7 @@
     </row>
     <row r="16" spans="2:49" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B16" s="76" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="C16" s="73">
         <f>$W$3+($W$3*C$8/100)</f>
@@ -8377,7 +8377,7 @@
         <v>152</v>
       </c>
       <c r="S16" s="76" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="T16" s="88">
         <f t="shared" si="8"/>
@@ -8436,7 +8436,7 @@
         <v>52</v>
       </c>
       <c r="AI16" s="76" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AJ16" s="88">
         <f t="shared" si="9"/>
@@ -8497,7 +8497,7 @@
     </row>
     <row r="17" spans="2:49" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B17" s="74" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="C17" s="73">
         <f>$W$3+($W$3*C$9/100)</f>
@@ -8560,7 +8560,7 @@
         <v>165</v>
       </c>
       <c r="S17" s="74" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="T17" s="88">
         <f t="shared" si="8"/>
@@ -8619,7 +8619,7 @@
         <v>65</v>
       </c>
       <c r="AI17" s="74" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="AJ17" s="88">
         <f t="shared" si="9"/>
@@ -8684,10 +8684,10 @@
     </row>
     <row r="19" spans="2:49" x14ac:dyDescent="0.2">
       <c r="B19" s="76" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="C19" s="74" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="D19" s="80">
         <v>0</v>
@@ -8732,7 +8732,7 @@
         <v>13</v>
       </c>
       <c r="S19" s="76" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="T19" s="80">
         <v>0</v>
@@ -8777,7 +8777,7 @@
         <v>13</v>
       </c>
       <c r="AI19" s="76" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="AJ19" s="80">
         <v>0</v>
@@ -8824,7 +8824,7 @@
     </row>
     <row r="20" spans="2:49" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B20" s="76" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="C20" s="73">
         <f>$W$4+($W$4*C$4/100)</f>
@@ -8887,7 +8887,7 @@
         <v>500</v>
       </c>
       <c r="S20" s="76" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="T20" s="88">
         <f>D20-$W$4</f>
@@ -8946,7 +8946,7 @@
         <v>0</v>
       </c>
       <c r="AI20" s="76" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="AJ20" s="88">
         <f>ROUNDUP(T20,0)</f>
@@ -9007,7 +9007,7 @@
     </row>
     <row r="21" spans="2:49" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B21" s="76" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="C21" s="73">
         <f>$W$4+($W$4*C$5/100)</f>
@@ -9070,7 +9070,7 @@
         <v>565</v>
       </c>
       <c r="S21" s="76" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="T21" s="88">
         <f t="shared" ref="T21:T25" si="14">D21-$W$4</f>
@@ -9129,7 +9129,7 @@
         <v>65</v>
       </c>
       <c r="AI21" s="76" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="AJ21" s="88">
         <f t="shared" ref="AJ21:AJ25" si="15">ROUNDUP(T21,0)</f>
@@ -9190,7 +9190,7 @@
     </row>
     <row r="22" spans="2:49" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B22" s="76" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="C22" s="73">
         <f>$W$4+($W$4*C$6/100)</f>
@@ -9253,7 +9253,7 @@
         <v>630</v>
       </c>
       <c r="S22" s="76" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="T22" s="88">
         <f t="shared" si="14"/>
@@ -9312,7 +9312,7 @@
         <v>130</v>
       </c>
       <c r="AI22" s="76" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="AJ22" s="88">
         <f t="shared" si="15"/>
@@ -9373,7 +9373,7 @@
     </row>
     <row r="23" spans="2:49" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B23" s="76" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="C23" s="73">
         <f>$W$4+($W$4*C$7/100)</f>
@@ -9436,7 +9436,7 @@
         <v>695</v>
       </c>
       <c r="S23" s="76" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="T23" s="88">
         <f t="shared" si="14"/>
@@ -9495,7 +9495,7 @@
         <v>195</v>
       </c>
       <c r="AI23" s="76" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="AJ23" s="88">
         <f t="shared" si="15"/>
@@ -9556,7 +9556,7 @@
     </row>
     <row r="24" spans="2:49" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B24" s="76" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="C24" s="73">
         <f>$W$4+($W$4*C$8/100)</f>
@@ -9619,7 +9619,7 @@
         <v>760</v>
       </c>
       <c r="S24" s="76" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="T24" s="88">
         <f t="shared" si="14"/>
@@ -9678,7 +9678,7 @@
         <v>260</v>
       </c>
       <c r="AI24" s="76" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="AJ24" s="88">
         <f t="shared" si="15"/>
@@ -9739,7 +9739,7 @@
     </row>
     <row r="25" spans="2:49" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B25" s="74" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="C25" s="73">
         <f>$W$4+($W$4*C$9/100)</f>
@@ -9802,7 +9802,7 @@
         <v>825</v>
       </c>
       <c r="S25" s="74" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="T25" s="88">
         <f t="shared" si="14"/>
@@ -9861,7 +9861,7 @@
         <v>325</v>
       </c>
       <c r="AI25" s="74" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="AJ25" s="88">
         <f t="shared" si="15"/>
@@ -9952,10 +9952,10 @@
     </row>
     <row r="27" spans="2:49" x14ac:dyDescent="0.2">
       <c r="B27" s="76" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="C27" s="74" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="D27" s="80">
         <v>0</v>
@@ -10000,7 +10000,7 @@
         <v>13</v>
       </c>
       <c r="S27" s="76" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="T27" s="80">
         <v>0</v>
@@ -10045,7 +10045,7 @@
         <v>13</v>
       </c>
       <c r="AI27" s="76" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="AJ27" s="80">
         <v>0</v>
@@ -10092,7 +10092,7 @@
     </row>
     <row r="28" spans="2:49" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B28" s="76" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C28" s="73">
         <f>$W$5+($W$5*C$4/100)</f>
@@ -10155,7 +10155,7 @@
         <v>1000</v>
       </c>
       <c r="S28" s="76" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="T28" s="88">
         <f>D28-$W$5</f>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="AI28" s="76" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="AJ28" s="88">
         <f>ROUNDUP(T28,0)</f>
@@ -10275,7 +10275,7 @@
     </row>
     <row r="29" spans="2:49" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B29" s="76" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="C29" s="73">
         <f>$W$5+($W$5*C$5/100)</f>
@@ -10338,7 +10338,7 @@
         <v>1130</v>
       </c>
       <c r="S29" s="76" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="T29" s="88">
         <f t="shared" ref="T29:T33" si="24">D29-$W$5</f>
@@ -10397,7 +10397,7 @@
         <v>130</v>
       </c>
       <c r="AI29" s="76" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="AJ29" s="88">
         <f t="shared" ref="AJ29:AJ33" si="25">ROUNDUP(T29,0)</f>
@@ -10458,7 +10458,7 @@
     </row>
     <row r="30" spans="2:49" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B30" s="76" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="C30" s="73">
         <f>$W$5+($W$5*C$6/100)</f>
@@ -10521,7 +10521,7 @@
         <v>1260</v>
       </c>
       <c r="S30" s="76" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="T30" s="88">
         <f t="shared" si="24"/>
@@ -10580,7 +10580,7 @@
         <v>260</v>
       </c>
       <c r="AI30" s="76" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="AJ30" s="88">
         <f t="shared" si="25"/>
@@ -10641,7 +10641,7 @@
     </row>
     <row r="31" spans="2:49" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B31" s="76" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="C31" s="73">
         <f>$W$5+($W$5*C$7/100)</f>
@@ -10704,7 +10704,7 @@
         <v>1390</v>
       </c>
       <c r="S31" s="76" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="T31" s="88">
         <f t="shared" si="24"/>
@@ -10763,7 +10763,7 @@
         <v>390</v>
       </c>
       <c r="AI31" s="76" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="AJ31" s="88">
         <f t="shared" si="25"/>
@@ -10824,7 +10824,7 @@
     </row>
     <row r="32" spans="2:49" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B32" s="76" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="C32" s="73">
         <f>$W$5+($W$5*C$8/100)</f>
@@ -10887,7 +10887,7 @@
         <v>1520</v>
       </c>
       <c r="S32" s="76" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="T32" s="88">
         <f t="shared" si="24"/>
@@ -10946,7 +10946,7 @@
         <v>520</v>
       </c>
       <c r="AI32" s="76" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="AJ32" s="88">
         <f t="shared" si="25"/>
@@ -11007,7 +11007,7 @@
     </row>
     <row r="33" spans="2:49" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B33" s="74" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="C33" s="73">
         <f>$W$5+($W$5*C$9/100)</f>
@@ -11070,7 +11070,7 @@
         <v>1650</v>
       </c>
       <c r="S33" s="74" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="T33" s="88">
         <f t="shared" si="24"/>
@@ -11129,7 +11129,7 @@
         <v>650</v>
       </c>
       <c r="AI33" s="74" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="AJ33" s="88">
         <f t="shared" si="25"/>
@@ -11220,10 +11220,10 @@
     </row>
     <row r="35" spans="2:49" x14ac:dyDescent="0.2">
       <c r="B35" s="76" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="C35" s="74" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="D35" s="80">
         <v>0</v>
@@ -11268,7 +11268,7 @@
         <v>13</v>
       </c>
       <c r="S35" s="76" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="T35" s="80">
         <v>0</v>
@@ -11313,7 +11313,7 @@
         <v>13</v>
       </c>
       <c r="AI35" s="76" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="AJ35" s="80">
         <v>0</v>
@@ -11360,7 +11360,7 @@
     </row>
     <row r="36" spans="2:49" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B36" s="76" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="C36" s="73">
         <f>$W$6+($W$6*C$4/100)</f>
@@ -11423,7 +11423,7 @@
         <v>3000</v>
       </c>
       <c r="S36" s="76" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="T36" s="88">
         <f>D36-$W$6</f>
@@ -11482,7 +11482,7 @@
         <v>0</v>
       </c>
       <c r="AI36" s="76" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="AJ36" s="88">
         <f>ROUNDUP(T36,0)</f>
@@ -11543,7 +11543,7 @@
     </row>
     <row r="37" spans="2:49" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B37" s="76" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="C37" s="73">
         <f>$W$6+($W$6*C$5/100)</f>
@@ -11606,7 +11606,7 @@
         <v>3390</v>
       </c>
       <c r="S37" s="76" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="T37" s="88">
         <f t="shared" ref="T37:T41" si="34">D37-$W$6</f>
@@ -11665,7 +11665,7 @@
         <v>390</v>
       </c>
       <c r="AI37" s="76" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="AJ37" s="88">
         <f t="shared" ref="AJ37:AJ41" si="35">ROUNDUP(T37,0)</f>
@@ -11726,7 +11726,7 @@
     </row>
     <row r="38" spans="2:49" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B38" s="76" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="C38" s="73">
         <f>$W$6+($W$6*C$6/100)</f>
@@ -11789,7 +11789,7 @@
         <v>3780</v>
       </c>
       <c r="S38" s="76" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="T38" s="88">
         <f t="shared" si="34"/>
@@ -11848,7 +11848,7 @@
         <v>780</v>
       </c>
       <c r="AI38" s="76" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="AJ38" s="88">
         <f t="shared" si="35"/>
@@ -11909,7 +11909,7 @@
     </row>
     <row r="39" spans="2:49" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B39" s="76" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="C39" s="73">
         <f>$W$6+($W$6*C$7/100)</f>
@@ -11972,7 +11972,7 @@
         <v>4170</v>
       </c>
       <c r="S39" s="76" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="T39" s="88">
         <f t="shared" si="34"/>
@@ -12031,7 +12031,7 @@
         <v>1170</v>
       </c>
       <c r="AI39" s="76" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="AJ39" s="88">
         <f t="shared" si="35"/>
@@ -12092,7 +12092,7 @@
     </row>
     <row r="40" spans="2:49" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B40" s="76" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="C40" s="73">
         <f>$W$6+($W$6*C$8/100)</f>
@@ -12155,7 +12155,7 @@
         <v>4560</v>
       </c>
       <c r="S40" s="76" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="T40" s="88">
         <f t="shared" si="34"/>
@@ -12214,7 +12214,7 @@
         <v>1560</v>
       </c>
       <c r="AI40" s="76" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="AJ40" s="88">
         <f t="shared" si="35"/>
@@ -12275,7 +12275,7 @@
     </row>
     <row r="41" spans="2:49" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B41" s="74" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="C41" s="73">
         <f>$W$6+($W$6*C$9/100)</f>
@@ -12338,7 +12338,7 @@
         <v>4950</v>
       </c>
       <c r="S41" s="74" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="T41" s="88">
         <f t="shared" si="34"/>
@@ -12397,7 +12397,7 @@
         <v>1950</v>
       </c>
       <c r="AI41" s="74" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="AJ41" s="88">
         <f t="shared" si="35"/>
@@ -12488,10 +12488,10 @@
     </row>
     <row r="43" spans="2:49" x14ac:dyDescent="0.2">
       <c r="B43" s="76" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="C43" s="74" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="D43" s="80">
         <v>0</v>
@@ -12536,7 +12536,7 @@
         <v>13</v>
       </c>
       <c r="S43" s="76" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="T43" s="80">
         <v>0</v>
@@ -12581,7 +12581,7 @@
         <v>13</v>
       </c>
       <c r="AI43" s="76" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="AJ43" s="80">
         <v>0</v>
@@ -12628,7 +12628,7 @@
     </row>
     <row r="44" spans="2:49" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B44" s="76" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="C44" s="73">
         <f>$W$7+($W$7*C$4/100)</f>
@@ -12691,7 +12691,7 @@
         <v>10000</v>
       </c>
       <c r="S44" s="76" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="T44" s="88">
         <f>D44-$W$7</f>
@@ -12750,7 +12750,7 @@
         <v>0</v>
       </c>
       <c r="AI44" s="76" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="AJ44" s="88">
         <f>ROUNDUP(T44,0)</f>
@@ -12811,7 +12811,7 @@
     </row>
     <row r="45" spans="2:49" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B45" s="76" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="C45" s="73">
         <f>$W$7+($W$7*C$5/100)</f>
@@ -12874,7 +12874,7 @@
         <v>11300</v>
       </c>
       <c r="S45" s="76" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="T45" s="88">
         <f t="shared" ref="T45:T49" si="44">D45-$W$7</f>
@@ -12933,7 +12933,7 @@
         <v>1300</v>
       </c>
       <c r="AI45" s="76" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="AJ45" s="88">
         <f t="shared" ref="AJ45:AJ49" si="45">ROUNDUP(T45,0)</f>
@@ -12994,7 +12994,7 @@
     </row>
     <row r="46" spans="2:49" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B46" s="76" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="C46" s="73">
         <f>$W$7+($W$7*C$6/100)</f>
@@ -13057,7 +13057,7 @@
         <v>12600</v>
       </c>
       <c r="S46" s="76" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="T46" s="88">
         <f t="shared" si="44"/>
@@ -13116,7 +13116,7 @@
         <v>2600</v>
       </c>
       <c r="AI46" s="76" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="AJ46" s="88">
         <f t="shared" si="45"/>
@@ -13177,7 +13177,7 @@
     </row>
     <row r="47" spans="2:49" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B47" s="76" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="C47" s="73">
         <f>$W$7+($W$7*C$7/100)</f>
@@ -13240,7 +13240,7 @@
         <v>13900</v>
       </c>
       <c r="S47" s="76" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="T47" s="88">
         <f t="shared" si="44"/>
@@ -13299,7 +13299,7 @@
         <v>3900</v>
       </c>
       <c r="AI47" s="76" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="AJ47" s="88">
         <f t="shared" si="45"/>
@@ -13360,7 +13360,7 @@
     </row>
     <row r="48" spans="2:49" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B48" s="76" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="C48" s="73">
         <f>$W$7+($W$7*C$8/100)</f>
@@ -13423,7 +13423,7 @@
         <v>15200</v>
       </c>
       <c r="S48" s="76" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="T48" s="88">
         <f t="shared" si="44"/>
@@ -13482,7 +13482,7 @@
         <v>5200</v>
       </c>
       <c r="AI48" s="76" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="AJ48" s="88">
         <f t="shared" si="45"/>
@@ -13543,7 +13543,7 @@
     </row>
     <row r="49" spans="2:49" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B49" s="74" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="C49" s="73">
         <f>$W$7+($W$7*C$9/100)</f>
@@ -13606,7 +13606,7 @@
         <v>16500</v>
       </c>
       <c r="S49" s="74" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="T49" s="88">
         <f t="shared" si="44"/>
@@ -13665,7 +13665,7 @@
         <v>6500</v>
       </c>
       <c r="AI49" s="74" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="AJ49" s="88">
         <f t="shared" si="45"/>
@@ -13791,34 +13791,34 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="57" t="s">
+        <v>848</v>
+      </c>
+      <c r="B1" s="93" t="s">
         <v>849</v>
       </c>
-      <c r="B1" s="92" t="s">
+      <c r="C1" s="93"/>
+      <c r="D1" s="57" t="s">
         <v>850</v>
       </c>
-      <c r="C1" s="92"/>
-      <c r="D1" s="57" t="s">
+      <c r="E1" s="58" t="s">
         <v>851</v>
       </c>
-      <c r="E1" s="58" t="s">
+      <c r="F1" s="57" t="s">
         <v>852</v>
       </c>
-      <c r="F1" s="57" t="s">
+      <c r="G1" s="57" t="s">
         <v>853</v>
-      </c>
-      <c r="G1" s="57" t="s">
-        <v>854</v>
       </c>
       <c r="H1" s="59"/>
       <c r="I1" s="59"/>
       <c r="K1" s="57" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="L1" s="57" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="M1" s="60" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
@@ -13848,7 +13848,7 @@
       <c r="H2" s="66"/>
       <c r="I2" s="66"/>
       <c r="K2" s="65" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="L2" s="65">
         <v>5</v>
@@ -13886,7 +13886,7 @@
       <c r="H3" s="66"/>
       <c r="I3" s="66"/>
       <c r="K3" s="65" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="L3" s="65">
         <v>20</v>
@@ -13924,7 +13924,7 @@
       <c r="H4" s="66"/>
       <c r="I4" s="66"/>
       <c r="K4" s="65" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="L4" s="65">
         <v>40</v>
@@ -13934,7 +13934,7 @@
         <v>20</v>
       </c>
       <c r="N4" s="67" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="O4" s="48"/>
       <c r="P4" s="48"/>
@@ -13968,7 +13968,7 @@
       <c r="H5" s="66"/>
       <c r="I5" s="66"/>
       <c r="K5" s="65" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="L5" s="65">
         <v>80</v>
@@ -14012,7 +14012,7 @@
       <c r="H6" s="66"/>
       <c r="I6" s="66"/>
       <c r="K6" s="65" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="L6" s="65">
         <v>160</v>
@@ -14022,13 +14022,13 @@
         <v>80</v>
       </c>
       <c r="N6" s="67" t="s">
-        <v>849</v>
-      </c>
-      <c r="O6" s="93" t="s">
-        <v>862</v>
-      </c>
-      <c r="P6" s="94"/>
-      <c r="Q6" s="95"/>
+        <v>848</v>
+      </c>
+      <c r="O6" s="94" t="s">
+        <v>861</v>
+      </c>
+      <c r="P6" s="95"/>
+      <c r="Q6" s="96"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="61">
@@ -14063,11 +14063,11 @@
         <f>ROUNDUP(SQRT(N5/100+1521/4)-39/2,0)</f>
         <v>83</v>
       </c>
-      <c r="O7" s="96" t="s">
-        <v>846</v>
-      </c>
-      <c r="P7" s="96"/>
-      <c r="Q7" s="96"/>
+      <c r="O7" s="97" t="s">
+        <v>845</v>
+      </c>
+      <c r="P7" s="97"/>
+      <c r="Q7" s="97"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="61">
@@ -14096,12 +14096,12 @@
       <c r="G8" s="65"/>
       <c r="H8" s="66"/>
       <c r="I8" s="66"/>
-      <c r="K8" s="97" t="s">
-        <v>863</v>
-      </c>
-      <c r="L8" s="97"/>
+      <c r="K8" s="98" t="s">
+        <v>862</v>
+      </c>
+      <c r="L8" s="98"/>
       <c r="O8" s="11" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
@@ -14132,7 +14132,7 @@
       <c r="H9" s="66"/>
       <c r="I9" s="66"/>
       <c r="K9" s="57" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="L9" s="65">
         <v>40</v>
@@ -14191,14 +14191,14 @@
         <v>0</v>
       </c>
       <c r="G11" s="65" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="H11" s="70">
         <f>A11</f>
         <v>10</v>
       </c>
       <c r="I11" s="66" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="J11" s="11">
         <v>1</v>
@@ -14207,7 +14207,7 @@
         <v>10</v>
       </c>
       <c r="L11" s="11" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="M11" s="11">
         <v>1</v>
@@ -14238,14 +14238,14 @@
         <v>0</v>
       </c>
       <c r="G12" s="65" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="H12" s="70">
         <f t="shared" ref="H12:H75" si="6">A12</f>
         <v>20</v>
       </c>
       <c r="I12" s="66" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="J12" s="11">
         <v>1</v>
@@ -14254,7 +14254,7 @@
         <v>20</v>
       </c>
       <c r="L12" s="71" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="M12" s="71">
         <v>1</v>
@@ -14286,14 +14286,14 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="G13" s="65" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="H13" s="70">
         <f t="shared" si="6"/>
         <v>30</v>
       </c>
       <c r="I13" s="66" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="J13" s="11">
         <v>1</v>
@@ -14302,7 +14302,7 @@
         <v>30</v>
       </c>
       <c r="L13" s="11" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="M13" s="71">
         <v>1</v>
@@ -14334,14 +14334,14 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="G14" s="65" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="H14" s="70">
         <f t="shared" si="6"/>
         <v>40</v>
       </c>
       <c r="I14" s="66" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="J14" s="11">
         <v>2</v>
@@ -14350,7 +14350,7 @@
         <v>40</v>
       </c>
       <c r="L14" s="11" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="M14" s="11">
         <v>2</v>
@@ -14381,14 +14381,14 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="G15" s="65" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="H15" s="70">
         <f t="shared" si="6"/>
         <v>50</v>
       </c>
       <c r="I15" s="66" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="J15" s="11">
         <v>2</v>
@@ -14397,7 +14397,7 @@
         <v>50</v>
       </c>
       <c r="L15" s="11" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="M15" s="11">
         <v>2</v>
@@ -14428,14 +14428,14 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="G16" s="65" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="H16" s="70">
         <f t="shared" si="6"/>
         <v>60</v>
       </c>
       <c r="I16" s="66" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="J16" s="11">
         <v>2</v>
@@ -14444,7 +14444,7 @@
         <v>60</v>
       </c>
       <c r="L16" s="11" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="M16" s="11">
         <v>2</v>
@@ -14475,14 +14475,14 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="G17" s="65" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="H17" s="70">
         <f t="shared" si="6"/>
         <v>70</v>
       </c>
       <c r="I17" s="66" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="J17" s="11">
         <v>3</v>
@@ -14491,7 +14491,7 @@
         <v>70</v>
       </c>
       <c r="L17" s="11" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="M17" s="11">
         <v>3</v>
@@ -14522,14 +14522,14 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="G18" s="65" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="H18" s="70">
         <f t="shared" si="6"/>
         <v>80</v>
       </c>
       <c r="I18" s="66" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="J18" s="11">
         <v>3</v>
@@ -14538,7 +14538,7 @@
         <v>80</v>
       </c>
       <c r="L18" s="11" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="M18" s="11">
         <v>3</v>
@@ -14569,14 +14569,14 @@
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="G19" s="65" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="H19" s="70">
         <f t="shared" si="6"/>
         <v>90</v>
       </c>
       <c r="I19" s="66" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="J19" s="11">
         <v>3</v>
@@ -14585,7 +14585,7 @@
         <v>90</v>
       </c>
       <c r="L19" s="11" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="M19" s="11">
         <v>3</v>
@@ -14616,14 +14616,14 @@
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="G20" s="65" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="H20" s="70">
         <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="I20" s="66" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="J20" s="11">
         <v>4</v>
@@ -14632,7 +14632,7 @@
         <v>100</v>
       </c>
       <c r="L20" s="11" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="M20" s="11">
         <v>4</v>
@@ -14663,14 +14663,14 @@
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="G21" s="65" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="H21" s="70">
         <f t="shared" si="6"/>
         <v>110</v>
       </c>
       <c r="I21" s="66" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="J21" s="11">
         <v>4</v>
@@ -14679,7 +14679,7 @@
         <v>110</v>
       </c>
       <c r="L21" s="11" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="M21" s="11">
         <v>4</v>
@@ -14710,14 +14710,14 @@
         <v>1.2E-2</v>
       </c>
       <c r="G22" s="65" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="H22" s="70">
         <f t="shared" si="6"/>
         <v>120</v>
       </c>
       <c r="I22" s="66" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="J22" s="11">
         <v>4</v>
@@ -14726,7 +14726,7 @@
         <v>120</v>
       </c>
       <c r="L22" s="11" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="M22" s="11">
         <v>4</v>
@@ -14757,14 +14757,14 @@
         <v>1.2E-2</v>
       </c>
       <c r="G23" s="65" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="H23" s="70">
         <f t="shared" si="6"/>
         <v>130</v>
       </c>
       <c r="I23" s="66" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="J23" s="11">
         <v>1</v>
@@ -14773,7 +14773,7 @@
         <v>130</v>
       </c>
       <c r="L23" s="11" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="M23" s="11">
         <v>1</v>
@@ -14804,7 +14804,7 @@
         <v>1.2E-2</v>
       </c>
       <c r="G24" s="65" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="H24" s="70">
         <f t="shared" si="6"/>
@@ -14851,7 +14851,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="G25" s="65" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="H25" s="70">
         <f t="shared" si="6"/>
@@ -14898,7 +14898,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="G26" s="65" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="H26" s="70">
         <f t="shared" si="6"/>
@@ -14945,7 +14945,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="G27" s="65" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="H27" s="70">
         <f t="shared" si="6"/>
@@ -14992,7 +14992,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G28" s="65" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="H28" s="70">
         <f t="shared" si="6"/>
@@ -15039,7 +15039,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G29" s="65" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="H29" s="70">
         <f t="shared" si="6"/>
@@ -15086,7 +15086,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G30" s="65" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="H30" s="70">
         <f t="shared" si="6"/>
@@ -15133,7 +15133,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="G31" s="65" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="H31" s="70">
         <f t="shared" si="6"/>
@@ -15180,7 +15180,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="G32" s="65" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="H32" s="70">
         <f t="shared" si="6"/>
@@ -15227,7 +15227,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="G33" s="65" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="H33" s="70">
         <f t="shared" si="6"/>
@@ -15274,7 +15274,7 @@
         <v>2.4E-2</v>
       </c>
       <c r="G34" s="65" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="H34" s="70">
         <f t="shared" si="6"/>
@@ -15321,7 +15321,7 @@
         <v>2.4E-2</v>
       </c>
       <c r="G35" s="65" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="H35" s="70">
         <f t="shared" si="6"/>
@@ -15368,7 +15368,7 @@
         <v>2.4E-2</v>
       </c>
       <c r="G36" s="65" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="H36" s="70">
         <f t="shared" si="6"/>
@@ -15415,7 +15415,7 @@
         <v>2.6999999999999996E-2</v>
       </c>
       <c r="G37" s="65" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="H37" s="70">
         <f t="shared" si="6"/>
@@ -15462,7 +15462,7 @@
         <v>2.6999999999999996E-2</v>
       </c>
       <c r="G38" s="65" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="H38" s="70">
         <f t="shared" si="6"/>
@@ -15509,7 +15509,7 @@
         <v>2.6999999999999996E-2</v>
       </c>
       <c r="G39" s="65" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="H39" s="70">
         <f t="shared" si="6"/>
@@ -15556,7 +15556,7 @@
         <v>0.03</v>
       </c>
       <c r="G40" s="65" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="H40" s="70">
         <f t="shared" si="6"/>
@@ -15603,7 +15603,7 @@
         <v>0.03</v>
       </c>
       <c r="G41" s="65" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="H41" s="70">
         <f t="shared" si="6"/>
@@ -15650,7 +15650,7 @@
         <v>0.03</v>
       </c>
       <c r="G42" s="65" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="H42" s="70">
         <f t="shared" si="6"/>
@@ -15697,7 +15697,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="G43" s="65" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="H43" s="70">
         <f t="shared" si="6"/>
@@ -15744,7 +15744,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="G44" s="65" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="H44" s="70">
         <f t="shared" si="6"/>
@@ -15791,7 +15791,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="G45" s="65" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="H45" s="70">
         <f t="shared" si="6"/>
@@ -15838,7 +15838,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="G46" s="65" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="H46" s="70">
         <f t="shared" si="6"/>
@@ -15885,7 +15885,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="G47" s="65" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="H47" s="70">
         <f t="shared" si="6"/>
@@ -15932,7 +15932,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="G48" s="65" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="H48" s="70">
         <f t="shared" si="6"/>
@@ -15979,7 +15979,7 @@
         <v>3.9E-2</v>
       </c>
       <c r="G49" s="65" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="H49" s="70">
         <f t="shared" si="6"/>
@@ -16026,7 +16026,7 @@
         <v>3.9E-2</v>
       </c>
       <c r="G50" s="65" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="H50" s="70">
         <f t="shared" si="6"/>
@@ -16073,7 +16073,7 @@
         <v>3.9E-2</v>
       </c>
       <c r="G51" s="65" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="H51" s="70">
         <f t="shared" si="6"/>
@@ -16120,7 +16120,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="G52" s="65" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="H52" s="70">
         <f t="shared" si="6"/>
@@ -16167,7 +16167,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="G53" s="65" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="H53" s="70">
         <f t="shared" si="6"/>
@@ -16214,7 +16214,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="G54" s="65" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="H54" s="70">
         <f t="shared" si="6"/>
@@ -16261,7 +16261,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="G55" s="65" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="H55" s="70">
         <f t="shared" si="6"/>
@@ -16308,7 +16308,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="G56" s="65" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="H56" s="70">
         <f t="shared" si="6"/>
@@ -16355,7 +16355,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="G57" s="65" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="H57" s="70">
         <f t="shared" si="6"/>
@@ -16402,7 +16402,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="G58" s="65" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="H58" s="70">
         <f t="shared" si="6"/>
@@ -16449,7 +16449,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="G59" s="65" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="H59" s="70">
         <f t="shared" si="6"/>
@@ -16496,7 +16496,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="G60" s="65" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="H60" s="70">
         <f t="shared" si="6"/>
@@ -16543,7 +16543,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="G61" s="65" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="H61" s="70">
         <f t="shared" si="6"/>
@@ -16590,7 +16590,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="G62" s="65" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="H62" s="70">
         <f t="shared" si="6"/>
@@ -16637,7 +16637,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="G63" s="65" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="H63" s="70">
         <f t="shared" si="6"/>
@@ -16684,7 +16684,7 @@
         <v>5.3999999999999992E-2</v>
       </c>
       <c r="G64" s="65" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="H64" s="70">
         <f t="shared" si="6"/>
@@ -16731,7 +16731,7 @@
         <v>5.3999999999999992E-2</v>
       </c>
       <c r="G65" s="65" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="H65" s="70">
         <f t="shared" si="6"/>
@@ -16778,7 +16778,7 @@
         <v>5.3999999999999992E-2</v>
       </c>
       <c r="G66" s="65" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="H66" s="70">
         <f t="shared" si="6"/>
@@ -16825,7 +16825,7 @@
         <v>5.7000000000000002E-2</v>
       </c>
       <c r="G67" s="65" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="H67" s="70">
         <f t="shared" si="6"/>
@@ -16872,7 +16872,7 @@
         <v>5.7000000000000002E-2</v>
       </c>
       <c r="G68" s="65" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="H68" s="70">
         <f t="shared" si="6"/>
@@ -16919,7 +16919,7 @@
         <v>5.7000000000000002E-2</v>
       </c>
       <c r="G69" s="65" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="H69" s="70">
         <f t="shared" si="6"/>
@@ -16966,7 +16966,7 @@
         <v>0.06</v>
       </c>
       <c r="G70" s="65" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="H70" s="70">
         <f t="shared" si="6"/>
@@ -17013,7 +17013,7 @@
         <v>0.06</v>
       </c>
       <c r="G71" s="65" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="H71" s="70">
         <f t="shared" si="6"/>
@@ -17060,7 +17060,7 @@
         <v>0.06</v>
       </c>
       <c r="G72" s="65" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="H72" s="70">
         <f t="shared" si="6"/>
@@ -17107,7 +17107,7 @@
         <v>6.3E-2</v>
       </c>
       <c r="G73" s="65" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="H73" s="70">
         <f t="shared" si="6"/>
@@ -17154,7 +17154,7 @@
         <v>6.3E-2</v>
       </c>
       <c r="G74" s="65" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="H74" s="70">
         <f t="shared" si="6"/>
@@ -17185,7 +17185,7 @@
         <v>#REF!</v>
       </c>
       <c r="C75" s="61" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="D75" s="61">
         <f t="shared" si="7"/>
@@ -17200,7 +17200,7 @@
         <v>6.3E-2</v>
       </c>
       <c r="G75" s="65" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="H75" s="70">
         <f t="shared" si="6"/>
@@ -17239,7 +17239,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L651"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+    <sheetView topLeftCell="A77" workbookViewId="0">
       <selection activeCell="F645" sqref="F645"/>
     </sheetView>
   </sheetViews>
@@ -17260,29 +17260,29 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="57" t="s">
+        <v>897</v>
+      </c>
+      <c r="B1" s="93" t="s">
         <v>898</v>
       </c>
-      <c r="B1" s="92" t="s">
+      <c r="C1" s="93"/>
+      <c r="D1" s="57" t="s">
         <v>899</v>
       </c>
-      <c r="C1" s="92"/>
-      <c r="D1" s="57" t="s">
+      <c r="E1" s="58" t="s">
         <v>900</v>
       </c>
-      <c r="E1" s="58" t="s">
+      <c r="F1" s="57" t="s">
         <v>901</v>
       </c>
-      <c r="F1" s="57" t="s">
+      <c r="G1" s="57" t="s">
         <v>902</v>
       </c>
-      <c r="G1" s="57" t="s">
+      <c r="I1" s="57" t="s">
         <v>903</v>
       </c>
-      <c r="I1" s="57" t="s">
+      <c r="J1" s="57" t="s">
         <v>904</v>
-      </c>
-      <c r="J1" s="57" t="s">
-        <v>905</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -17309,12 +17309,12 @@
         <v>0</v>
       </c>
       <c r="G2" s="65"/>
-      <c r="H2" s="98">
+      <c r="H2" s="90">
         <f>SQRT(C2-1+950625)/50 -37/2</f>
         <v>1.9999902439001147</v>
       </c>
       <c r="I2" s="65" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="J2" s="65">
         <v>100</v>
@@ -17345,12 +17345,12 @@
         <v>0</v>
       </c>
       <c r="G3" s="65"/>
-      <c r="H3" s="98">
+      <c r="H3" s="90">
         <f t="shared" ref="H3:H32" si="4">SQRT(C3-1+950625)/50 -37/2</f>
         <v>2.9999906976724056</v>
       </c>
       <c r="I3" s="65" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="J3" s="65">
         <v>500</v>
@@ -17381,12 +17381,12 @@
         <v>0</v>
       </c>
       <c r="G4" s="65"/>
-      <c r="H4" s="98">
+      <c r="H4" s="90">
         <f t="shared" si="4"/>
         <v>3.999991111109356</v>
       </c>
       <c r="I4" s="65" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="J4" s="65">
         <v>1000</v>
@@ -17417,12 +17417,12 @@
         <v>0</v>
       </c>
       <c r="G5" s="65"/>
-      <c r="H5" s="98">
+      <c r="H5" s="90">
         <f t="shared" si="4"/>
         <v>4.9999914893601591</v>
       </c>
       <c r="I5" s="65" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="J5" s="65">
         <v>3000</v>
@@ -17453,12 +17453,12 @@
         <v>0</v>
       </c>
       <c r="G6" s="65"/>
-      <c r="H6" s="98">
+      <c r="H6" s="90">
         <f t="shared" si="4"/>
         <v>5.9999918367333329</v>
       </c>
       <c r="I6" s="65" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="J6" s="65">
         <v>10000</v>
@@ -17489,7 +17489,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="65"/>
-      <c r="H7" s="98">
+      <c r="H7" s="90">
         <f t="shared" si="4"/>
         <v>6.9999921568615413</v>
       </c>
@@ -17521,14 +17521,14 @@
         <v>0</v>
       </c>
       <c r="G8" s="65"/>
-      <c r="H8" s="98">
+      <c r="H8" s="90">
         <f t="shared" si="4"/>
         <v>7.9999924528291153</v>
       </c>
-      <c r="I8" s="97" t="s">
-        <v>911</v>
-      </c>
-      <c r="J8" s="97"/>
+      <c r="I8" s="98" t="s">
+        <v>910</v>
+      </c>
+      <c r="J8" s="98"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="61">
@@ -17555,18 +17555,18 @@
         <v>0</v>
       </c>
       <c r="G9" s="65"/>
-      <c r="H9" s="98">
+      <c r="H9" s="90">
         <f t="shared" si="4"/>
         <v>8.9999927272717635</v>
       </c>
       <c r="I9" s="57" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="J9" s="65">
         <v>1000</v>
       </c>
       <c r="L9" s="11" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -17594,7 +17594,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="65"/>
-      <c r="H10" s="98">
+      <c r="H10" s="90">
         <f t="shared" si="4"/>
         <v>9.9999929824552787</v>
       </c>
@@ -17624,9 +17624,9 @@
         <v>0</v>
       </c>
       <c r="G11" s="65" t="s">
-        <v>913</v>
-      </c>
-      <c r="H11" s="98">
+        <v>912</v>
+      </c>
+      <c r="H11" s="90">
         <f t="shared" si="4"/>
         <v>10.999993220338204</v>
       </c>
@@ -17656,7 +17656,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="65"/>
-      <c r="H12" s="98">
+      <c r="H12" s="90">
         <f t="shared" si="4"/>
         <v>11.999993442622245</v>
       </c>
@@ -17686,7 +17686,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="65"/>
-      <c r="H13" s="98">
+      <c r="H13" s="90">
         <f t="shared" si="4"/>
         <v>12.999993650793012</v>
       </c>
@@ -17716,7 +17716,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="65"/>
-      <c r="H14" s="98">
+      <c r="H14" s="90">
         <f t="shared" si="4"/>
         <v>13.999993846153266</v>
       </c>
@@ -17746,7 +17746,7 @@
         <v>0</v>
       </c>
       <c r="G15" s="65"/>
-      <c r="H15" s="98">
+      <c r="H15" s="90">
         <f t="shared" si="4"/>
         <v>14.999994029850214</v>
       </c>
@@ -17776,7 +17776,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="65"/>
-      <c r="H16" s="98">
+      <c r="H16" s="90">
         <f t="shared" si="4"/>
         <v>15.999994202898066</v>
       </c>
@@ -17806,7 +17806,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="65"/>
-      <c r="H17" s="98">
+      <c r="H17" s="90">
         <f t="shared" si="4"/>
         <v>16.999994366196738</v>
       </c>
@@ -17836,7 +17836,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="65"/>
-      <c r="H18" s="98">
+      <c r="H18" s="90">
         <f t="shared" si="4"/>
         <v>17.999994520547531</v>
       </c>
@@ -17866,7 +17866,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="65"/>
-      <c r="H19" s="98">
+      <c r="H19" s="90">
         <f t="shared" si="4"/>
         <v>18.999994666666289</v>
       </c>
@@ -17896,7 +17896,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="65"/>
-      <c r="H20" s="98">
+      <c r="H20" s="90">
         <f t="shared" si="4"/>
         <v>19.999994805194454</v>
       </c>
@@ -17926,9 +17926,9 @@
         <v>0</v>
       </c>
       <c r="G21" s="65" t="s">
-        <v>913</v>
-      </c>
-      <c r="H21" s="98">
+        <v>912</v>
+      </c>
+      <c r="H21" s="90">
         <f t="shared" si="4"/>
         <v>20.999994936708532</v>
       </c>
@@ -17958,7 +17958,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="65"/>
-      <c r="H22" s="98">
+      <c r="H22" s="90">
         <f t="shared" si="4"/>
         <v>21.999995061728093</v>
       </c>
@@ -17988,7 +17988,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="65"/>
-      <c r="H23" s="98">
+      <c r="H23" s="90">
         <f t="shared" si="4"/>
         <v>22.999995180722607</v>
       </c>
@@ -18018,7 +18018,7 @@
         <v>0</v>
       </c>
       <c r="G24" s="65"/>
-      <c r="H24" s="98">
+      <c r="H24" s="90">
         <f t="shared" si="4"/>
         <v>23.99999529411739</v>
       </c>
@@ -18048,7 +18048,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="65"/>
-      <c r="H25" s="98">
+      <c r="H25" s="90">
         <f t="shared" si="4"/>
         <v>24.999995402298609</v>
       </c>
@@ -18078,7 +18078,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="65"/>
-      <c r="H26" s="98">
+      <c r="H26" s="90">
         <f t="shared" si="4"/>
         <v>25.999995505617754</v>
       </c>
@@ -18108,7 +18108,7 @@
         <v>0</v>
       </c>
       <c r="G27" s="65"/>
-      <c r="H27" s="98">
+      <c r="H27" s="90">
         <f t="shared" si="4"/>
         <v>26.999995604395387</v>
       </c>
@@ -18138,7 +18138,7 @@
         <v>0</v>
       </c>
       <c r="G28" s="65"/>
-      <c r="H28" s="98">
+      <c r="H28" s="90">
         <f t="shared" si="4"/>
         <v>27.999995698924529</v>
       </c>
@@ -18168,7 +18168,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="65"/>
-      <c r="H29" s="98">
+      <c r="H29" s="90">
         <f t="shared" si="4"/>
         <v>28.999995789473495</v>
       </c>
@@ -18198,7 +18198,7 @@
         <v>0</v>
       </c>
       <c r="G30" s="65"/>
-      <c r="H30" s="98">
+      <c r="H30" s="90">
         <f t="shared" si="4"/>
         <v>29.999995876288487</v>
       </c>
@@ -18228,9 +18228,9 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="G31" s="65" t="s">
-        <v>913</v>
-      </c>
-      <c r="H31" s="98">
+        <v>912</v>
+      </c>
+      <c r="H31" s="90">
         <f t="shared" si="4"/>
         <v>30.9999959595958</v>
       </c>
@@ -18260,7 +18260,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="G32" s="65"/>
-      <c r="H32" s="98">
+      <c r="H32" s="90">
         <f t="shared" si="4"/>
         <v>31.999996039603801</v>
       </c>
@@ -18498,7 +18498,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="G41" s="65" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
@@ -18760,7 +18760,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="G51" s="65" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
@@ -19022,7 +19022,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="G61" s="65" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
@@ -19284,7 +19284,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="G71" s="65" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
@@ -19546,7 +19546,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="G81" s="65" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
@@ -19808,7 +19808,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="G91" s="65" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
@@ -20070,7 +20070,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="G101" s="65" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
@@ -20332,7 +20332,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="G111" s="65" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.3">
@@ -20594,7 +20594,7 @@
         <v>1.2E-2</v>
       </c>
       <c r="G121" s="65" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.3">
@@ -20856,7 +20856,7 @@
         <v>1.2E-2</v>
       </c>
       <c r="G131" s="65" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.3">
@@ -21118,7 +21118,7 @@
         <v>1.2E-2</v>
       </c>
       <c r="G141" s="65" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.3">
@@ -21380,7 +21380,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="G151" s="65" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.3">
@@ -21642,7 +21642,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="G161" s="65" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.3">
@@ -21904,7 +21904,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="G171" s="65" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.3">
@@ -22166,7 +22166,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G181" s="65" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.3">
@@ -22428,7 +22428,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G191" s="65" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.3">
@@ -22690,7 +22690,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G201" s="65" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.3">
@@ -22952,7 +22952,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="G211" s="65" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.3">
@@ -23214,7 +23214,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="G221" s="65" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.3">
@@ -23476,7 +23476,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="G231" s="65" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.3">
@@ -23738,7 +23738,7 @@
         <v>2.4E-2</v>
       </c>
       <c r="G241" s="65" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.3">
@@ -24000,7 +24000,7 @@
         <v>2.4E-2</v>
       </c>
       <c r="G251" s="65" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.3">
@@ -24262,7 +24262,7 @@
         <v>2.4E-2</v>
       </c>
       <c r="G261" s="65" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.3">
@@ -24524,7 +24524,7 @@
         <v>2.6999999999999996E-2</v>
       </c>
       <c r="G271" s="65" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.3">
@@ -24786,7 +24786,7 @@
         <v>2.6999999999999996E-2</v>
       </c>
       <c r="G281" s="65" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.3">
@@ -25048,7 +25048,7 @@
         <v>2.6999999999999996E-2</v>
       </c>
       <c r="G291" s="65" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.3">
@@ -25310,7 +25310,7 @@
         <v>0.03</v>
       </c>
       <c r="G301" s="65" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.3">
@@ -25572,7 +25572,7 @@
         <v>0.03</v>
       </c>
       <c r="G311" s="65" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.3">
@@ -25834,7 +25834,7 @@
         <v>0.03</v>
       </c>
       <c r="G321" s="65" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.3">
@@ -26096,7 +26096,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="G331" s="65" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.3">
@@ -26358,7 +26358,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="G341" s="65" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="342" spans="1:7" x14ac:dyDescent="0.3">
@@ -26620,7 +26620,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="G351" s="65" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="352" spans="1:7" x14ac:dyDescent="0.3">
@@ -26882,7 +26882,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="G361" s="65" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.3">
@@ -27144,7 +27144,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="G371" s="65" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="372" spans="1:7" x14ac:dyDescent="0.3">
@@ -27406,7 +27406,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="G381" s="65" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="382" spans="1:7" x14ac:dyDescent="0.3">
@@ -27668,7 +27668,7 @@
         <v>3.9E-2</v>
       </c>
       <c r="G391" s="65" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="392" spans="1:7" x14ac:dyDescent="0.3">
@@ -27930,7 +27930,7 @@
         <v>3.9E-2</v>
       </c>
       <c r="G401" s="65" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="402" spans="1:7" x14ac:dyDescent="0.3">
@@ -28192,7 +28192,7 @@
         <v>3.9E-2</v>
       </c>
       <c r="G411" s="65" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="412" spans="1:7" x14ac:dyDescent="0.3">
@@ -28454,7 +28454,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="G421" s="65" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="422" spans="1:7" x14ac:dyDescent="0.3">
@@ -28716,7 +28716,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="G431" s="65" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="432" spans="1:7" x14ac:dyDescent="0.3">
@@ -28978,7 +28978,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="G441" s="65" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="442" spans="1:7" x14ac:dyDescent="0.3">
@@ -29240,7 +29240,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="G451" s="65" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="452" spans="1:7" x14ac:dyDescent="0.3">
@@ -29502,7 +29502,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="G461" s="65" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="462" spans="1:7" x14ac:dyDescent="0.3">
@@ -29764,7 +29764,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="G471" s="65" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="472" spans="1:7" x14ac:dyDescent="0.3">
@@ -30000,7 +30000,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="G480" s="65" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="481" spans="1:7" x14ac:dyDescent="0.3">
@@ -30288,7 +30288,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="G491" s="65" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="492" spans="1:7" x14ac:dyDescent="0.3">
@@ -30550,7 +30550,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="G501" s="65" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="502" spans="1:7" x14ac:dyDescent="0.3">
@@ -30812,7 +30812,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="G511" s="65" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="512" spans="1:7" x14ac:dyDescent="0.3">
@@ -31074,7 +31074,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="G521" s="65" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="522" spans="1:7" x14ac:dyDescent="0.3">
@@ -31336,7 +31336,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="G531" s="65" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="532" spans="1:7" x14ac:dyDescent="0.3">
@@ -31598,7 +31598,7 @@
         <v>5.3999999999999992E-2</v>
       </c>
       <c r="G541" s="65" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="542" spans="1:7" x14ac:dyDescent="0.3">
@@ -31860,7 +31860,7 @@
         <v>5.3999999999999992E-2</v>
       </c>
       <c r="G551" s="65" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="552" spans="1:7" x14ac:dyDescent="0.3">
@@ -32122,7 +32122,7 @@
         <v>5.3999999999999992E-2</v>
       </c>
       <c r="G561" s="65" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="562" spans="1:7" x14ac:dyDescent="0.3">
@@ -32384,7 +32384,7 @@
         <v>5.7000000000000002E-2</v>
       </c>
       <c r="G571" s="65" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="572" spans="1:7" x14ac:dyDescent="0.3">
@@ -32646,7 +32646,7 @@
         <v>5.7000000000000002E-2</v>
       </c>
       <c r="G581" s="65" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="582" spans="1:7" x14ac:dyDescent="0.3">
@@ -32908,7 +32908,7 @@
         <v>5.7000000000000002E-2</v>
       </c>
       <c r="G591" s="65" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="592" spans="1:7" x14ac:dyDescent="0.3">
@@ -33170,7 +33170,7 @@
         <v>0.06</v>
       </c>
       <c r="G601" s="65" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="602" spans="1:7" x14ac:dyDescent="0.3">
@@ -33432,7 +33432,7 @@
         <v>0.06</v>
       </c>
       <c r="G611" s="65" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="612" spans="1:7" x14ac:dyDescent="0.3">
@@ -33694,7 +33694,7 @@
         <v>0.06</v>
       </c>
       <c r="G621" s="65" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="622" spans="1:7" x14ac:dyDescent="0.3">
@@ -33956,7 +33956,7 @@
         <v>6.3E-2</v>
       </c>
       <c r="G631" s="65" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="632" spans="1:7" x14ac:dyDescent="0.3">
@@ -34218,7 +34218,7 @@
         <v>6.3E-2</v>
       </c>
       <c r="G641" s="65" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="642" spans="1:7" x14ac:dyDescent="0.3">
@@ -34480,7 +34480,7 @@
         <v>6.3E-2</v>
       </c>
       <c r="G651" s="65" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
   </sheetData>
@@ -35335,10 +35335,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC494"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="16" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="16" topLeftCell="A380" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="W22" sqref="W22"/>
+      <selection pane="bottomLeft" activeCell="D405" sqref="D405"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.3"/>
@@ -43307,7 +43307,7 @@
       <c r="W107" s="26"/>
       <c r="X107" s="26"/>
       <c r="Y107" s="26" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="Z107" s="26"/>
       <c r="AA107" s="26"/>
@@ -43388,7 +43388,7 @@
         <v>436</v>
       </c>
       <c r="Y108" s="10" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="Z108" s="10"/>
       <c r="AA108" s="10"/>
@@ -44988,7 +44988,7 @@
         <v>436</v>
       </c>
       <c r="Y129" s="10" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="Z129" s="10"/>
       <c r="AA129" s="10"/>
@@ -46588,7 +46588,7 @@
         <v>436</v>
       </c>
       <c r="Y150" s="10" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="Z150" s="10"/>
       <c r="AA150" s="10"/>
@@ -48188,7 +48188,7 @@
         <v>436</v>
       </c>
       <c r="Y171" s="10" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="Z171" s="10"/>
       <c r="AA171" s="10"/>
@@ -49788,7 +49788,7 @@
         <v>436</v>
       </c>
       <c r="Y192" s="10" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="Z192" s="10"/>
       <c r="AA192" s="10"/>
@@ -51388,7 +51388,7 @@
         <v>436</v>
       </c>
       <c r="Y213" s="10" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="Z213" s="10"/>
       <c r="AA213" s="10"/>
@@ -52988,7 +52988,7 @@
         <v>436</v>
       </c>
       <c r="Y234" s="10" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="Z234" s="10"/>
       <c r="AA234" s="10"/>
@@ -54588,7 +54588,7 @@
         <v>436</v>
       </c>
       <c r="Y255" s="10" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="Z255" s="10"/>
       <c r="AA255" s="10"/>
@@ -56188,7 +56188,7 @@
         <v>436</v>
       </c>
       <c r="Y276" s="10" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="Z276" s="10"/>
       <c r="AA276" s="10"/>
@@ -57788,7 +57788,7 @@
         <v>436</v>
       </c>
       <c r="Y297" s="10" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="Z297" s="10"/>
       <c r="AA297" s="10"/>
@@ -59388,7 +59388,7 @@
         <v>436</v>
       </c>
       <c r="Y318" s="10" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="Z318" s="10"/>
       <c r="AA318" s="10"/>
@@ -60988,7 +60988,7 @@
         <v>436</v>
       </c>
       <c r="Y339" s="10" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="Z339" s="10"/>
       <c r="AA339" s="10"/>
@@ -62588,7 +62588,7 @@
         <v>436</v>
       </c>
       <c r="Y360" s="10" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="Z360" s="10"/>
       <c r="AA360" s="10"/>
@@ -65553,7 +65553,7 @@
         <v>202</v>
       </c>
       <c r="D404" s="48" t="s">
-        <v>824</v>
+        <v>1013</v>
       </c>
       <c r="E404" s="28" t="s">
         <v>206</v>
@@ -65672,13 +65672,13 @@
         <v>202</v>
       </c>
       <c r="D406" s="48" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="E406" s="28" t="s">
         <v>206</v>
       </c>
       <c r="F406" s="48" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="G406" s="28" t="s">
         <v>157</v>
@@ -65714,7 +65714,7 @@
         <v>1</v>
       </c>
       <c r="R406" s="48" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="407" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -66247,7 +66247,7 @@
     </row>
     <row r="415" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A415" s="10" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B415" s="10" t="s">
         <v>160</v>
@@ -66317,16 +66317,16 @@
         <v>6000</v>
       </c>
       <c r="C416" s="48" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="D416" s="48" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="E416" s="48" t="s">
         <v>176</v>
       </c>
       <c r="F416" s="48" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G416" s="48">
         <v>0</v>
@@ -66341,7 +66341,7 @@
         <v>0</v>
       </c>
       <c r="K416" s="4" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="L416" s="48">
         <v>0</v>
@@ -66373,16 +66373,16 @@
         <v>6001</v>
       </c>
       <c r="C417" s="48" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="D417" s="48" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="E417" s="48" t="s">
         <v>157</v>
       </c>
       <c r="F417" s="48" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="G417" s="48">
         <v>1</v>
@@ -66397,7 +66397,7 @@
         <v>0</v>
       </c>
       <c r="K417" s="4" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="L417" s="48">
         <v>0</v>
@@ -66429,16 +66429,16 @@
         <v>6002</v>
       </c>
       <c r="C418" s="48" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="D418" s="48" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="E418" s="48" t="s">
         <v>157</v>
       </c>
       <c r="F418" s="48" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="G418" s="48">
         <v>1</v>
@@ -66453,7 +66453,7 @@
         <v>0</v>
       </c>
       <c r="K418" s="4" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="L418" s="48">
         <v>0</v>
@@ -66485,16 +66485,16 @@
         <v>6003</v>
       </c>
       <c r="C419" s="48" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="D419" s="48" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="E419" s="48" t="s">
         <v>157</v>
       </c>
       <c r="F419" s="48" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="G419" s="48">
         <v>1</v>
@@ -66509,7 +66509,7 @@
         <v>0</v>
       </c>
       <c r="K419" s="4" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="L419" s="48">
         <v>0</v>
@@ -66541,16 +66541,16 @@
         <v>6004</v>
       </c>
       <c r="C420" s="48" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="D420" s="48" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="E420" s="48" t="s">
         <v>157</v>
       </c>
       <c r="F420" s="48" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="G420" s="48">
         <v>1</v>
@@ -66565,7 +66565,7 @@
         <v>0</v>
       </c>
       <c r="K420" s="4" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="L420" s="48">
         <v>0</v>
@@ -66597,16 +66597,16 @@
         <v>6005</v>
       </c>
       <c r="C421" s="48" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="D421" s="48" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="E421" s="48" t="s">
         <v>157</v>
       </c>
       <c r="F421" s="48" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="G421" s="48">
         <v>1</v>
@@ -66621,7 +66621,7 @@
         <v>0</v>
       </c>
       <c r="K421" s="4" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="L421" s="48">
         <v>0</v>
@@ -66653,16 +66653,16 @@
         <v>6006</v>
       </c>
       <c r="C422" s="48" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="D422" s="48" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="E422" s="48" t="s">
         <v>157</v>
       </c>
       <c r="F422" s="48" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="G422" s="48">
         <v>1</v>
@@ -66677,7 +66677,7 @@
         <v>0</v>
       </c>
       <c r="K422" s="4" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="L422" s="48">
         <v>0</v>

--- a/야구K6_ItemTablev1.0.18.xlsx
+++ b/야구K6_ItemTablev1.0.18.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="60" yWindow="-45" windowWidth="34845" windowHeight="11925" activeTab="3"/>
+    <workbookView xWindow="60" yWindow="-45" windowWidth="34845" windowHeight="11925" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="레벨장비검사" sheetId="22" r:id="rId1"/>
@@ -6670,6 +6670,9 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="44" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="36" fillId="8" borderId="16" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6693,9 +6696,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="44" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="47">
@@ -7078,22 +7078,22 @@
       <c r="B1" s="73"/>
     </row>
     <row r="2" spans="2:49" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="D2" s="91" t="s">
+      <c r="D2" s="92" t="s">
         <v>961</v>
       </c>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="91"/>
-      <c r="L2" s="91"/>
-      <c r="M2" s="91"/>
-      <c r="N2" s="91"/>
-      <c r="O2" s="91"/>
-      <c r="P2" s="91"/>
-      <c r="Q2" s="91"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="92"/>
+      <c r="M2" s="92"/>
+      <c r="N2" s="92"/>
+      <c r="O2" s="92"/>
+      <c r="P2" s="92"/>
+      <c r="Q2" s="92"/>
       <c r="V2" s="77" t="s">
         <v>962</v>
       </c>
@@ -7594,15 +7594,15 @@
       <c r="O10" s="73"/>
       <c r="P10" s="73"/>
       <c r="Q10" s="73"/>
-      <c r="T10" s="92" t="s">
+      <c r="T10" s="93" t="s">
         <v>976</v>
       </c>
-      <c r="U10" s="92"/>
-      <c r="AJ10" s="92" t="s">
+      <c r="U10" s="93"/>
+      <c r="AJ10" s="93" t="s">
         <v>977</v>
       </c>
-      <c r="AK10" s="92"/>
-      <c r="AL10" s="92"/>
+      <c r="AK10" s="93"/>
+      <c r="AL10" s="93"/>
     </row>
     <row r="11" spans="2:49" x14ac:dyDescent="0.2">
       <c r="B11" s="76" t="s">
@@ -13957,10 +13957,10 @@
       <c r="A1" s="57" t="s">
         <v>848</v>
       </c>
-      <c r="B1" s="93" t="s">
+      <c r="B1" s="94" t="s">
         <v>849</v>
       </c>
-      <c r="C1" s="93"/>
+      <c r="C1" s="94"/>
       <c r="D1" s="57" t="s">
         <v>850</v>
       </c>
@@ -14188,11 +14188,11 @@
       <c r="N6" s="67" t="s">
         <v>848</v>
       </c>
-      <c r="O6" s="94" t="s">
+      <c r="O6" s="95" t="s">
         <v>861</v>
       </c>
-      <c r="P6" s="95"/>
-      <c r="Q6" s="96"/>
+      <c r="P6" s="96"/>
+      <c r="Q6" s="97"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="61">
@@ -14227,11 +14227,11 @@
         <f>ROUNDUP(SQRT(N5/100+1521/4)-39/2,0)</f>
         <v>83</v>
       </c>
-      <c r="O7" s="97" t="s">
+      <c r="O7" s="98" t="s">
         <v>845</v>
       </c>
-      <c r="P7" s="97"/>
-      <c r="Q7" s="97"/>
+      <c r="P7" s="98"/>
+      <c r="Q7" s="98"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="61">
@@ -14260,10 +14260,10 @@
       <c r="G8" s="65"/>
       <c r="H8" s="66"/>
       <c r="I8" s="66"/>
-      <c r="K8" s="98" t="s">
+      <c r="K8" s="99" t="s">
         <v>862</v>
       </c>
-      <c r="L8" s="98"/>
+      <c r="L8" s="99"/>
       <c r="O8" s="11" t="s">
         <v>1012</v>
       </c>
@@ -17426,10 +17426,10 @@
       <c r="A1" s="57" t="s">
         <v>897</v>
       </c>
-      <c r="B1" s="93" t="s">
+      <c r="B1" s="94" t="s">
         <v>898</v>
       </c>
-      <c r="C1" s="93"/>
+      <c r="C1" s="94"/>
       <c r="D1" s="57" t="s">
         <v>899</v>
       </c>
@@ -17689,10 +17689,10 @@
         <f t="shared" si="4"/>
         <v>7.9999924528291153</v>
       </c>
-      <c r="I8" s="98" t="s">
+      <c r="I8" s="99" t="s">
         <v>910</v>
       </c>
-      <c r="J8" s="98"/>
+      <c r="J8" s="99"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="61">
@@ -34662,7 +34662,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J653"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
@@ -34686,10 +34686,10 @@
       <c r="A1" s="57" t="s">
         <v>1014</v>
       </c>
-      <c r="B1" s="93" t="s">
+      <c r="B1" s="94" t="s">
         <v>1015</v>
       </c>
-      <c r="C1" s="93"/>
+      <c r="C1" s="94"/>
       <c r="D1" s="57" t="s">
         <v>1016</v>
       </c>
@@ -34724,7 +34724,7 @@
         <f>J9+A2*5</f>
         <v>1005</v>
       </c>
-      <c r="E2" s="99">
+      <c r="E2" s="91">
         <f t="shared" ref="E2:E65" si="0">D2/1000</f>
         <v>1.0049999999999999</v>
       </c>
@@ -34756,7 +34756,7 @@
         <f>D2+A3*5</f>
         <v>1015</v>
       </c>
-      <c r="E3" s="99">
+      <c r="E3" s="91">
         <f t="shared" si="0"/>
         <v>1.0149999999999999</v>
       </c>
@@ -34788,7 +34788,7 @@
         <f t="shared" ref="D4:D67" si="3">D3+A4*5</f>
         <v>1030</v>
       </c>
-      <c r="E4" s="99">
+      <c r="E4" s="91">
         <f t="shared" si="0"/>
         <v>1.03</v>
       </c>
@@ -34820,7 +34820,7 @@
         <f t="shared" si="3"/>
         <v>1050</v>
       </c>
-      <c r="E5" s="99">
+      <c r="E5" s="91">
         <f t="shared" si="0"/>
         <v>1.05</v>
       </c>
@@ -34852,7 +34852,7 @@
         <f t="shared" si="3"/>
         <v>1075</v>
       </c>
-      <c r="E6" s="99">
+      <c r="E6" s="91">
         <f t="shared" si="0"/>
         <v>1.075</v>
       </c>
@@ -34884,7 +34884,7 @@
         <f t="shared" si="3"/>
         <v>1105</v>
       </c>
-      <c r="E7" s="99">
+      <c r="E7" s="91">
         <f t="shared" si="0"/>
         <v>1.105</v>
       </c>
@@ -34912,7 +34912,7 @@
         <f t="shared" si="3"/>
         <v>1140</v>
       </c>
-      <c r="E8" s="99">
+      <c r="E8" s="91">
         <f t="shared" si="0"/>
         <v>1.1399999999999999</v>
       </c>
@@ -34921,10 +34921,10 @@
         <v>0</v>
       </c>
       <c r="G8" s="65"/>
-      <c r="I8" s="98" t="s">
+      <c r="I8" s="99" t="s">
         <v>1027</v>
       </c>
-      <c r="J8" s="98"/>
+      <c r="J8" s="99"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="61">
@@ -34942,7 +34942,7 @@
         <f t="shared" si="3"/>
         <v>1180</v>
       </c>
-      <c r="E9" s="99">
+      <c r="E9" s="91">
         <f t="shared" si="0"/>
         <v>1.18</v>
       </c>
@@ -34974,7 +34974,7 @@
         <f t="shared" si="3"/>
         <v>1225</v>
       </c>
-      <c r="E10" s="99">
+      <c r="E10" s="91">
         <f t="shared" si="0"/>
         <v>1.2250000000000001</v>
       </c>
@@ -35000,7 +35000,7 @@
         <f t="shared" si="3"/>
         <v>1275</v>
       </c>
-      <c r="E11" s="99">
+      <c r="E11" s="91">
         <f t="shared" si="0"/>
         <v>1.2749999999999999</v>
       </c>
@@ -35028,7 +35028,7 @@
         <f t="shared" si="3"/>
         <v>1330</v>
       </c>
-      <c r="E12" s="99">
+      <c r="E12" s="91">
         <f t="shared" si="0"/>
         <v>1.33</v>
       </c>
@@ -35054,7 +35054,7 @@
         <f t="shared" si="3"/>
         <v>1390</v>
       </c>
-      <c r="E13" s="99">
+      <c r="E13" s="91">
         <f t="shared" si="0"/>
         <v>1.39</v>
       </c>
@@ -35080,7 +35080,7 @@
         <f t="shared" si="3"/>
         <v>1455</v>
       </c>
-      <c r="E14" s="99">
+      <c r="E14" s="91">
         <f t="shared" si="0"/>
         <v>1.4550000000000001</v>
       </c>
@@ -35106,7 +35106,7 @@
         <f t="shared" si="3"/>
         <v>1525</v>
       </c>
-      <c r="E15" s="99">
+      <c r="E15" s="91">
         <f t="shared" si="0"/>
         <v>1.5249999999999999</v>
       </c>
@@ -35132,7 +35132,7 @@
         <f t="shared" si="3"/>
         <v>1600</v>
       </c>
-      <c r="E16" s="99">
+      <c r="E16" s="91">
         <f t="shared" si="0"/>
         <v>1.6</v>
       </c>
@@ -35158,7 +35158,7 @@
         <f t="shared" si="3"/>
         <v>1680</v>
       </c>
-      <c r="E17" s="99">
+      <c r="E17" s="91">
         <f t="shared" si="0"/>
         <v>1.68</v>
       </c>
@@ -35184,7 +35184,7 @@
         <f t="shared" si="3"/>
         <v>1765</v>
       </c>
-      <c r="E18" s="99">
+      <c r="E18" s="91">
         <f t="shared" si="0"/>
         <v>1.7649999999999999</v>
       </c>
@@ -35210,7 +35210,7 @@
         <f t="shared" si="3"/>
         <v>1855</v>
       </c>
-      <c r="E19" s="99">
+      <c r="E19" s="91">
         <f t="shared" si="0"/>
         <v>1.855</v>
       </c>
@@ -35236,7 +35236,7 @@
         <f t="shared" si="3"/>
         <v>1950</v>
       </c>
-      <c r="E20" s="99">
+      <c r="E20" s="91">
         <f t="shared" si="0"/>
         <v>1.95</v>
       </c>
@@ -35262,7 +35262,7 @@
         <f t="shared" si="3"/>
         <v>2050</v>
       </c>
-      <c r="E21" s="99">
+      <c r="E21" s="91">
         <f t="shared" si="0"/>
         <v>2.0499999999999998</v>
       </c>
@@ -35290,7 +35290,7 @@
         <f t="shared" si="3"/>
         <v>2155</v>
       </c>
-      <c r="E22" s="99">
+      <c r="E22" s="91">
         <f t="shared" si="0"/>
         <v>2.1549999999999998</v>
       </c>
@@ -35316,7 +35316,7 @@
         <f t="shared" si="3"/>
         <v>2265</v>
       </c>
-      <c r="E23" s="99">
+      <c r="E23" s="91">
         <f t="shared" si="0"/>
         <v>2.2650000000000001</v>
       </c>
@@ -35342,7 +35342,7 @@
         <f t="shared" si="3"/>
         <v>2380</v>
       </c>
-      <c r="E24" s="99">
+      <c r="E24" s="91">
         <f t="shared" si="0"/>
         <v>2.38</v>
       </c>
@@ -35368,7 +35368,7 @@
         <f t="shared" si="3"/>
         <v>2500</v>
       </c>
-      <c r="E25" s="99">
+      <c r="E25" s="91">
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
@@ -35394,7 +35394,7 @@
         <f t="shared" si="3"/>
         <v>2625</v>
       </c>
-      <c r="E26" s="99">
+      <c r="E26" s="91">
         <f t="shared" si="0"/>
         <v>2.625</v>
       </c>
@@ -35420,7 +35420,7 @@
         <f t="shared" si="3"/>
         <v>2755</v>
       </c>
-      <c r="E27" s="99">
+      <c r="E27" s="91">
         <f t="shared" si="0"/>
         <v>2.7549999999999999</v>
       </c>
@@ -35446,7 +35446,7 @@
         <f t="shared" si="3"/>
         <v>2890</v>
       </c>
-      <c r="E28" s="99">
+      <c r="E28" s="91">
         <f t="shared" si="0"/>
         <v>2.89</v>
       </c>
@@ -35472,7 +35472,7 @@
         <f t="shared" si="3"/>
         <v>3030</v>
       </c>
-      <c r="E29" s="99">
+      <c r="E29" s="91">
         <f t="shared" si="0"/>
         <v>3.03</v>
       </c>
@@ -35498,7 +35498,7 @@
         <f t="shared" si="3"/>
         <v>3175</v>
       </c>
-      <c r="E30" s="99">
+      <c r="E30" s="91">
         <f t="shared" si="0"/>
         <v>3.1749999999999998</v>
       </c>
@@ -35524,7 +35524,7 @@
         <f t="shared" si="3"/>
         <v>3325</v>
       </c>
-      <c r="E31" s="99">
+      <c r="E31" s="91">
         <f t="shared" si="0"/>
         <v>3.3250000000000002</v>
       </c>
@@ -35552,7 +35552,7 @@
         <f t="shared" si="3"/>
         <v>3480</v>
       </c>
-      <c r="E32" s="99">
+      <c r="E32" s="91">
         <f t="shared" si="0"/>
         <v>3.48</v>
       </c>
@@ -35578,7 +35578,7 @@
         <f t="shared" si="3"/>
         <v>3640</v>
       </c>
-      <c r="E33" s="99">
+      <c r="E33" s="91">
         <f t="shared" si="0"/>
         <v>3.64</v>
       </c>
@@ -35604,7 +35604,7 @@
         <f t="shared" si="3"/>
         <v>3805</v>
       </c>
-      <c r="E34" s="99">
+      <c r="E34" s="91">
         <f t="shared" si="0"/>
         <v>3.8050000000000002</v>
       </c>
@@ -35630,7 +35630,7 @@
         <f t="shared" si="3"/>
         <v>3975</v>
       </c>
-      <c r="E35" s="99">
+      <c r="E35" s="91">
         <f t="shared" si="0"/>
         <v>3.9750000000000001</v>
       </c>
@@ -35656,7 +35656,7 @@
         <f t="shared" si="3"/>
         <v>4150</v>
       </c>
-      <c r="E36" s="99">
+      <c r="E36" s="91">
         <f t="shared" si="0"/>
         <v>4.1500000000000004</v>
       </c>
@@ -35682,7 +35682,7 @@
         <f t="shared" si="3"/>
         <v>4330</v>
       </c>
-      <c r="E37" s="99">
+      <c r="E37" s="91">
         <f t="shared" si="0"/>
         <v>4.33</v>
       </c>
@@ -35708,7 +35708,7 @@
         <f t="shared" si="3"/>
         <v>4515</v>
       </c>
-      <c r="E38" s="99">
+      <c r="E38" s="91">
         <f t="shared" si="0"/>
         <v>4.5149999999999997</v>
       </c>
@@ -35734,7 +35734,7 @@
         <f t="shared" si="3"/>
         <v>4705</v>
       </c>
-      <c r="E39" s="99">
+      <c r="E39" s="91">
         <f t="shared" si="0"/>
         <v>4.7050000000000001</v>
       </c>
@@ -35760,7 +35760,7 @@
         <f t="shared" si="3"/>
         <v>4900</v>
       </c>
-      <c r="E40" s="99">
+      <c r="E40" s="91">
         <f t="shared" si="0"/>
         <v>4.9000000000000004</v>
       </c>
@@ -35786,7 +35786,7 @@
         <f t="shared" si="3"/>
         <v>5100</v>
       </c>
-      <c r="E41" s="99">
+      <c r="E41" s="91">
         <f t="shared" si="0"/>
         <v>5.0999999999999996</v>
       </c>
@@ -35814,7 +35814,7 @@
         <f t="shared" si="3"/>
         <v>5305</v>
       </c>
-      <c r="E42" s="99">
+      <c r="E42" s="91">
         <f t="shared" si="0"/>
         <v>5.3049999999999997</v>
       </c>
@@ -35840,7 +35840,7 @@
         <f t="shared" si="3"/>
         <v>5515</v>
       </c>
-      <c r="E43" s="99">
+      <c r="E43" s="91">
         <f t="shared" si="0"/>
         <v>5.5149999999999997</v>
       </c>
@@ -35866,7 +35866,7 @@
         <f t="shared" si="3"/>
         <v>5730</v>
       </c>
-      <c r="E44" s="99">
+      <c r="E44" s="91">
         <f t="shared" si="0"/>
         <v>5.73</v>
       </c>
@@ -35892,7 +35892,7 @@
         <f t="shared" si="3"/>
         <v>5950</v>
       </c>
-      <c r="E45" s="99">
+      <c r="E45" s="91">
         <f t="shared" si="0"/>
         <v>5.95</v>
       </c>
@@ -35918,7 +35918,7 @@
         <f t="shared" si="3"/>
         <v>6175</v>
       </c>
-      <c r="E46" s="99">
+      <c r="E46" s="91">
         <f t="shared" si="0"/>
         <v>6.1749999999999998</v>
       </c>
@@ -35944,7 +35944,7 @@
         <f t="shared" si="3"/>
         <v>6405</v>
       </c>
-      <c r="E47" s="99">
+      <c r="E47" s="91">
         <f t="shared" si="0"/>
         <v>6.4050000000000002</v>
       </c>
@@ -35970,7 +35970,7 @@
         <f t="shared" si="3"/>
         <v>6640</v>
       </c>
-      <c r="E48" s="99">
+      <c r="E48" s="91">
         <f t="shared" si="0"/>
         <v>6.64</v>
       </c>
@@ -35996,7 +35996,7 @@
         <f t="shared" si="3"/>
         <v>6880</v>
       </c>
-      <c r="E49" s="99">
+      <c r="E49" s="91">
         <f t="shared" si="0"/>
         <v>6.88</v>
       </c>
@@ -36022,7 +36022,7 @@
         <f t="shared" si="3"/>
         <v>7125</v>
       </c>
-      <c r="E50" s="99">
+      <c r="E50" s="91">
         <f t="shared" si="0"/>
         <v>7.125</v>
       </c>
@@ -36048,7 +36048,7 @@
         <f t="shared" si="3"/>
         <v>7375</v>
       </c>
-      <c r="E51" s="99">
+      <c r="E51" s="91">
         <f t="shared" si="0"/>
         <v>7.375</v>
       </c>
@@ -36076,7 +36076,7 @@
         <f t="shared" si="3"/>
         <v>7630</v>
       </c>
-      <c r="E52" s="99">
+      <c r="E52" s="91">
         <f t="shared" si="0"/>
         <v>7.63</v>
       </c>
@@ -36102,7 +36102,7 @@
         <f t="shared" si="3"/>
         <v>7890</v>
       </c>
-      <c r="E53" s="99">
+      <c r="E53" s="91">
         <f t="shared" si="0"/>
         <v>7.89</v>
       </c>
@@ -36128,7 +36128,7 @@
         <f t="shared" si="3"/>
         <v>8155</v>
       </c>
-      <c r="E54" s="99">
+      <c r="E54" s="91">
         <f t="shared" si="0"/>
         <v>8.1549999999999994</v>
       </c>
@@ -36154,7 +36154,7 @@
         <f t="shared" si="3"/>
         <v>8425</v>
       </c>
-      <c r="E55" s="99">
+      <c r="E55" s="91">
         <f t="shared" si="0"/>
         <v>8.4250000000000007</v>
       </c>
@@ -36180,7 +36180,7 @@
         <f t="shared" si="3"/>
         <v>8700</v>
       </c>
-      <c r="E56" s="99">
+      <c r="E56" s="91">
         <f t="shared" si="0"/>
         <v>8.6999999999999993</v>
       </c>
@@ -36206,7 +36206,7 @@
         <f t="shared" si="3"/>
         <v>8980</v>
       </c>
-      <c r="E57" s="99">
+      <c r="E57" s="91">
         <f t="shared" si="0"/>
         <v>8.98</v>
       </c>
@@ -36232,7 +36232,7 @@
         <f t="shared" si="3"/>
         <v>9265</v>
       </c>
-      <c r="E58" s="99">
+      <c r="E58" s="91">
         <f t="shared" si="0"/>
         <v>9.2650000000000006</v>
       </c>
@@ -36258,7 +36258,7 @@
         <f t="shared" si="3"/>
         <v>9555</v>
       </c>
-      <c r="E59" s="99">
+      <c r="E59" s="91">
         <f t="shared" si="0"/>
         <v>9.5549999999999997</v>
       </c>
@@ -36284,7 +36284,7 @@
         <f t="shared" si="3"/>
         <v>9850</v>
       </c>
-      <c r="E60" s="99">
+      <c r="E60" s="91">
         <f t="shared" si="0"/>
         <v>9.85</v>
       </c>
@@ -36310,7 +36310,7 @@
         <f t="shared" si="3"/>
         <v>10150</v>
       </c>
-      <c r="E61" s="99">
+      <c r="E61" s="91">
         <f t="shared" si="0"/>
         <v>10.15</v>
       </c>
@@ -36338,7 +36338,7 @@
         <f t="shared" si="3"/>
         <v>10455</v>
       </c>
-      <c r="E62" s="99">
+      <c r="E62" s="91">
         <f t="shared" si="0"/>
         <v>10.455</v>
       </c>
@@ -36364,7 +36364,7 @@
         <f t="shared" si="3"/>
         <v>10765</v>
       </c>
-      <c r="E63" s="99">
+      <c r="E63" s="91">
         <f t="shared" si="0"/>
         <v>10.765000000000001</v>
       </c>
@@ -36390,7 +36390,7 @@
         <f t="shared" si="3"/>
         <v>11080</v>
       </c>
-      <c r="E64" s="99">
+      <c r="E64" s="91">
         <f t="shared" si="0"/>
         <v>11.08</v>
       </c>
@@ -36416,7 +36416,7 @@
         <f t="shared" si="3"/>
         <v>11400</v>
       </c>
-      <c r="E65" s="99">
+      <c r="E65" s="91">
         <f t="shared" si="0"/>
         <v>11.4</v>
       </c>
@@ -36442,7 +36442,7 @@
         <f t="shared" si="3"/>
         <v>11725</v>
       </c>
-      <c r="E66" s="99">
+      <c r="E66" s="91">
         <f t="shared" ref="E66:E129" si="5">D66/1000</f>
         <v>11.725</v>
       </c>
@@ -36468,7 +36468,7 @@
         <f t="shared" si="3"/>
         <v>12055</v>
       </c>
-      <c r="E67" s="99">
+      <c r="E67" s="91">
         <f t="shared" si="5"/>
         <v>12.055</v>
       </c>
@@ -36494,7 +36494,7 @@
         <f t="shared" ref="D68:D131" si="8">D67+A68*5</f>
         <v>12390</v>
       </c>
-      <c r="E68" s="99">
+      <c r="E68" s="91">
         <f t="shared" si="5"/>
         <v>12.39</v>
       </c>
@@ -36520,7 +36520,7 @@
         <f t="shared" si="8"/>
         <v>12730</v>
       </c>
-      <c r="E69" s="99">
+      <c r="E69" s="91">
         <f t="shared" si="5"/>
         <v>12.73</v>
       </c>
@@ -36546,7 +36546,7 @@
         <f t="shared" si="8"/>
         <v>13075</v>
       </c>
-      <c r="E70" s="99">
+      <c r="E70" s="91">
         <f t="shared" si="5"/>
         <v>13.074999999999999</v>
       </c>
@@ -36572,7 +36572,7 @@
         <f t="shared" si="8"/>
         <v>13425</v>
       </c>
-      <c r="E71" s="99">
+      <c r="E71" s="91">
         <f t="shared" si="5"/>
         <v>13.425000000000001</v>
       </c>
@@ -36600,7 +36600,7 @@
         <f t="shared" si="8"/>
         <v>13780</v>
       </c>
-      <c r="E72" s="99">
+      <c r="E72" s="91">
         <f t="shared" si="5"/>
         <v>13.78</v>
       </c>
@@ -36626,7 +36626,7 @@
         <f t="shared" si="8"/>
         <v>14140</v>
       </c>
-      <c r="E73" s="99">
+      <c r="E73" s="91">
         <f t="shared" si="5"/>
         <v>14.14</v>
       </c>
@@ -36652,7 +36652,7 @@
         <f t="shared" si="8"/>
         <v>14505</v>
       </c>
-      <c r="E74" s="99">
+      <c r="E74" s="91">
         <f t="shared" si="5"/>
         <v>14.505000000000001</v>
       </c>
@@ -36678,7 +36678,7 @@
         <f t="shared" si="8"/>
         <v>14875</v>
       </c>
-      <c r="E75" s="99">
+      <c r="E75" s="91">
         <f t="shared" si="5"/>
         <v>14.875</v>
       </c>
@@ -36704,7 +36704,7 @@
         <f t="shared" si="8"/>
         <v>15250</v>
       </c>
-      <c r="E76" s="99">
+      <c r="E76" s="91">
         <f t="shared" si="5"/>
         <v>15.25</v>
       </c>
@@ -36730,7 +36730,7 @@
         <f t="shared" si="8"/>
         <v>15630</v>
       </c>
-      <c r="E77" s="99">
+      <c r="E77" s="91">
         <f t="shared" si="5"/>
         <v>15.63</v>
       </c>
@@ -36756,7 +36756,7 @@
         <f t="shared" si="8"/>
         <v>16015</v>
       </c>
-      <c r="E78" s="99">
+      <c r="E78" s="91">
         <f t="shared" si="5"/>
         <v>16.015000000000001</v>
       </c>
@@ -36782,7 +36782,7 @@
         <f t="shared" si="8"/>
         <v>16405</v>
       </c>
-      <c r="E79" s="99">
+      <c r="E79" s="91">
         <f t="shared" si="5"/>
         <v>16.405000000000001</v>
       </c>
@@ -36808,7 +36808,7 @@
         <f t="shared" si="8"/>
         <v>16800</v>
       </c>
-      <c r="E80" s="99">
+      <c r="E80" s="91">
         <f t="shared" si="5"/>
         <v>16.8</v>
       </c>
@@ -36834,7 +36834,7 @@
         <f t="shared" si="8"/>
         <v>17200</v>
       </c>
-      <c r="E81" s="99">
+      <c r="E81" s="91">
         <f t="shared" si="5"/>
         <v>17.2</v>
       </c>
@@ -36862,7 +36862,7 @@
         <f t="shared" si="8"/>
         <v>17605</v>
       </c>
-      <c r="E82" s="99">
+      <c r="E82" s="91">
         <f t="shared" si="5"/>
         <v>17.605</v>
       </c>
@@ -36888,7 +36888,7 @@
         <f t="shared" si="8"/>
         <v>18015</v>
       </c>
-      <c r="E83" s="99">
+      <c r="E83" s="91">
         <f t="shared" si="5"/>
         <v>18.015000000000001</v>
       </c>
@@ -36914,7 +36914,7 @@
         <f t="shared" si="8"/>
         <v>18430</v>
       </c>
-      <c r="E84" s="99">
+      <c r="E84" s="91">
         <f t="shared" si="5"/>
         <v>18.43</v>
       </c>
@@ -36940,7 +36940,7 @@
         <f t="shared" si="8"/>
         <v>18850</v>
       </c>
-      <c r="E85" s="99">
+      <c r="E85" s="91">
         <f t="shared" si="5"/>
         <v>18.850000000000001</v>
       </c>
@@ -36966,7 +36966,7 @@
         <f t="shared" si="8"/>
         <v>19275</v>
       </c>
-      <c r="E86" s="99">
+      <c r="E86" s="91">
         <f t="shared" si="5"/>
         <v>19.274999999999999</v>
       </c>
@@ -36992,7 +36992,7 @@
         <f t="shared" si="8"/>
         <v>19705</v>
       </c>
-      <c r="E87" s="99">
+      <c r="E87" s="91">
         <f t="shared" si="5"/>
         <v>19.704999999999998</v>
       </c>
@@ -37018,7 +37018,7 @@
         <f t="shared" si="8"/>
         <v>20140</v>
       </c>
-      <c r="E88" s="99">
+      <c r="E88" s="91">
         <f t="shared" si="5"/>
         <v>20.14</v>
       </c>
@@ -37044,7 +37044,7 @@
         <f t="shared" si="8"/>
         <v>20580</v>
       </c>
-      <c r="E89" s="99">
+      <c r="E89" s="91">
         <f t="shared" si="5"/>
         <v>20.58</v>
       </c>
@@ -37070,7 +37070,7 @@
         <f t="shared" si="8"/>
         <v>21025</v>
       </c>
-      <c r="E90" s="99">
+      <c r="E90" s="91">
         <f t="shared" si="5"/>
         <v>21.024999999999999</v>
       </c>
@@ -37096,7 +37096,7 @@
         <f t="shared" si="8"/>
         <v>21475</v>
       </c>
-      <c r="E91" s="99">
+      <c r="E91" s="91">
         <f t="shared" si="5"/>
         <v>21.475000000000001</v>
       </c>
@@ -37124,7 +37124,7 @@
         <f t="shared" si="8"/>
         <v>21930</v>
       </c>
-      <c r="E92" s="99">
+      <c r="E92" s="91">
         <f t="shared" si="5"/>
         <v>21.93</v>
       </c>
@@ -37150,7 +37150,7 @@
         <f t="shared" si="8"/>
         <v>22390</v>
       </c>
-      <c r="E93" s="99">
+      <c r="E93" s="91">
         <f t="shared" si="5"/>
         <v>22.39</v>
       </c>
@@ -37176,7 +37176,7 @@
         <f t="shared" si="8"/>
         <v>22855</v>
       </c>
-      <c r="E94" s="99">
+      <c r="E94" s="91">
         <f t="shared" si="5"/>
         <v>22.855</v>
       </c>
@@ -37202,7 +37202,7 @@
         <f t="shared" si="8"/>
         <v>23325</v>
       </c>
-      <c r="E95" s="99">
+      <c r="E95" s="91">
         <f t="shared" si="5"/>
         <v>23.324999999999999</v>
       </c>
@@ -37228,7 +37228,7 @@
         <f t="shared" si="8"/>
         <v>23800</v>
       </c>
-      <c r="E96" s="99">
+      <c r="E96" s="91">
         <f t="shared" si="5"/>
         <v>23.8</v>
       </c>
@@ -37254,7 +37254,7 @@
         <f t="shared" si="8"/>
         <v>24280</v>
       </c>
-      <c r="E97" s="99">
+      <c r="E97" s="91">
         <f t="shared" si="5"/>
         <v>24.28</v>
       </c>
@@ -37280,7 +37280,7 @@
         <f t="shared" si="8"/>
         <v>24765</v>
       </c>
-      <c r="E98" s="99">
+      <c r="E98" s="91">
         <f t="shared" si="5"/>
         <v>24.765000000000001</v>
       </c>
@@ -37306,7 +37306,7 @@
         <f t="shared" si="8"/>
         <v>25255</v>
       </c>
-      <c r="E99" s="99">
+      <c r="E99" s="91">
         <f t="shared" si="5"/>
         <v>25.254999999999999</v>
       </c>
@@ -37332,7 +37332,7 @@
         <f t="shared" si="8"/>
         <v>25750</v>
       </c>
-      <c r="E100" s="99">
+      <c r="E100" s="91">
         <f t="shared" si="5"/>
         <v>25.75</v>
       </c>
@@ -37358,7 +37358,7 @@
         <f t="shared" si="8"/>
         <v>26250</v>
       </c>
-      <c r="E101" s="99">
+      <c r="E101" s="91">
         <f t="shared" si="5"/>
         <v>26.25</v>
       </c>
@@ -37386,7 +37386,7 @@
         <f t="shared" si="8"/>
         <v>26755</v>
       </c>
-      <c r="E102" s="99">
+      <c r="E102" s="91">
         <f t="shared" si="5"/>
         <v>26.754999999999999</v>
       </c>
@@ -37412,7 +37412,7 @@
         <f t="shared" si="8"/>
         <v>27265</v>
       </c>
-      <c r="E103" s="99">
+      <c r="E103" s="91">
         <f t="shared" si="5"/>
         <v>27.265000000000001</v>
       </c>
@@ -37438,7 +37438,7 @@
         <f t="shared" si="8"/>
         <v>27780</v>
       </c>
-      <c r="E104" s="99">
+      <c r="E104" s="91">
         <f t="shared" si="5"/>
         <v>27.78</v>
       </c>
@@ -37464,7 +37464,7 @@
         <f t="shared" si="8"/>
         <v>28300</v>
       </c>
-      <c r="E105" s="99">
+      <c r="E105" s="91">
         <f t="shared" si="5"/>
         <v>28.3</v>
       </c>
@@ -37490,7 +37490,7 @@
         <f t="shared" si="8"/>
         <v>28825</v>
       </c>
-      <c r="E106" s="99">
+      <c r="E106" s="91">
         <f t="shared" si="5"/>
         <v>28.824999999999999</v>
       </c>
@@ -37516,7 +37516,7 @@
         <f t="shared" si="8"/>
         <v>29355</v>
       </c>
-      <c r="E107" s="99">
+      <c r="E107" s="91">
         <f t="shared" si="5"/>
         <v>29.355</v>
       </c>
@@ -37542,7 +37542,7 @@
         <f t="shared" si="8"/>
         <v>29890</v>
       </c>
-      <c r="E108" s="99">
+      <c r="E108" s="91">
         <f t="shared" si="5"/>
         <v>29.89</v>
       </c>
@@ -37568,7 +37568,7 @@
         <f t="shared" si="8"/>
         <v>30430</v>
       </c>
-      <c r="E109" s="99">
+      <c r="E109" s="91">
         <f t="shared" si="5"/>
         <v>30.43</v>
       </c>
@@ -37594,7 +37594,7 @@
         <f t="shared" si="8"/>
         <v>30975</v>
       </c>
-      <c r="E110" s="99">
+      <c r="E110" s="91">
         <f t="shared" si="5"/>
         <v>30.975000000000001</v>
       </c>
@@ -37620,7 +37620,7 @@
         <f t="shared" si="8"/>
         <v>31525</v>
       </c>
-      <c r="E111" s="99">
+      <c r="E111" s="91">
         <f t="shared" si="5"/>
         <v>31.524999999999999</v>
       </c>
@@ -37648,7 +37648,7 @@
         <f t="shared" si="8"/>
         <v>32080</v>
       </c>
-      <c r="E112" s="99">
+      <c r="E112" s="91">
         <f t="shared" si="5"/>
         <v>32.08</v>
       </c>
@@ -37674,7 +37674,7 @@
         <f t="shared" si="8"/>
         <v>32640</v>
       </c>
-      <c r="E113" s="99">
+      <c r="E113" s="91">
         <f t="shared" si="5"/>
         <v>32.64</v>
       </c>
@@ -37700,7 +37700,7 @@
         <f t="shared" si="8"/>
         <v>33205</v>
       </c>
-      <c r="E114" s="99">
+      <c r="E114" s="91">
         <f t="shared" si="5"/>
         <v>33.204999999999998</v>
       </c>
@@ -37726,7 +37726,7 @@
         <f t="shared" si="8"/>
         <v>33775</v>
       </c>
-      <c r="E115" s="99">
+      <c r="E115" s="91">
         <f t="shared" si="5"/>
         <v>33.774999999999999</v>
       </c>
@@ -37752,7 +37752,7 @@
         <f t="shared" si="8"/>
         <v>34350</v>
       </c>
-      <c r="E116" s="99">
+      <c r="E116" s="91">
         <f t="shared" si="5"/>
         <v>34.35</v>
       </c>
@@ -37778,7 +37778,7 @@
         <f t="shared" si="8"/>
         <v>34930</v>
       </c>
-      <c r="E117" s="99">
+      <c r="E117" s="91">
         <f t="shared" si="5"/>
         <v>34.93</v>
       </c>
@@ -37804,7 +37804,7 @@
         <f t="shared" si="8"/>
         <v>35515</v>
       </c>
-      <c r="E118" s="99">
+      <c r="E118" s="91">
         <f t="shared" si="5"/>
         <v>35.515000000000001</v>
       </c>
@@ -37830,7 +37830,7 @@
         <f t="shared" si="8"/>
         <v>36105</v>
       </c>
-      <c r="E119" s="99">
+      <c r="E119" s="91">
         <f t="shared" si="5"/>
         <v>36.104999999999997</v>
       </c>
@@ -37856,7 +37856,7 @@
         <f t="shared" si="8"/>
         <v>36700</v>
       </c>
-      <c r="E120" s="99">
+      <c r="E120" s="91">
         <f t="shared" si="5"/>
         <v>36.700000000000003</v>
       </c>
@@ -37882,7 +37882,7 @@
         <f t="shared" si="8"/>
         <v>37300</v>
       </c>
-      <c r="E121" s="99">
+      <c r="E121" s="91">
         <f t="shared" si="5"/>
         <v>37.299999999999997</v>
       </c>
@@ -37910,7 +37910,7 @@
         <f t="shared" si="8"/>
         <v>37905</v>
       </c>
-      <c r="E122" s="99">
+      <c r="E122" s="91">
         <f t="shared" si="5"/>
         <v>37.905000000000001</v>
       </c>
@@ -37936,7 +37936,7 @@
         <f t="shared" si="8"/>
         <v>38515</v>
       </c>
-      <c r="E123" s="99">
+      <c r="E123" s="91">
         <f t="shared" si="5"/>
         <v>38.515000000000001</v>
       </c>
@@ -37962,7 +37962,7 @@
         <f t="shared" si="8"/>
         <v>39130</v>
       </c>
-      <c r="E124" s="99">
+      <c r="E124" s="91">
         <f t="shared" si="5"/>
         <v>39.130000000000003</v>
       </c>
@@ -37988,7 +37988,7 @@
         <f t="shared" si="8"/>
         <v>39750</v>
       </c>
-      <c r="E125" s="99">
+      <c r="E125" s="91">
         <f t="shared" si="5"/>
         <v>39.75</v>
       </c>
@@ -38014,7 +38014,7 @@
         <f t="shared" si="8"/>
         <v>40375</v>
       </c>
-      <c r="E126" s="99">
+      <c r="E126" s="91">
         <f t="shared" si="5"/>
         <v>40.375</v>
       </c>
@@ -38040,7 +38040,7 @@
         <f t="shared" si="8"/>
         <v>41005</v>
       </c>
-      <c r="E127" s="99">
+      <c r="E127" s="91">
         <f t="shared" si="5"/>
         <v>41.005000000000003</v>
       </c>
@@ -38066,7 +38066,7 @@
         <f t="shared" si="8"/>
         <v>41640</v>
       </c>
-      <c r="E128" s="99">
+      <c r="E128" s="91">
         <f t="shared" si="5"/>
         <v>41.64</v>
       </c>
@@ -38092,7 +38092,7 @@
         <f t="shared" si="8"/>
         <v>42280</v>
       </c>
-      <c r="E129" s="99">
+      <c r="E129" s="91">
         <f t="shared" si="5"/>
         <v>42.28</v>
       </c>
@@ -38118,7 +38118,7 @@
         <f t="shared" si="8"/>
         <v>42925</v>
       </c>
-      <c r="E130" s="99">
+      <c r="E130" s="91">
         <f t="shared" ref="E130:E193" si="10">D130/1000</f>
         <v>42.924999999999997</v>
       </c>
@@ -38144,7 +38144,7 @@
         <f t="shared" si="8"/>
         <v>43575</v>
       </c>
-      <c r="E131" s="99">
+      <c r="E131" s="91">
         <f t="shared" si="10"/>
         <v>43.575000000000003</v>
       </c>
@@ -38172,7 +38172,7 @@
         <f t="shared" ref="D132:D195" si="13">D131+A132*5</f>
         <v>44230</v>
       </c>
-      <c r="E132" s="99">
+      <c r="E132" s="91">
         <f t="shared" si="10"/>
         <v>44.23</v>
       </c>
@@ -38198,7 +38198,7 @@
         <f t="shared" si="13"/>
         <v>44890</v>
       </c>
-      <c r="E133" s="99">
+      <c r="E133" s="91">
         <f t="shared" si="10"/>
         <v>44.89</v>
       </c>
@@ -38224,7 +38224,7 @@
         <f t="shared" si="13"/>
         <v>45555</v>
       </c>
-      <c r="E134" s="99">
+      <c r="E134" s="91">
         <f t="shared" si="10"/>
         <v>45.555</v>
       </c>
@@ -38250,7 +38250,7 @@
         <f t="shared" si="13"/>
         <v>46225</v>
       </c>
-      <c r="E135" s="99">
+      <c r="E135" s="91">
         <f t="shared" si="10"/>
         <v>46.225000000000001</v>
       </c>
@@ -38276,7 +38276,7 @@
         <f t="shared" si="13"/>
         <v>46900</v>
       </c>
-      <c r="E136" s="99">
+      <c r="E136" s="91">
         <f t="shared" si="10"/>
         <v>46.9</v>
       </c>
@@ -38302,7 +38302,7 @@
         <f t="shared" si="13"/>
         <v>47580</v>
       </c>
-      <c r="E137" s="99">
+      <c r="E137" s="91">
         <f t="shared" si="10"/>
         <v>47.58</v>
       </c>
@@ -38328,7 +38328,7 @@
         <f t="shared" si="13"/>
         <v>48265</v>
       </c>
-      <c r="E138" s="99">
+      <c r="E138" s="91">
         <f t="shared" si="10"/>
         <v>48.265000000000001</v>
       </c>
@@ -38354,7 +38354,7 @@
         <f t="shared" si="13"/>
         <v>48955</v>
       </c>
-      <c r="E139" s="99">
+      <c r="E139" s="91">
         <f t="shared" si="10"/>
         <v>48.954999999999998</v>
       </c>
@@ -38380,7 +38380,7 @@
         <f t="shared" si="13"/>
         <v>49650</v>
       </c>
-      <c r="E140" s="99">
+      <c r="E140" s="91">
         <f t="shared" si="10"/>
         <v>49.65</v>
       </c>
@@ -38406,7 +38406,7 @@
         <f t="shared" si="13"/>
         <v>50350</v>
       </c>
-      <c r="E141" s="99">
+      <c r="E141" s="91">
         <f t="shared" si="10"/>
         <v>50.35</v>
       </c>
@@ -38434,7 +38434,7 @@
         <f t="shared" si="13"/>
         <v>51055</v>
       </c>
-      <c r="E142" s="99">
+      <c r="E142" s="91">
         <f t="shared" si="10"/>
         <v>51.055</v>
       </c>
@@ -38460,7 +38460,7 @@
         <f t="shared" si="13"/>
         <v>51765</v>
       </c>
-      <c r="E143" s="99">
+      <c r="E143" s="91">
         <f t="shared" si="10"/>
         <v>51.765000000000001</v>
       </c>
@@ -38486,7 +38486,7 @@
         <f t="shared" si="13"/>
         <v>52480</v>
       </c>
-      <c r="E144" s="99">
+      <c r="E144" s="91">
         <f t="shared" si="10"/>
         <v>52.48</v>
       </c>
@@ -38512,7 +38512,7 @@
         <f t="shared" si="13"/>
         <v>53200</v>
       </c>
-      <c r="E145" s="99">
+      <c r="E145" s="91">
         <f t="shared" si="10"/>
         <v>53.2</v>
       </c>
@@ -38538,7 +38538,7 @@
         <f t="shared" si="13"/>
         <v>53925</v>
       </c>
-      <c r="E146" s="99">
+      <c r="E146" s="91">
         <f t="shared" si="10"/>
         <v>53.924999999999997</v>
       </c>
@@ -38564,7 +38564,7 @@
         <f t="shared" si="13"/>
         <v>54655</v>
       </c>
-      <c r="E147" s="99">
+      <c r="E147" s="91">
         <f t="shared" si="10"/>
         <v>54.655000000000001</v>
       </c>
@@ -38590,7 +38590,7 @@
         <f t="shared" si="13"/>
         <v>55390</v>
       </c>
-      <c r="E148" s="99">
+      <c r="E148" s="91">
         <f t="shared" si="10"/>
         <v>55.39</v>
       </c>
@@ -38616,7 +38616,7 @@
         <f t="shared" si="13"/>
         <v>56130</v>
       </c>
-      <c r="E149" s="99">
+      <c r="E149" s="91">
         <f t="shared" si="10"/>
         <v>56.13</v>
       </c>
@@ -38642,7 +38642,7 @@
         <f t="shared" si="13"/>
         <v>56875</v>
       </c>
-      <c r="E150" s="99">
+      <c r="E150" s="91">
         <f t="shared" si="10"/>
         <v>56.875</v>
       </c>
@@ -38668,7 +38668,7 @@
         <f t="shared" si="13"/>
         <v>57625</v>
       </c>
-      <c r="E151" s="99">
+      <c r="E151" s="91">
         <f t="shared" si="10"/>
         <v>57.625</v>
       </c>
@@ -38696,7 +38696,7 @@
         <f t="shared" si="13"/>
         <v>58380</v>
       </c>
-      <c r="E152" s="99">
+      <c r="E152" s="91">
         <f t="shared" si="10"/>
         <v>58.38</v>
       </c>
@@ -38722,7 +38722,7 @@
         <f t="shared" si="13"/>
         <v>59140</v>
       </c>
-      <c r="E153" s="99">
+      <c r="E153" s="91">
         <f t="shared" si="10"/>
         <v>59.14</v>
       </c>
@@ -38748,7 +38748,7 @@
         <f t="shared" si="13"/>
         <v>59905</v>
       </c>
-      <c r="E154" s="99">
+      <c r="E154" s="91">
         <f t="shared" si="10"/>
         <v>59.905000000000001</v>
       </c>
@@ -38774,7 +38774,7 @@
         <f t="shared" si="13"/>
         <v>60675</v>
       </c>
-      <c r="E155" s="99">
+      <c r="E155" s="91">
         <f t="shared" si="10"/>
         <v>60.674999999999997</v>
       </c>
@@ -38800,7 +38800,7 @@
         <f t="shared" si="13"/>
         <v>61450</v>
       </c>
-      <c r="E156" s="99">
+      <c r="E156" s="91">
         <f t="shared" si="10"/>
         <v>61.45</v>
       </c>
@@ -38826,7 +38826,7 @@
         <f t="shared" si="13"/>
         <v>62230</v>
       </c>
-      <c r="E157" s="99">
+      <c r="E157" s="91">
         <f t="shared" si="10"/>
         <v>62.23</v>
       </c>
@@ -38852,7 +38852,7 @@
         <f t="shared" si="13"/>
         <v>63015</v>
       </c>
-      <c r="E158" s="99">
+      <c r="E158" s="91">
         <f t="shared" si="10"/>
         <v>63.015000000000001</v>
       </c>
@@ -38878,7 +38878,7 @@
         <f t="shared" si="13"/>
         <v>63805</v>
       </c>
-      <c r="E159" s="99">
+      <c r="E159" s="91">
         <f t="shared" si="10"/>
         <v>63.805</v>
       </c>
@@ -38904,7 +38904,7 @@
         <f t="shared" si="13"/>
         <v>64600</v>
       </c>
-      <c r="E160" s="99">
+      <c r="E160" s="91">
         <f t="shared" si="10"/>
         <v>64.599999999999994</v>
       </c>
@@ -38930,7 +38930,7 @@
         <f t="shared" si="13"/>
         <v>65400</v>
       </c>
-      <c r="E161" s="99">
+      <c r="E161" s="91">
         <f t="shared" si="10"/>
         <v>65.400000000000006</v>
       </c>
@@ -38958,7 +38958,7 @@
         <f t="shared" si="13"/>
         <v>66205</v>
       </c>
-      <c r="E162" s="99">
+      <c r="E162" s="91">
         <f t="shared" si="10"/>
         <v>66.204999999999998</v>
       </c>
@@ -38984,7 +38984,7 @@
         <f t="shared" si="13"/>
         <v>67015</v>
       </c>
-      <c r="E163" s="99">
+      <c r="E163" s="91">
         <f t="shared" si="10"/>
         <v>67.015000000000001</v>
       </c>
@@ -39010,7 +39010,7 @@
         <f t="shared" si="13"/>
         <v>67830</v>
       </c>
-      <c r="E164" s="99">
+      <c r="E164" s="91">
         <f t="shared" si="10"/>
         <v>67.83</v>
       </c>
@@ -39036,7 +39036,7 @@
         <f t="shared" si="13"/>
         <v>68650</v>
       </c>
-      <c r="E165" s="99">
+      <c r="E165" s="91">
         <f t="shared" si="10"/>
         <v>68.650000000000006</v>
       </c>
@@ -39062,7 +39062,7 @@
         <f t="shared" si="13"/>
         <v>69475</v>
       </c>
-      <c r="E166" s="99">
+      <c r="E166" s="91">
         <f t="shared" si="10"/>
         <v>69.474999999999994</v>
       </c>
@@ -39088,7 +39088,7 @@
         <f t="shared" si="13"/>
         <v>70305</v>
       </c>
-      <c r="E167" s="99">
+      <c r="E167" s="91">
         <f t="shared" si="10"/>
         <v>70.305000000000007</v>
       </c>
@@ -39114,7 +39114,7 @@
         <f t="shared" si="13"/>
         <v>71140</v>
       </c>
-      <c r="E168" s="99">
+      <c r="E168" s="91">
         <f t="shared" si="10"/>
         <v>71.14</v>
       </c>
@@ -39140,7 +39140,7 @@
         <f t="shared" si="13"/>
         <v>71980</v>
       </c>
-      <c r="E169" s="99">
+      <c r="E169" s="91">
         <f t="shared" si="10"/>
         <v>71.98</v>
       </c>
@@ -39166,7 +39166,7 @@
         <f t="shared" si="13"/>
         <v>72825</v>
       </c>
-      <c r="E170" s="99">
+      <c r="E170" s="91">
         <f t="shared" si="10"/>
         <v>72.825000000000003</v>
       </c>
@@ -39192,7 +39192,7 @@
         <f t="shared" si="13"/>
         <v>73675</v>
       </c>
-      <c r="E171" s="99">
+      <c r="E171" s="91">
         <f t="shared" si="10"/>
         <v>73.674999999999997</v>
       </c>
@@ -39220,7 +39220,7 @@
         <f t="shared" si="13"/>
         <v>74530</v>
       </c>
-      <c r="E172" s="99">
+      <c r="E172" s="91">
         <f t="shared" si="10"/>
         <v>74.53</v>
       </c>
@@ -39246,7 +39246,7 @@
         <f t="shared" si="13"/>
         <v>75390</v>
       </c>
-      <c r="E173" s="99">
+      <c r="E173" s="91">
         <f t="shared" si="10"/>
         <v>75.39</v>
       </c>
@@ -39272,7 +39272,7 @@
         <f t="shared" si="13"/>
         <v>76255</v>
       </c>
-      <c r="E174" s="99">
+      <c r="E174" s="91">
         <f t="shared" si="10"/>
         <v>76.254999999999995</v>
       </c>
@@ -39298,7 +39298,7 @@
         <f t="shared" si="13"/>
         <v>77125</v>
       </c>
-      <c r="E175" s="99">
+      <c r="E175" s="91">
         <f t="shared" si="10"/>
         <v>77.125</v>
       </c>
@@ -39324,7 +39324,7 @@
         <f t="shared" si="13"/>
         <v>78000</v>
       </c>
-      <c r="E176" s="99">
+      <c r="E176" s="91">
         <f t="shared" si="10"/>
         <v>78</v>
       </c>
@@ -39350,7 +39350,7 @@
         <f t="shared" si="13"/>
         <v>78880</v>
       </c>
-      <c r="E177" s="99">
+      <c r="E177" s="91">
         <f t="shared" si="10"/>
         <v>78.88</v>
       </c>
@@ -39376,7 +39376,7 @@
         <f t="shared" si="13"/>
         <v>79765</v>
       </c>
-      <c r="E178" s="99">
+      <c r="E178" s="91">
         <f t="shared" si="10"/>
         <v>79.765000000000001</v>
       </c>
@@ -39402,7 +39402,7 @@
         <f t="shared" si="13"/>
         <v>80655</v>
       </c>
-      <c r="E179" s="99">
+      <c r="E179" s="91">
         <f t="shared" si="10"/>
         <v>80.655000000000001</v>
       </c>
@@ -39428,7 +39428,7 @@
         <f t="shared" si="13"/>
         <v>81550</v>
       </c>
-      <c r="E180" s="99">
+      <c r="E180" s="91">
         <f t="shared" si="10"/>
         <v>81.55</v>
       </c>
@@ -39454,7 +39454,7 @@
         <f t="shared" si="13"/>
         <v>82450</v>
       </c>
-      <c r="E181" s="99">
+      <c r="E181" s="91">
         <f t="shared" si="10"/>
         <v>82.45</v>
       </c>
@@ -39482,7 +39482,7 @@
         <f t="shared" si="13"/>
         <v>83355</v>
       </c>
-      <c r="E182" s="99">
+      <c r="E182" s="91">
         <f t="shared" si="10"/>
         <v>83.355000000000004</v>
       </c>
@@ -39508,7 +39508,7 @@
         <f t="shared" si="13"/>
         <v>84265</v>
       </c>
-      <c r="E183" s="99">
+      <c r="E183" s="91">
         <f t="shared" si="10"/>
         <v>84.265000000000001</v>
       </c>
@@ -39534,7 +39534,7 @@
         <f t="shared" si="13"/>
         <v>85180</v>
       </c>
-      <c r="E184" s="99">
+      <c r="E184" s="91">
         <f t="shared" si="10"/>
         <v>85.18</v>
       </c>
@@ -39560,7 +39560,7 @@
         <f t="shared" si="13"/>
         <v>86100</v>
       </c>
-      <c r="E185" s="99">
+      <c r="E185" s="91">
         <f t="shared" si="10"/>
         <v>86.1</v>
       </c>
@@ -39586,7 +39586,7 @@
         <f t="shared" si="13"/>
         <v>87025</v>
       </c>
-      <c r="E186" s="99">
+      <c r="E186" s="91">
         <f t="shared" si="10"/>
         <v>87.025000000000006</v>
       </c>
@@ -39612,7 +39612,7 @@
         <f t="shared" si="13"/>
         <v>87955</v>
       </c>
-      <c r="E187" s="99">
+      <c r="E187" s="91">
         <f t="shared" si="10"/>
         <v>87.954999999999998</v>
       </c>
@@ -39638,7 +39638,7 @@
         <f t="shared" si="13"/>
         <v>88890</v>
       </c>
-      <c r="E188" s="99">
+      <c r="E188" s="91">
         <f t="shared" si="10"/>
         <v>88.89</v>
       </c>
@@ -39664,7 +39664,7 @@
         <f t="shared" si="13"/>
         <v>89830</v>
       </c>
-      <c r="E189" s="99">
+      <c r="E189" s="91">
         <f t="shared" si="10"/>
         <v>89.83</v>
       </c>
@@ -39690,7 +39690,7 @@
         <f t="shared" si="13"/>
         <v>90775</v>
       </c>
-      <c r="E190" s="99">
+      <c r="E190" s="91">
         <f t="shared" si="10"/>
         <v>90.775000000000006</v>
       </c>
@@ -39716,7 +39716,7 @@
         <f t="shared" si="13"/>
         <v>91725</v>
       </c>
-      <c r="E191" s="99">
+      <c r="E191" s="91">
         <f t="shared" si="10"/>
         <v>91.724999999999994</v>
       </c>
@@ -39744,7 +39744,7 @@
         <f t="shared" si="13"/>
         <v>92680</v>
       </c>
-      <c r="E192" s="99">
+      <c r="E192" s="91">
         <f t="shared" si="10"/>
         <v>92.68</v>
       </c>
@@ -39770,7 +39770,7 @@
         <f t="shared" si="13"/>
         <v>93640</v>
       </c>
-      <c r="E193" s="99">
+      <c r="E193" s="91">
         <f t="shared" si="10"/>
         <v>93.64</v>
       </c>
@@ -39796,7 +39796,7 @@
         <f t="shared" si="13"/>
         <v>94605</v>
       </c>
-      <c r="E194" s="99">
+      <c r="E194" s="91">
         <f t="shared" ref="E194:E257" si="15">D194/1000</f>
         <v>94.605000000000004</v>
       </c>
@@ -39822,7 +39822,7 @@
         <f t="shared" si="13"/>
         <v>95575</v>
       </c>
-      <c r="E195" s="99">
+      <c r="E195" s="91">
         <f t="shared" si="15"/>
         <v>95.575000000000003</v>
       </c>
@@ -39848,7 +39848,7 @@
         <f t="shared" ref="D196:D259" si="18">D195+A196*5</f>
         <v>96550</v>
       </c>
-      <c r="E196" s="99">
+      <c r="E196" s="91">
         <f t="shared" si="15"/>
         <v>96.55</v>
       </c>
@@ -39874,7 +39874,7 @@
         <f t="shared" si="18"/>
         <v>97530</v>
       </c>
-      <c r="E197" s="99">
+      <c r="E197" s="91">
         <f t="shared" si="15"/>
         <v>97.53</v>
       </c>
@@ -39900,7 +39900,7 @@
         <f t="shared" si="18"/>
         <v>98515</v>
       </c>
-      <c r="E198" s="99">
+      <c r="E198" s="91">
         <f t="shared" si="15"/>
         <v>98.515000000000001</v>
       </c>
@@ -39926,7 +39926,7 @@
         <f t="shared" si="18"/>
         <v>99505</v>
       </c>
-      <c r="E199" s="99">
+      <c r="E199" s="91">
         <f t="shared" si="15"/>
         <v>99.504999999999995</v>
       </c>
@@ -39952,7 +39952,7 @@
         <f t="shared" si="18"/>
         <v>100500</v>
       </c>
-      <c r="E200" s="99">
+      <c r="E200" s="91">
         <f t="shared" si="15"/>
         <v>100.5</v>
       </c>
@@ -39978,7 +39978,7 @@
         <f t="shared" si="18"/>
         <v>101500</v>
       </c>
-      <c r="E201" s="99">
+      <c r="E201" s="91">
         <f t="shared" si="15"/>
         <v>101.5</v>
       </c>
@@ -40006,7 +40006,7 @@
         <f t="shared" si="18"/>
         <v>102505</v>
       </c>
-      <c r="E202" s="99">
+      <c r="E202" s="91">
         <f t="shared" si="15"/>
         <v>102.505</v>
       </c>
@@ -40032,7 +40032,7 @@
         <f t="shared" si="18"/>
         <v>103515</v>
       </c>
-      <c r="E203" s="99">
+      <c r="E203" s="91">
         <f t="shared" si="15"/>
         <v>103.515</v>
       </c>
@@ -40058,7 +40058,7 @@
         <f t="shared" si="18"/>
         <v>104530</v>
       </c>
-      <c r="E204" s="99">
+      <c r="E204" s="91">
         <f t="shared" si="15"/>
         <v>104.53</v>
       </c>
@@ -40084,7 +40084,7 @@
         <f t="shared" si="18"/>
         <v>105550</v>
       </c>
-      <c r="E205" s="99">
+      <c r="E205" s="91">
         <f t="shared" si="15"/>
         <v>105.55</v>
       </c>
@@ -40110,7 +40110,7 @@
         <f t="shared" si="18"/>
         <v>106575</v>
       </c>
-      <c r="E206" s="99">
+      <c r="E206" s="91">
         <f t="shared" si="15"/>
         <v>106.575</v>
       </c>
@@ -40136,7 +40136,7 @@
         <f t="shared" si="18"/>
         <v>107605</v>
       </c>
-      <c r="E207" s="99">
+      <c r="E207" s="91">
         <f t="shared" si="15"/>
         <v>107.605</v>
       </c>
@@ -40162,7 +40162,7 @@
         <f t="shared" si="18"/>
         <v>108640</v>
       </c>
-      <c r="E208" s="99">
+      <c r="E208" s="91">
         <f t="shared" si="15"/>
         <v>108.64</v>
       </c>
@@ -40188,7 +40188,7 @@
         <f t="shared" si="18"/>
         <v>109680</v>
       </c>
-      <c r="E209" s="99">
+      <c r="E209" s="91">
         <f t="shared" si="15"/>
         <v>109.68</v>
       </c>
@@ -40214,7 +40214,7 @@
         <f t="shared" si="18"/>
         <v>110725</v>
       </c>
-      <c r="E210" s="99">
+      <c r="E210" s="91">
         <f t="shared" si="15"/>
         <v>110.72499999999999</v>
       </c>
@@ -40240,7 +40240,7 @@
         <f t="shared" si="18"/>
         <v>111775</v>
       </c>
-      <c r="E211" s="99">
+      <c r="E211" s="91">
         <f t="shared" si="15"/>
         <v>111.77500000000001</v>
       </c>
@@ -40268,7 +40268,7 @@
         <f t="shared" si="18"/>
         <v>112830</v>
       </c>
-      <c r="E212" s="99">
+      <c r="E212" s="91">
         <f t="shared" si="15"/>
         <v>112.83</v>
       </c>
@@ -40294,7 +40294,7 @@
         <f t="shared" si="18"/>
         <v>113890</v>
       </c>
-      <c r="E213" s="99">
+      <c r="E213" s="91">
         <f t="shared" si="15"/>
         <v>113.89</v>
       </c>
@@ -40320,7 +40320,7 @@
         <f t="shared" si="18"/>
         <v>114955</v>
       </c>
-      <c r="E214" s="99">
+      <c r="E214" s="91">
         <f t="shared" si="15"/>
         <v>114.955</v>
       </c>
@@ -40346,7 +40346,7 @@
         <f t="shared" si="18"/>
         <v>116025</v>
       </c>
-      <c r="E215" s="99">
+      <c r="E215" s="91">
         <f t="shared" si="15"/>
         <v>116.02500000000001</v>
       </c>
@@ -40372,7 +40372,7 @@
         <f t="shared" si="18"/>
         <v>117100</v>
       </c>
-      <c r="E216" s="99">
+      <c r="E216" s="91">
         <f t="shared" si="15"/>
         <v>117.1</v>
       </c>
@@ -40398,7 +40398,7 @@
         <f t="shared" si="18"/>
         <v>118180</v>
       </c>
-      <c r="E217" s="99">
+      <c r="E217" s="91">
         <f t="shared" si="15"/>
         <v>118.18</v>
       </c>
@@ -40424,7 +40424,7 @@
         <f t="shared" si="18"/>
         <v>119265</v>
       </c>
-      <c r="E218" s="99">
+      <c r="E218" s="91">
         <f t="shared" si="15"/>
         <v>119.265</v>
       </c>
@@ -40450,7 +40450,7 @@
         <f t="shared" si="18"/>
         <v>120355</v>
       </c>
-      <c r="E219" s="99">
+      <c r="E219" s="91">
         <f t="shared" si="15"/>
         <v>120.355</v>
       </c>
@@ -40476,7 +40476,7 @@
         <f t="shared" si="18"/>
         <v>121450</v>
       </c>
-      <c r="E220" s="99">
+      <c r="E220" s="91">
         <f t="shared" si="15"/>
         <v>121.45</v>
       </c>
@@ -40502,7 +40502,7 @@
         <f t="shared" si="18"/>
         <v>122550</v>
       </c>
-      <c r="E221" s="99">
+      <c r="E221" s="91">
         <f t="shared" si="15"/>
         <v>122.55</v>
       </c>
@@ -40530,7 +40530,7 @@
         <f t="shared" si="18"/>
         <v>123655</v>
       </c>
-      <c r="E222" s="99">
+      <c r="E222" s="91">
         <f t="shared" si="15"/>
         <v>123.655</v>
       </c>
@@ -40556,7 +40556,7 @@
         <f t="shared" si="18"/>
         <v>124765</v>
       </c>
-      <c r="E223" s="99">
+      <c r="E223" s="91">
         <f t="shared" si="15"/>
         <v>124.765</v>
       </c>
@@ -40582,7 +40582,7 @@
         <f t="shared" si="18"/>
         <v>125880</v>
       </c>
-      <c r="E224" s="99">
+      <c r="E224" s="91">
         <f t="shared" si="15"/>
         <v>125.88</v>
       </c>
@@ -40608,7 +40608,7 @@
         <f t="shared" si="18"/>
         <v>127000</v>
       </c>
-      <c r="E225" s="99">
+      <c r="E225" s="91">
         <f t="shared" si="15"/>
         <v>127</v>
       </c>
@@ -40634,7 +40634,7 @@
         <f t="shared" si="18"/>
         <v>128125</v>
       </c>
-      <c r="E226" s="99">
+      <c r="E226" s="91">
         <f t="shared" si="15"/>
         <v>128.125</v>
       </c>
@@ -40660,7 +40660,7 @@
         <f t="shared" si="18"/>
         <v>129255</v>
       </c>
-      <c r="E227" s="99">
+      <c r="E227" s="91">
         <f t="shared" si="15"/>
         <v>129.255</v>
       </c>
@@ -40686,7 +40686,7 @@
         <f t="shared" si="18"/>
         <v>130390</v>
       </c>
-      <c r="E228" s="99">
+      <c r="E228" s="91">
         <f t="shared" si="15"/>
         <v>130.38999999999999</v>
       </c>
@@ -40712,7 +40712,7 @@
         <f t="shared" si="18"/>
         <v>131530</v>
       </c>
-      <c r="E229" s="99">
+      <c r="E229" s="91">
         <f t="shared" si="15"/>
         <v>131.53</v>
       </c>
@@ -40738,7 +40738,7 @@
         <f t="shared" si="18"/>
         <v>132675</v>
       </c>
-      <c r="E230" s="99">
+      <c r="E230" s="91">
         <f t="shared" si="15"/>
         <v>132.67500000000001</v>
       </c>
@@ -40764,7 +40764,7 @@
         <f t="shared" si="18"/>
         <v>133825</v>
       </c>
-      <c r="E231" s="99">
+      <c r="E231" s="91">
         <f t="shared" si="15"/>
         <v>133.82499999999999</v>
       </c>
@@ -40792,7 +40792,7 @@
         <f t="shared" si="18"/>
         <v>134980</v>
       </c>
-      <c r="E232" s="99">
+      <c r="E232" s="91">
         <f t="shared" si="15"/>
         <v>134.97999999999999</v>
       </c>
@@ -40818,7 +40818,7 @@
         <f t="shared" si="18"/>
         <v>136140</v>
       </c>
-      <c r="E233" s="99">
+      <c r="E233" s="91">
         <f t="shared" si="15"/>
         <v>136.13999999999999</v>
       </c>
@@ -40844,7 +40844,7 @@
         <f t="shared" si="18"/>
         <v>137305</v>
       </c>
-      <c r="E234" s="99">
+      <c r="E234" s="91">
         <f t="shared" si="15"/>
         <v>137.30500000000001</v>
       </c>
@@ -40870,7 +40870,7 @@
         <f t="shared" si="18"/>
         <v>138475</v>
       </c>
-      <c r="E235" s="99">
+      <c r="E235" s="91">
         <f t="shared" si="15"/>
         <v>138.47499999999999</v>
       </c>
@@ -40896,7 +40896,7 @@
         <f t="shared" si="18"/>
         <v>139650</v>
       </c>
-      <c r="E236" s="99">
+      <c r="E236" s="91">
         <f t="shared" si="15"/>
         <v>139.65</v>
       </c>
@@ -40922,7 +40922,7 @@
         <f t="shared" si="18"/>
         <v>140830</v>
       </c>
-      <c r="E237" s="99">
+      <c r="E237" s="91">
         <f t="shared" si="15"/>
         <v>140.83000000000001</v>
       </c>
@@ -40948,7 +40948,7 @@
         <f t="shared" si="18"/>
         <v>142015</v>
       </c>
-      <c r="E238" s="99">
+      <c r="E238" s="91">
         <f t="shared" si="15"/>
         <v>142.01499999999999</v>
       </c>
@@ -40974,7 +40974,7 @@
         <f t="shared" si="18"/>
         <v>143205</v>
       </c>
-      <c r="E239" s="99">
+      <c r="E239" s="91">
         <f t="shared" si="15"/>
         <v>143.20500000000001</v>
       </c>
@@ -41000,7 +41000,7 @@
         <f t="shared" si="18"/>
         <v>144400</v>
       </c>
-      <c r="E240" s="99">
+      <c r="E240" s="91">
         <f t="shared" si="15"/>
         <v>144.4</v>
       </c>
@@ -41026,7 +41026,7 @@
         <f t="shared" si="18"/>
         <v>145600</v>
       </c>
-      <c r="E241" s="99">
+      <c r="E241" s="91">
         <f t="shared" si="15"/>
         <v>145.6</v>
       </c>
@@ -41054,7 +41054,7 @@
         <f t="shared" si="18"/>
         <v>146805</v>
       </c>
-      <c r="E242" s="99">
+      <c r="E242" s="91">
         <f t="shared" si="15"/>
         <v>146.80500000000001</v>
       </c>
@@ -41080,7 +41080,7 @@
         <f t="shared" si="18"/>
         <v>148015</v>
       </c>
-      <c r="E243" s="99">
+      <c r="E243" s="91">
         <f t="shared" si="15"/>
         <v>148.01499999999999</v>
       </c>
@@ -41106,7 +41106,7 @@
         <f t="shared" si="18"/>
         <v>149230</v>
       </c>
-      <c r="E244" s="99">
+      <c r="E244" s="91">
         <f t="shared" si="15"/>
         <v>149.22999999999999</v>
       </c>
@@ -41132,7 +41132,7 @@
         <f t="shared" si="18"/>
         <v>150450</v>
       </c>
-      <c r="E245" s="99">
+      <c r="E245" s="91">
         <f t="shared" si="15"/>
         <v>150.44999999999999</v>
       </c>
@@ -41158,7 +41158,7 @@
         <f t="shared" si="18"/>
         <v>151675</v>
       </c>
-      <c r="E246" s="99">
+      <c r="E246" s="91">
         <f t="shared" si="15"/>
         <v>151.67500000000001</v>
       </c>
@@ -41184,7 +41184,7 @@
         <f t="shared" si="18"/>
         <v>152905</v>
       </c>
-      <c r="E247" s="99">
+      <c r="E247" s="91">
         <f t="shared" si="15"/>
         <v>152.905</v>
       </c>
@@ -41210,7 +41210,7 @@
         <f t="shared" si="18"/>
         <v>154140</v>
       </c>
-      <c r="E248" s="99">
+      <c r="E248" s="91">
         <f t="shared" si="15"/>
         <v>154.13999999999999</v>
       </c>
@@ -41236,7 +41236,7 @@
         <f t="shared" si="18"/>
         <v>155380</v>
       </c>
-      <c r="E249" s="99">
+      <c r="E249" s="91">
         <f t="shared" si="15"/>
         <v>155.38</v>
       </c>
@@ -41262,7 +41262,7 @@
         <f t="shared" si="18"/>
         <v>156625</v>
       </c>
-      <c r="E250" s="99">
+      <c r="E250" s="91">
         <f t="shared" si="15"/>
         <v>156.625</v>
       </c>
@@ -41288,7 +41288,7 @@
         <f t="shared" si="18"/>
         <v>157875</v>
       </c>
-      <c r="E251" s="99">
+      <c r="E251" s="91">
         <f t="shared" si="15"/>
         <v>157.875</v>
       </c>
@@ -41316,7 +41316,7 @@
         <f t="shared" si="18"/>
         <v>159130</v>
       </c>
-      <c r="E252" s="99">
+      <c r="E252" s="91">
         <f t="shared" si="15"/>
         <v>159.13</v>
       </c>
@@ -41342,7 +41342,7 @@
         <f t="shared" si="18"/>
         <v>160390</v>
       </c>
-      <c r="E253" s="99">
+      <c r="E253" s="91">
         <f t="shared" si="15"/>
         <v>160.38999999999999</v>
       </c>
@@ -41368,7 +41368,7 @@
         <f t="shared" si="18"/>
         <v>161655</v>
       </c>
-      <c r="E254" s="99">
+      <c r="E254" s="91">
         <f t="shared" si="15"/>
         <v>161.655</v>
       </c>
@@ -41394,7 +41394,7 @@
         <f t="shared" si="18"/>
         <v>162925</v>
       </c>
-      <c r="E255" s="99">
+      <c r="E255" s="91">
         <f t="shared" si="15"/>
         <v>162.92500000000001</v>
       </c>
@@ -41420,7 +41420,7 @@
         <f t="shared" si="18"/>
         <v>164200</v>
       </c>
-      <c r="E256" s="99">
+      <c r="E256" s="91">
         <f t="shared" si="15"/>
         <v>164.2</v>
       </c>
@@ -41446,7 +41446,7 @@
         <f t="shared" si="18"/>
         <v>165480</v>
       </c>
-      <c r="E257" s="99">
+      <c r="E257" s="91">
         <f t="shared" si="15"/>
         <v>165.48</v>
       </c>
@@ -41472,7 +41472,7 @@
         <f t="shared" si="18"/>
         <v>166765</v>
       </c>
-      <c r="E258" s="99">
+      <c r="E258" s="91">
         <f t="shared" ref="E258:E321" si="20">D258/1000</f>
         <v>166.76499999999999</v>
       </c>
@@ -41498,7 +41498,7 @@
         <f t="shared" si="18"/>
         <v>168055</v>
       </c>
-      <c r="E259" s="99">
+      <c r="E259" s="91">
         <f t="shared" si="20"/>
         <v>168.05500000000001</v>
       </c>
@@ -41524,7 +41524,7 @@
         <f t="shared" ref="D260:D323" si="23">D259+A260*5</f>
         <v>169350</v>
       </c>
-      <c r="E260" s="99">
+      <c r="E260" s="91">
         <f t="shared" si="20"/>
         <v>169.35</v>
       </c>
@@ -41550,7 +41550,7 @@
         <f t="shared" si="23"/>
         <v>170650</v>
       </c>
-      <c r="E261" s="99">
+      <c r="E261" s="91">
         <f t="shared" si="20"/>
         <v>170.65</v>
       </c>
@@ -41578,7 +41578,7 @@
         <f t="shared" si="23"/>
         <v>171955</v>
       </c>
-      <c r="E262" s="99">
+      <c r="E262" s="91">
         <f t="shared" si="20"/>
         <v>171.95500000000001</v>
       </c>
@@ -41604,7 +41604,7 @@
         <f t="shared" si="23"/>
         <v>173265</v>
       </c>
-      <c r="E263" s="99">
+      <c r="E263" s="91">
         <f t="shared" si="20"/>
         <v>173.26499999999999</v>
       </c>
@@ -41630,7 +41630,7 @@
         <f t="shared" si="23"/>
         <v>174580</v>
       </c>
-      <c r="E264" s="99">
+      <c r="E264" s="91">
         <f t="shared" si="20"/>
         <v>174.58</v>
       </c>
@@ -41656,7 +41656,7 @@
         <f t="shared" si="23"/>
         <v>175900</v>
       </c>
-      <c r="E265" s="99">
+      <c r="E265" s="91">
         <f t="shared" si="20"/>
         <v>175.9</v>
       </c>
@@ -41682,7 +41682,7 @@
         <f t="shared" si="23"/>
         <v>177225</v>
       </c>
-      <c r="E266" s="99">
+      <c r="E266" s="91">
         <f t="shared" si="20"/>
         <v>177.22499999999999</v>
       </c>
@@ -41708,7 +41708,7 @@
         <f t="shared" si="23"/>
         <v>178555</v>
       </c>
-      <c r="E267" s="99">
+      <c r="E267" s="91">
         <f t="shared" si="20"/>
         <v>178.55500000000001</v>
       </c>
@@ -41734,7 +41734,7 @@
         <f t="shared" si="23"/>
         <v>179890</v>
       </c>
-      <c r="E268" s="99">
+      <c r="E268" s="91">
         <f t="shared" si="20"/>
         <v>179.89</v>
       </c>
@@ -41760,7 +41760,7 @@
         <f t="shared" si="23"/>
         <v>181230</v>
       </c>
-      <c r="E269" s="99">
+      <c r="E269" s="91">
         <f t="shared" si="20"/>
         <v>181.23</v>
       </c>
@@ -41786,7 +41786,7 @@
         <f t="shared" si="23"/>
         <v>182575</v>
       </c>
-      <c r="E270" s="99">
+      <c r="E270" s="91">
         <f t="shared" si="20"/>
         <v>182.57499999999999</v>
       </c>
@@ -41812,7 +41812,7 @@
         <f t="shared" si="23"/>
         <v>183925</v>
       </c>
-      <c r="E271" s="99">
+      <c r="E271" s="91">
         <f t="shared" si="20"/>
         <v>183.92500000000001</v>
       </c>
@@ -41840,7 +41840,7 @@
         <f t="shared" si="23"/>
         <v>185280</v>
       </c>
-      <c r="E272" s="99">
+      <c r="E272" s="91">
         <f t="shared" si="20"/>
         <v>185.28</v>
       </c>
@@ -41866,7 +41866,7 @@
         <f t="shared" si="23"/>
         <v>186640</v>
       </c>
-      <c r="E273" s="99">
+      <c r="E273" s="91">
         <f t="shared" si="20"/>
         <v>186.64</v>
       </c>
@@ -41892,7 +41892,7 @@
         <f t="shared" si="23"/>
         <v>188005</v>
       </c>
-      <c r="E274" s="99">
+      <c r="E274" s="91">
         <f t="shared" si="20"/>
         <v>188.005</v>
       </c>
@@ -41918,7 +41918,7 @@
         <f t="shared" si="23"/>
         <v>189375</v>
       </c>
-      <c r="E275" s="99">
+      <c r="E275" s="91">
         <f t="shared" si="20"/>
         <v>189.375</v>
       </c>
@@ -41944,7 +41944,7 @@
         <f t="shared" si="23"/>
         <v>190750</v>
       </c>
-      <c r="E276" s="99">
+      <c r="E276" s="91">
         <f t="shared" si="20"/>
         <v>190.75</v>
       </c>
@@ -41970,7 +41970,7 @@
         <f t="shared" si="23"/>
         <v>192130</v>
       </c>
-      <c r="E277" s="99">
+      <c r="E277" s="91">
         <f t="shared" si="20"/>
         <v>192.13</v>
       </c>
@@ -41996,7 +41996,7 @@
         <f t="shared" si="23"/>
         <v>193515</v>
       </c>
-      <c r="E278" s="99">
+      <c r="E278" s="91">
         <f t="shared" si="20"/>
         <v>193.51499999999999</v>
       </c>
@@ -42022,7 +42022,7 @@
         <f t="shared" si="23"/>
         <v>194905</v>
       </c>
-      <c r="E279" s="99">
+      <c r="E279" s="91">
         <f t="shared" si="20"/>
         <v>194.905</v>
       </c>
@@ -42048,7 +42048,7 @@
         <f t="shared" si="23"/>
         <v>196300</v>
       </c>
-      <c r="E280" s="99">
+      <c r="E280" s="91">
         <f t="shared" si="20"/>
         <v>196.3</v>
       </c>
@@ -42074,7 +42074,7 @@
         <f t="shared" si="23"/>
         <v>197700</v>
       </c>
-      <c r="E281" s="99">
+      <c r="E281" s="91">
         <f t="shared" si="20"/>
         <v>197.7</v>
       </c>
@@ -42102,7 +42102,7 @@
         <f t="shared" si="23"/>
         <v>199105</v>
       </c>
-      <c r="E282" s="99">
+      <c r="E282" s="91">
         <f t="shared" si="20"/>
         <v>199.10499999999999</v>
       </c>
@@ -42128,7 +42128,7 @@
         <f t="shared" si="23"/>
         <v>200515</v>
       </c>
-      <c r="E283" s="99">
+      <c r="E283" s="91">
         <f t="shared" si="20"/>
         <v>200.51499999999999</v>
       </c>
@@ -42154,7 +42154,7 @@
         <f t="shared" si="23"/>
         <v>201930</v>
       </c>
-      <c r="E284" s="99">
+      <c r="E284" s="91">
         <f t="shared" si="20"/>
         <v>201.93</v>
       </c>
@@ -42180,7 +42180,7 @@
         <f t="shared" si="23"/>
         <v>203350</v>
       </c>
-      <c r="E285" s="99">
+      <c r="E285" s="91">
         <f t="shared" si="20"/>
         <v>203.35</v>
       </c>
@@ -42206,7 +42206,7 @@
         <f t="shared" si="23"/>
         <v>204775</v>
       </c>
-      <c r="E286" s="99">
+      <c r="E286" s="91">
         <f t="shared" si="20"/>
         <v>204.77500000000001</v>
       </c>
@@ -42232,7 +42232,7 @@
         <f t="shared" si="23"/>
         <v>206205</v>
       </c>
-      <c r="E287" s="99">
+      <c r="E287" s="91">
         <f t="shared" si="20"/>
         <v>206.20500000000001</v>
       </c>
@@ -42258,7 +42258,7 @@
         <f t="shared" si="23"/>
         <v>207640</v>
       </c>
-      <c r="E288" s="99">
+      <c r="E288" s="91">
         <f t="shared" si="20"/>
         <v>207.64</v>
       </c>
@@ -42284,7 +42284,7 @@
         <f t="shared" si="23"/>
         <v>209080</v>
       </c>
-      <c r="E289" s="99">
+      <c r="E289" s="91">
         <f t="shared" si="20"/>
         <v>209.08</v>
       </c>
@@ -42310,7 +42310,7 @@
         <f t="shared" si="23"/>
         <v>210525</v>
       </c>
-      <c r="E290" s="99">
+      <c r="E290" s="91">
         <f t="shared" si="20"/>
         <v>210.52500000000001</v>
       </c>
@@ -42336,7 +42336,7 @@
         <f t="shared" si="23"/>
         <v>211975</v>
       </c>
-      <c r="E291" s="99">
+      <c r="E291" s="91">
         <f t="shared" si="20"/>
         <v>211.97499999999999</v>
       </c>
@@ -42364,7 +42364,7 @@
         <f t="shared" si="23"/>
         <v>213430</v>
       </c>
-      <c r="E292" s="99">
+      <c r="E292" s="91">
         <f t="shared" si="20"/>
         <v>213.43</v>
       </c>
@@ -42390,7 +42390,7 @@
         <f t="shared" si="23"/>
         <v>214890</v>
       </c>
-      <c r="E293" s="99">
+      <c r="E293" s="91">
         <f t="shared" si="20"/>
         <v>214.89</v>
       </c>
@@ -42416,7 +42416,7 @@
         <f t="shared" si="23"/>
         <v>216355</v>
       </c>
-      <c r="E294" s="99">
+      <c r="E294" s="91">
         <f t="shared" si="20"/>
         <v>216.35499999999999</v>
       </c>
@@ -42442,7 +42442,7 @@
         <f t="shared" si="23"/>
         <v>217825</v>
       </c>
-      <c r="E295" s="99">
+      <c r="E295" s="91">
         <f t="shared" si="20"/>
         <v>217.82499999999999</v>
       </c>
@@ -42468,7 +42468,7 @@
         <f t="shared" si="23"/>
         <v>219300</v>
       </c>
-      <c r="E296" s="99">
+      <c r="E296" s="91">
         <f t="shared" si="20"/>
         <v>219.3</v>
       </c>
@@ -42494,7 +42494,7 @@
         <f t="shared" si="23"/>
         <v>220780</v>
       </c>
-      <c r="E297" s="99">
+      <c r="E297" s="91">
         <f t="shared" si="20"/>
         <v>220.78</v>
       </c>
@@ -42520,7 +42520,7 @@
         <f t="shared" si="23"/>
         <v>222265</v>
       </c>
-      <c r="E298" s="99">
+      <c r="E298" s="91">
         <f t="shared" si="20"/>
         <v>222.26499999999999</v>
       </c>
@@ -42546,7 +42546,7 @@
         <f t="shared" si="23"/>
         <v>223755</v>
       </c>
-      <c r="E299" s="99">
+      <c r="E299" s="91">
         <f t="shared" si="20"/>
         <v>223.755</v>
       </c>
@@ -42572,7 +42572,7 @@
         <f t="shared" si="23"/>
         <v>225250</v>
       </c>
-      <c r="E300" s="99">
+      <c r="E300" s="91">
         <f t="shared" si="20"/>
         <v>225.25</v>
       </c>
@@ -42598,7 +42598,7 @@
         <f t="shared" si="23"/>
         <v>226750</v>
       </c>
-      <c r="E301" s="99">
+      <c r="E301" s="91">
         <f t="shared" si="20"/>
         <v>226.75</v>
       </c>
@@ -42626,7 +42626,7 @@
         <f t="shared" si="23"/>
         <v>228255</v>
       </c>
-      <c r="E302" s="99">
+      <c r="E302" s="91">
         <f t="shared" si="20"/>
         <v>228.255</v>
       </c>
@@ -42652,7 +42652,7 @@
         <f t="shared" si="23"/>
         <v>229765</v>
       </c>
-      <c r="E303" s="99">
+      <c r="E303" s="91">
         <f t="shared" si="20"/>
         <v>229.76499999999999</v>
       </c>
@@ -42678,7 +42678,7 @@
         <f t="shared" si="23"/>
         <v>231280</v>
       </c>
-      <c r="E304" s="99">
+      <c r="E304" s="91">
         <f t="shared" si="20"/>
         <v>231.28</v>
       </c>
@@ -42704,7 +42704,7 @@
         <f t="shared" si="23"/>
         <v>232800</v>
       </c>
-      <c r="E305" s="99">
+      <c r="E305" s="91">
         <f t="shared" si="20"/>
         <v>232.8</v>
       </c>
@@ -42730,7 +42730,7 @@
         <f t="shared" si="23"/>
         <v>234325</v>
       </c>
-      <c r="E306" s="99">
+      <c r="E306" s="91">
         <f t="shared" si="20"/>
         <v>234.32499999999999</v>
       </c>
@@ -42756,7 +42756,7 @@
         <f t="shared" si="23"/>
         <v>235855</v>
       </c>
-      <c r="E307" s="99">
+      <c r="E307" s="91">
         <f t="shared" si="20"/>
         <v>235.85499999999999</v>
       </c>
@@ -42782,7 +42782,7 @@
         <f t="shared" si="23"/>
         <v>237390</v>
       </c>
-      <c r="E308" s="99">
+      <c r="E308" s="91">
         <f t="shared" si="20"/>
         <v>237.39</v>
       </c>
@@ -42808,7 +42808,7 @@
         <f t="shared" si="23"/>
         <v>238930</v>
       </c>
-      <c r="E309" s="99">
+      <c r="E309" s="91">
         <f t="shared" si="20"/>
         <v>238.93</v>
       </c>
@@ -42834,7 +42834,7 @@
         <f t="shared" si="23"/>
         <v>240475</v>
       </c>
-      <c r="E310" s="99">
+      <c r="E310" s="91">
         <f t="shared" si="20"/>
         <v>240.47499999999999</v>
       </c>
@@ -42860,7 +42860,7 @@
         <f t="shared" si="23"/>
         <v>242025</v>
       </c>
-      <c r="E311" s="99">
+      <c r="E311" s="91">
         <f t="shared" si="20"/>
         <v>242.02500000000001</v>
       </c>
@@ -42888,7 +42888,7 @@
         <f t="shared" si="23"/>
         <v>243580</v>
       </c>
-      <c r="E312" s="99">
+      <c r="E312" s="91">
         <f t="shared" si="20"/>
         <v>243.58</v>
       </c>
@@ -42914,7 +42914,7 @@
         <f t="shared" si="23"/>
         <v>245140</v>
       </c>
-      <c r="E313" s="99">
+      <c r="E313" s="91">
         <f t="shared" si="20"/>
         <v>245.14</v>
       </c>
@@ -42940,7 +42940,7 @@
         <f t="shared" si="23"/>
         <v>246705</v>
       </c>
-      <c r="E314" s="99">
+      <c r="E314" s="91">
         <f t="shared" si="20"/>
         <v>246.70500000000001</v>
       </c>
@@ -42966,7 +42966,7 @@
         <f t="shared" si="23"/>
         <v>248275</v>
       </c>
-      <c r="E315" s="99">
+      <c r="E315" s="91">
         <f t="shared" si="20"/>
         <v>248.27500000000001</v>
       </c>
@@ -42992,7 +42992,7 @@
         <f t="shared" si="23"/>
         <v>249850</v>
       </c>
-      <c r="E316" s="99">
+      <c r="E316" s="91">
         <f t="shared" si="20"/>
         <v>249.85</v>
       </c>
@@ -43018,7 +43018,7 @@
         <f t="shared" si="23"/>
         <v>251430</v>
       </c>
-      <c r="E317" s="99">
+      <c r="E317" s="91">
         <f t="shared" si="20"/>
         <v>251.43</v>
       </c>
@@ -43044,7 +43044,7 @@
         <f t="shared" si="23"/>
         <v>253015</v>
       </c>
-      <c r="E318" s="99">
+      <c r="E318" s="91">
         <f t="shared" si="20"/>
         <v>253.01499999999999</v>
       </c>
@@ -43070,7 +43070,7 @@
         <f t="shared" si="23"/>
         <v>254605</v>
       </c>
-      <c r="E319" s="99">
+      <c r="E319" s="91">
         <f t="shared" si="20"/>
         <v>254.60499999999999</v>
       </c>
@@ -43096,7 +43096,7 @@
         <f t="shared" si="23"/>
         <v>256200</v>
       </c>
-      <c r="E320" s="99">
+      <c r="E320" s="91">
         <f t="shared" si="20"/>
         <v>256.2</v>
       </c>
@@ -43122,7 +43122,7 @@
         <f t="shared" si="23"/>
         <v>257800</v>
       </c>
-      <c r="E321" s="99">
+      <c r="E321" s="91">
         <f t="shared" si="20"/>
         <v>257.8</v>
       </c>
@@ -43150,7 +43150,7 @@
         <f t="shared" si="23"/>
         <v>259405</v>
       </c>
-      <c r="E322" s="99">
+      <c r="E322" s="91">
         <f t="shared" ref="E322:E385" si="25">D322/1000</f>
         <v>259.40499999999997</v>
       </c>
@@ -43176,7 +43176,7 @@
         <f t="shared" si="23"/>
         <v>261015</v>
       </c>
-      <c r="E323" s="99">
+      <c r="E323" s="91">
         <f t="shared" si="25"/>
         <v>261.01499999999999</v>
       </c>
@@ -43202,7 +43202,7 @@
         <f t="shared" ref="D324:D387" si="28">D323+A324*5</f>
         <v>262630</v>
       </c>
-      <c r="E324" s="99">
+      <c r="E324" s="91">
         <f t="shared" si="25"/>
         <v>262.63</v>
       </c>
@@ -43228,7 +43228,7 @@
         <f t="shared" si="28"/>
         <v>264250</v>
       </c>
-      <c r="E325" s="99">
+      <c r="E325" s="91">
         <f t="shared" si="25"/>
         <v>264.25</v>
       </c>
@@ -43254,7 +43254,7 @@
         <f t="shared" si="28"/>
         <v>265875</v>
       </c>
-      <c r="E326" s="99">
+      <c r="E326" s="91">
         <f t="shared" si="25"/>
         <v>265.875</v>
       </c>
@@ -43280,7 +43280,7 @@
         <f t="shared" si="28"/>
         <v>267505</v>
       </c>
-      <c r="E327" s="99">
+      <c r="E327" s="91">
         <f t="shared" si="25"/>
         <v>267.505</v>
       </c>
@@ -43306,7 +43306,7 @@
         <f t="shared" si="28"/>
         <v>269140</v>
       </c>
-      <c r="E328" s="99">
+      <c r="E328" s="91">
         <f t="shared" si="25"/>
         <v>269.14</v>
       </c>
@@ -43332,7 +43332,7 @@
         <f t="shared" si="28"/>
         <v>270780</v>
       </c>
-      <c r="E329" s="99">
+      <c r="E329" s="91">
         <f t="shared" si="25"/>
         <v>270.77999999999997</v>
       </c>
@@ -43358,7 +43358,7 @@
         <f t="shared" si="28"/>
         <v>272425</v>
       </c>
-      <c r="E330" s="99">
+      <c r="E330" s="91">
         <f t="shared" si="25"/>
         <v>272.42500000000001</v>
       </c>
@@ -43384,7 +43384,7 @@
         <f t="shared" si="28"/>
         <v>274075</v>
       </c>
-      <c r="E331" s="99">
+      <c r="E331" s="91">
         <f t="shared" si="25"/>
         <v>274.07499999999999</v>
       </c>
@@ -43412,7 +43412,7 @@
         <f t="shared" si="28"/>
         <v>275730</v>
       </c>
-      <c r="E332" s="99">
+      <c r="E332" s="91">
         <f t="shared" si="25"/>
         <v>275.73</v>
       </c>
@@ -43438,7 +43438,7 @@
         <f t="shared" si="28"/>
         <v>277390</v>
       </c>
-      <c r="E333" s="99">
+      <c r="E333" s="91">
         <f t="shared" si="25"/>
         <v>277.39</v>
       </c>
@@ -43464,7 +43464,7 @@
         <f t="shared" si="28"/>
         <v>279055</v>
       </c>
-      <c r="E334" s="99">
+      <c r="E334" s="91">
         <f t="shared" si="25"/>
         <v>279.05500000000001</v>
       </c>
@@ -43490,7 +43490,7 @@
         <f t="shared" si="28"/>
         <v>280725</v>
       </c>
-      <c r="E335" s="99">
+      <c r="E335" s="91">
         <f t="shared" si="25"/>
         <v>280.72500000000002</v>
       </c>
@@ -43516,7 +43516,7 @@
         <f t="shared" si="28"/>
         <v>282400</v>
       </c>
-      <c r="E336" s="99">
+      <c r="E336" s="91">
         <f t="shared" si="25"/>
         <v>282.39999999999998</v>
       </c>
@@ -43542,7 +43542,7 @@
         <f t="shared" si="28"/>
         <v>284080</v>
       </c>
-      <c r="E337" s="99">
+      <c r="E337" s="91">
         <f t="shared" si="25"/>
         <v>284.08</v>
       </c>
@@ -43568,7 +43568,7 @@
         <f t="shared" si="28"/>
         <v>285765</v>
       </c>
-      <c r="E338" s="99">
+      <c r="E338" s="91">
         <f t="shared" si="25"/>
         <v>285.76499999999999</v>
       </c>
@@ -43594,7 +43594,7 @@
         <f t="shared" si="28"/>
         <v>287455</v>
       </c>
-      <c r="E339" s="99">
+      <c r="E339" s="91">
         <f t="shared" si="25"/>
         <v>287.45499999999998</v>
       </c>
@@ -43620,7 +43620,7 @@
         <f t="shared" si="28"/>
         <v>289150</v>
       </c>
-      <c r="E340" s="99">
+      <c r="E340" s="91">
         <f t="shared" si="25"/>
         <v>289.14999999999998</v>
       </c>
@@ -43646,7 +43646,7 @@
         <f t="shared" si="28"/>
         <v>290850</v>
       </c>
-      <c r="E341" s="99">
+      <c r="E341" s="91">
         <f t="shared" si="25"/>
         <v>290.85000000000002</v>
       </c>
@@ -43674,7 +43674,7 @@
         <f t="shared" si="28"/>
         <v>292555</v>
       </c>
-      <c r="E342" s="99">
+      <c r="E342" s="91">
         <f t="shared" si="25"/>
         <v>292.55500000000001</v>
       </c>
@@ -43700,7 +43700,7 @@
         <f t="shared" si="28"/>
         <v>294265</v>
       </c>
-      <c r="E343" s="99">
+      <c r="E343" s="91">
         <f t="shared" si="25"/>
         <v>294.26499999999999</v>
       </c>
@@ -43726,7 +43726,7 @@
         <f t="shared" si="28"/>
         <v>295980</v>
       </c>
-      <c r="E344" s="99">
+      <c r="E344" s="91">
         <f t="shared" si="25"/>
         <v>295.98</v>
       </c>
@@ -43752,7 +43752,7 @@
         <f t="shared" si="28"/>
         <v>297700</v>
       </c>
-      <c r="E345" s="99">
+      <c r="E345" s="91">
         <f t="shared" si="25"/>
         <v>297.7</v>
       </c>
@@ -43778,7 +43778,7 @@
         <f t="shared" si="28"/>
         <v>299425</v>
       </c>
-      <c r="E346" s="99">
+      <c r="E346" s="91">
         <f t="shared" si="25"/>
         <v>299.42500000000001</v>
       </c>
@@ -43804,7 +43804,7 @@
         <f t="shared" si="28"/>
         <v>301155</v>
       </c>
-      <c r="E347" s="99">
+      <c r="E347" s="91">
         <f t="shared" si="25"/>
         <v>301.15499999999997</v>
       </c>
@@ -43830,7 +43830,7 @@
         <f t="shared" si="28"/>
         <v>302890</v>
       </c>
-      <c r="E348" s="99">
+      <c r="E348" s="91">
         <f t="shared" si="25"/>
         <v>302.89</v>
       </c>
@@ -43856,7 +43856,7 @@
         <f t="shared" si="28"/>
         <v>304630</v>
       </c>
-      <c r="E349" s="99">
+      <c r="E349" s="91">
         <f t="shared" si="25"/>
         <v>304.63</v>
       </c>
@@ -43882,7 +43882,7 @@
         <f t="shared" si="28"/>
         <v>306375</v>
       </c>
-      <c r="E350" s="99">
+      <c r="E350" s="91">
         <f t="shared" si="25"/>
         <v>306.375</v>
       </c>
@@ -43908,7 +43908,7 @@
         <f t="shared" si="28"/>
         <v>308125</v>
       </c>
-      <c r="E351" s="99">
+      <c r="E351" s="91">
         <f t="shared" si="25"/>
         <v>308.125</v>
       </c>
@@ -43936,7 +43936,7 @@
         <f t="shared" si="28"/>
         <v>309880</v>
       </c>
-      <c r="E352" s="99">
+      <c r="E352" s="91">
         <f t="shared" si="25"/>
         <v>309.88</v>
       </c>
@@ -43962,7 +43962,7 @@
         <f t="shared" si="28"/>
         <v>311640</v>
       </c>
-      <c r="E353" s="99">
+      <c r="E353" s="91">
         <f t="shared" si="25"/>
         <v>311.64</v>
       </c>
@@ -43988,7 +43988,7 @@
         <f t="shared" si="28"/>
         <v>313405</v>
       </c>
-      <c r="E354" s="99">
+      <c r="E354" s="91">
         <f t="shared" si="25"/>
         <v>313.40499999999997</v>
       </c>
@@ -44014,7 +44014,7 @@
         <f t="shared" si="28"/>
         <v>315175</v>
       </c>
-      <c r="E355" s="99">
+      <c r="E355" s="91">
         <f t="shared" si="25"/>
         <v>315.17500000000001</v>
       </c>
@@ -44040,7 +44040,7 @@
         <f t="shared" si="28"/>
         <v>316950</v>
       </c>
-      <c r="E356" s="99">
+      <c r="E356" s="91">
         <f t="shared" si="25"/>
         <v>316.95</v>
       </c>
@@ -44066,7 +44066,7 @@
         <f t="shared" si="28"/>
         <v>318730</v>
       </c>
-      <c r="E357" s="99">
+      <c r="E357" s="91">
         <f t="shared" si="25"/>
         <v>318.73</v>
       </c>
@@ -44092,7 +44092,7 @@
         <f t="shared" si="28"/>
         <v>320515</v>
       </c>
-      <c r="E358" s="99">
+      <c r="E358" s="91">
         <f t="shared" si="25"/>
         <v>320.51499999999999</v>
       </c>
@@ -44118,7 +44118,7 @@
         <f t="shared" si="28"/>
         <v>322305</v>
       </c>
-      <c r="E359" s="99">
+      <c r="E359" s="91">
         <f t="shared" si="25"/>
         <v>322.30500000000001</v>
       </c>
@@ -44144,7 +44144,7 @@
         <f t="shared" si="28"/>
         <v>324100</v>
       </c>
-      <c r="E360" s="99">
+      <c r="E360" s="91">
         <f t="shared" si="25"/>
         <v>324.10000000000002</v>
       </c>
@@ -44170,7 +44170,7 @@
         <f t="shared" si="28"/>
         <v>325900</v>
       </c>
-      <c r="E361" s="99">
+      <c r="E361" s="91">
         <f t="shared" si="25"/>
         <v>325.89999999999998</v>
       </c>
@@ -44198,7 +44198,7 @@
         <f t="shared" si="28"/>
         <v>327705</v>
       </c>
-      <c r="E362" s="99">
+      <c r="E362" s="91">
         <f t="shared" si="25"/>
         <v>327.70499999999998</v>
       </c>
@@ -44224,7 +44224,7 @@
         <f t="shared" si="28"/>
         <v>329515</v>
       </c>
-      <c r="E363" s="99">
+      <c r="E363" s="91">
         <f t="shared" si="25"/>
         <v>329.51499999999999</v>
       </c>
@@ -44250,7 +44250,7 @@
         <f t="shared" si="28"/>
         <v>331330</v>
       </c>
-      <c r="E364" s="99">
+      <c r="E364" s="91">
         <f t="shared" si="25"/>
         <v>331.33</v>
       </c>
@@ -44276,7 +44276,7 @@
         <f t="shared" si="28"/>
         <v>333150</v>
       </c>
-      <c r="E365" s="99">
+      <c r="E365" s="91">
         <f t="shared" si="25"/>
         <v>333.15</v>
       </c>
@@ -44302,7 +44302,7 @@
         <f t="shared" si="28"/>
         <v>334975</v>
       </c>
-      <c r="E366" s="99">
+      <c r="E366" s="91">
         <f t="shared" si="25"/>
         <v>334.97500000000002</v>
       </c>
@@ -44328,7 +44328,7 @@
         <f t="shared" si="28"/>
         <v>336805</v>
       </c>
-      <c r="E367" s="99">
+      <c r="E367" s="91">
         <f t="shared" si="25"/>
         <v>336.80500000000001</v>
       </c>
@@ -44354,7 +44354,7 @@
         <f t="shared" si="28"/>
         <v>338640</v>
       </c>
-      <c r="E368" s="99">
+      <c r="E368" s="91">
         <f t="shared" si="25"/>
         <v>338.64</v>
       </c>
@@ -44380,7 +44380,7 @@
         <f t="shared" si="28"/>
         <v>340480</v>
       </c>
-      <c r="E369" s="99">
+      <c r="E369" s="91">
         <f t="shared" si="25"/>
         <v>340.48</v>
       </c>
@@ -44406,7 +44406,7 @@
         <f t="shared" si="28"/>
         <v>342325</v>
       </c>
-      <c r="E370" s="99">
+      <c r="E370" s="91">
         <f t="shared" si="25"/>
         <v>342.32499999999999</v>
       </c>
@@ -44432,7 +44432,7 @@
         <f t="shared" si="28"/>
         <v>344175</v>
       </c>
-      <c r="E371" s="99">
+      <c r="E371" s="91">
         <f t="shared" si="25"/>
         <v>344.17500000000001</v>
       </c>
@@ -44460,7 +44460,7 @@
         <f t="shared" si="28"/>
         <v>346030</v>
       </c>
-      <c r="E372" s="99">
+      <c r="E372" s="91">
         <f t="shared" si="25"/>
         <v>346.03</v>
       </c>
@@ -44486,7 +44486,7 @@
         <f t="shared" si="28"/>
         <v>347890</v>
       </c>
-      <c r="E373" s="99">
+      <c r="E373" s="91">
         <f t="shared" si="25"/>
         <v>347.89</v>
       </c>
@@ -44512,7 +44512,7 @@
         <f t="shared" si="28"/>
         <v>349755</v>
       </c>
-      <c r="E374" s="99">
+      <c r="E374" s="91">
         <f t="shared" si="25"/>
         <v>349.755</v>
       </c>
@@ -44538,7 +44538,7 @@
         <f t="shared" si="28"/>
         <v>351625</v>
       </c>
-      <c r="E375" s="99">
+      <c r="E375" s="91">
         <f t="shared" si="25"/>
         <v>351.625</v>
       </c>
@@ -44564,7 +44564,7 @@
         <f t="shared" si="28"/>
         <v>353500</v>
       </c>
-      <c r="E376" s="99">
+      <c r="E376" s="91">
         <f t="shared" si="25"/>
         <v>353.5</v>
       </c>
@@ -44590,7 +44590,7 @@
         <f t="shared" si="28"/>
         <v>355380</v>
       </c>
-      <c r="E377" s="99">
+      <c r="E377" s="91">
         <f t="shared" si="25"/>
         <v>355.38</v>
       </c>
@@ -44616,7 +44616,7 @@
         <f t="shared" si="28"/>
         <v>357265</v>
       </c>
-      <c r="E378" s="99">
+      <c r="E378" s="91">
         <f t="shared" si="25"/>
         <v>357.26499999999999</v>
       </c>
@@ -44642,7 +44642,7 @@
         <f t="shared" si="28"/>
         <v>359155</v>
       </c>
-      <c r="E379" s="99">
+      <c r="E379" s="91">
         <f t="shared" si="25"/>
         <v>359.15499999999997</v>
       </c>
@@ -44668,7 +44668,7 @@
         <f t="shared" si="28"/>
         <v>361050</v>
       </c>
-      <c r="E380" s="99">
+      <c r="E380" s="91">
         <f t="shared" si="25"/>
         <v>361.05</v>
       </c>
@@ -44694,7 +44694,7 @@
         <f t="shared" si="28"/>
         <v>362950</v>
       </c>
-      <c r="E381" s="99">
+      <c r="E381" s="91">
         <f t="shared" si="25"/>
         <v>362.95</v>
       </c>
@@ -44722,7 +44722,7 @@
         <f t="shared" si="28"/>
         <v>364855</v>
       </c>
-      <c r="E382" s="99">
+      <c r="E382" s="91">
         <f t="shared" si="25"/>
         <v>364.85500000000002</v>
       </c>
@@ -44748,7 +44748,7 @@
         <f t="shared" si="28"/>
         <v>366765</v>
       </c>
-      <c r="E383" s="99">
+      <c r="E383" s="91">
         <f t="shared" si="25"/>
         <v>366.76499999999999</v>
       </c>
@@ -44774,7 +44774,7 @@
         <f t="shared" si="28"/>
         <v>368680</v>
       </c>
-      <c r="E384" s="99">
+      <c r="E384" s="91">
         <f t="shared" si="25"/>
         <v>368.68</v>
       </c>
@@ -44800,7 +44800,7 @@
         <f t="shared" si="28"/>
         <v>370600</v>
       </c>
-      <c r="E385" s="99">
+      <c r="E385" s="91">
         <f t="shared" si="25"/>
         <v>370.6</v>
       </c>
@@ -44826,7 +44826,7 @@
         <f t="shared" si="28"/>
         <v>372525</v>
       </c>
-      <c r="E386" s="99">
+      <c r="E386" s="91">
         <f t="shared" ref="E386:E449" si="30">D386/1000</f>
         <v>372.52499999999998</v>
       </c>
@@ -44852,7 +44852,7 @@
         <f t="shared" si="28"/>
         <v>374455</v>
       </c>
-      <c r="E387" s="99">
+      <c r="E387" s="91">
         <f t="shared" si="30"/>
         <v>374.45499999999998</v>
       </c>
@@ -44878,7 +44878,7 @@
         <f t="shared" ref="D388:D451" si="33">D387+A388*5</f>
         <v>376390</v>
       </c>
-      <c r="E388" s="99">
+      <c r="E388" s="91">
         <f t="shared" si="30"/>
         <v>376.39</v>
       </c>
@@ -44904,7 +44904,7 @@
         <f t="shared" si="33"/>
         <v>378330</v>
       </c>
-      <c r="E389" s="99">
+      <c r="E389" s="91">
         <f t="shared" si="30"/>
         <v>378.33</v>
       </c>
@@ -44930,7 +44930,7 @@
         <f t="shared" si="33"/>
         <v>380275</v>
       </c>
-      <c r="E390" s="99">
+      <c r="E390" s="91">
         <f t="shared" si="30"/>
         <v>380.27499999999998</v>
       </c>
@@ -44956,7 +44956,7 @@
         <f t="shared" si="33"/>
         <v>382225</v>
       </c>
-      <c r="E391" s="99">
+      <c r="E391" s="91">
         <f t="shared" si="30"/>
         <v>382.22500000000002</v>
       </c>
@@ -44984,7 +44984,7 @@
         <f t="shared" si="33"/>
         <v>384180</v>
       </c>
-      <c r="E392" s="99">
+      <c r="E392" s="91">
         <f t="shared" si="30"/>
         <v>384.18</v>
       </c>
@@ -45010,7 +45010,7 @@
         <f t="shared" si="33"/>
         <v>386140</v>
       </c>
-      <c r="E393" s="99">
+      <c r="E393" s="91">
         <f t="shared" si="30"/>
         <v>386.14</v>
       </c>
@@ -45036,7 +45036,7 @@
         <f t="shared" si="33"/>
         <v>388105</v>
       </c>
-      <c r="E394" s="99">
+      <c r="E394" s="91">
         <f t="shared" si="30"/>
         <v>388.10500000000002</v>
       </c>
@@ -45062,7 +45062,7 @@
         <f t="shared" si="33"/>
         <v>390075</v>
       </c>
-      <c r="E395" s="99">
+      <c r="E395" s="91">
         <f t="shared" si="30"/>
         <v>390.07499999999999</v>
       </c>
@@ -45088,7 +45088,7 @@
         <f t="shared" si="33"/>
         <v>392050</v>
       </c>
-      <c r="E396" s="99">
+      <c r="E396" s="91">
         <f t="shared" si="30"/>
         <v>392.05</v>
       </c>
@@ -45114,7 +45114,7 @@
         <f t="shared" si="33"/>
         <v>394030</v>
       </c>
-      <c r="E397" s="99">
+      <c r="E397" s="91">
         <f t="shared" si="30"/>
         <v>394.03</v>
       </c>
@@ -45140,7 +45140,7 @@
         <f t="shared" si="33"/>
         <v>396015</v>
       </c>
-      <c r="E398" s="99">
+      <c r="E398" s="91">
         <f t="shared" si="30"/>
         <v>396.01499999999999</v>
       </c>
@@ -45166,7 +45166,7 @@
         <f t="shared" si="33"/>
         <v>398005</v>
       </c>
-      <c r="E399" s="99">
+      <c r="E399" s="91">
         <f t="shared" si="30"/>
         <v>398.005</v>
       </c>
@@ -45192,7 +45192,7 @@
         <f t="shared" si="33"/>
         <v>400000</v>
       </c>
-      <c r="E400" s="99">
+      <c r="E400" s="91">
         <f t="shared" si="30"/>
         <v>400</v>
       </c>
@@ -45218,7 +45218,7 @@
         <f t="shared" si="33"/>
         <v>402000</v>
       </c>
-      <c r="E401" s="99">
+      <c r="E401" s="91">
         <f t="shared" si="30"/>
         <v>402</v>
       </c>
@@ -45246,7 +45246,7 @@
         <f t="shared" si="33"/>
         <v>404005</v>
       </c>
-      <c r="E402" s="99">
+      <c r="E402" s="91">
         <f t="shared" si="30"/>
         <v>404.005</v>
       </c>
@@ -45272,7 +45272,7 @@
         <f t="shared" si="33"/>
         <v>406015</v>
       </c>
-      <c r="E403" s="99">
+      <c r="E403" s="91">
         <f t="shared" si="30"/>
         <v>406.01499999999999</v>
       </c>
@@ -45298,7 +45298,7 @@
         <f t="shared" si="33"/>
         <v>408030</v>
       </c>
-      <c r="E404" s="99">
+      <c r="E404" s="91">
         <f t="shared" si="30"/>
         <v>408.03</v>
       </c>
@@ -45324,7 +45324,7 @@
         <f t="shared" si="33"/>
         <v>410050</v>
       </c>
-      <c r="E405" s="99">
+      <c r="E405" s="91">
         <f t="shared" si="30"/>
         <v>410.05</v>
       </c>
@@ -45350,7 +45350,7 @@
         <f t="shared" si="33"/>
         <v>412075</v>
       </c>
-      <c r="E406" s="99">
+      <c r="E406" s="91">
         <f t="shared" si="30"/>
         <v>412.07499999999999</v>
       </c>
@@ -45376,7 +45376,7 @@
         <f t="shared" si="33"/>
         <v>414105</v>
       </c>
-      <c r="E407" s="99">
+      <c r="E407" s="91">
         <f t="shared" si="30"/>
         <v>414.10500000000002</v>
       </c>
@@ -45402,7 +45402,7 @@
         <f t="shared" si="33"/>
         <v>416140</v>
       </c>
-      <c r="E408" s="99">
+      <c r="E408" s="91">
         <f t="shared" si="30"/>
         <v>416.14</v>
       </c>
@@ -45428,7 +45428,7 @@
         <f t="shared" si="33"/>
         <v>418180</v>
       </c>
-      <c r="E409" s="99">
+      <c r="E409" s="91">
         <f t="shared" si="30"/>
         <v>418.18</v>
       </c>
@@ -45454,7 +45454,7 @@
         <f t="shared" si="33"/>
         <v>420225</v>
       </c>
-      <c r="E410" s="99">
+      <c r="E410" s="91">
         <f t="shared" si="30"/>
         <v>420.22500000000002</v>
       </c>
@@ -45480,7 +45480,7 @@
         <f t="shared" si="33"/>
         <v>422275</v>
       </c>
-      <c r="E411" s="99">
+      <c r="E411" s="91">
         <f t="shared" si="30"/>
         <v>422.27499999999998</v>
       </c>
@@ -45508,7 +45508,7 @@
         <f t="shared" si="33"/>
         <v>424330</v>
       </c>
-      <c r="E412" s="99">
+      <c r="E412" s="91">
         <f t="shared" si="30"/>
         <v>424.33</v>
       </c>
@@ -45534,7 +45534,7 @@
         <f t="shared" si="33"/>
         <v>426390</v>
       </c>
-      <c r="E413" s="99">
+      <c r="E413" s="91">
         <f t="shared" si="30"/>
         <v>426.39</v>
       </c>
@@ -45560,7 +45560,7 @@
         <f t="shared" si="33"/>
         <v>428455</v>
       </c>
-      <c r="E414" s="99">
+      <c r="E414" s="91">
         <f t="shared" si="30"/>
         <v>428.45499999999998</v>
       </c>
@@ -45586,7 +45586,7 @@
         <f t="shared" si="33"/>
         <v>430525</v>
       </c>
-      <c r="E415" s="99">
+      <c r="E415" s="91">
         <f t="shared" si="30"/>
         <v>430.52499999999998</v>
       </c>
@@ -45612,7 +45612,7 @@
         <f t="shared" si="33"/>
         <v>432600</v>
       </c>
-      <c r="E416" s="99">
+      <c r="E416" s="91">
         <f t="shared" si="30"/>
         <v>432.6</v>
       </c>
@@ -45638,7 +45638,7 @@
         <f t="shared" si="33"/>
         <v>434680</v>
       </c>
-      <c r="E417" s="99">
+      <c r="E417" s="91">
         <f t="shared" si="30"/>
         <v>434.68</v>
       </c>
@@ -45664,7 +45664,7 @@
         <f t="shared" si="33"/>
         <v>436765</v>
       </c>
-      <c r="E418" s="99">
+      <c r="E418" s="91">
         <f t="shared" si="30"/>
         <v>436.76499999999999</v>
       </c>
@@ -45690,7 +45690,7 @@
         <f t="shared" si="33"/>
         <v>438855</v>
       </c>
-      <c r="E419" s="99">
+      <c r="E419" s="91">
         <f t="shared" si="30"/>
         <v>438.85500000000002</v>
       </c>
@@ -45716,7 +45716,7 @@
         <f t="shared" si="33"/>
         <v>440950</v>
       </c>
-      <c r="E420" s="99">
+      <c r="E420" s="91">
         <f t="shared" si="30"/>
         <v>440.95</v>
       </c>
@@ -45742,7 +45742,7 @@
         <f t="shared" si="33"/>
         <v>443050</v>
       </c>
-      <c r="E421" s="99">
+      <c r="E421" s="91">
         <f t="shared" si="30"/>
         <v>443.05</v>
       </c>
@@ -45770,7 +45770,7 @@
         <f t="shared" si="33"/>
         <v>445155</v>
       </c>
-      <c r="E422" s="99">
+      <c r="E422" s="91">
         <f t="shared" si="30"/>
         <v>445.15499999999997</v>
       </c>
@@ -45796,7 +45796,7 @@
         <f t="shared" si="33"/>
         <v>447265</v>
       </c>
-      <c r="E423" s="99">
+      <c r="E423" s="91">
         <f t="shared" si="30"/>
         <v>447.26499999999999</v>
       </c>
@@ -45822,7 +45822,7 @@
         <f t="shared" si="33"/>
         <v>449380</v>
       </c>
-      <c r="E424" s="99">
+      <c r="E424" s="91">
         <f t="shared" si="30"/>
         <v>449.38</v>
       </c>
@@ -45848,7 +45848,7 @@
         <f t="shared" si="33"/>
         <v>451500</v>
       </c>
-      <c r="E425" s="99">
+      <c r="E425" s="91">
         <f t="shared" si="30"/>
         <v>451.5</v>
       </c>
@@ -45874,7 +45874,7 @@
         <f t="shared" si="33"/>
         <v>453625</v>
       </c>
-      <c r="E426" s="99">
+      <c r="E426" s="91">
         <f t="shared" si="30"/>
         <v>453.625</v>
       </c>
@@ -45900,7 +45900,7 @@
         <f t="shared" si="33"/>
         <v>455755</v>
       </c>
-      <c r="E427" s="99">
+      <c r="E427" s="91">
         <f t="shared" si="30"/>
         <v>455.755</v>
       </c>
@@ -45926,7 +45926,7 @@
         <f t="shared" si="33"/>
         <v>457890</v>
       </c>
-      <c r="E428" s="99">
+      <c r="E428" s="91">
         <f t="shared" si="30"/>
         <v>457.89</v>
       </c>
@@ -45952,7 +45952,7 @@
         <f t="shared" si="33"/>
         <v>460030</v>
       </c>
-      <c r="E429" s="99">
+      <c r="E429" s="91">
         <f t="shared" si="30"/>
         <v>460.03</v>
       </c>
@@ -45978,7 +45978,7 @@
         <f t="shared" si="33"/>
         <v>462175</v>
       </c>
-      <c r="E430" s="99">
+      <c r="E430" s="91">
         <f t="shared" si="30"/>
         <v>462.17500000000001</v>
       </c>
@@ -46004,7 +46004,7 @@
         <f t="shared" si="33"/>
         <v>464325</v>
       </c>
-      <c r="E431" s="99">
+      <c r="E431" s="91">
         <f t="shared" si="30"/>
         <v>464.32499999999999</v>
       </c>
@@ -46032,7 +46032,7 @@
         <f t="shared" si="33"/>
         <v>466480</v>
       </c>
-      <c r="E432" s="99">
+      <c r="E432" s="91">
         <f t="shared" si="30"/>
         <v>466.48</v>
       </c>
@@ -46058,7 +46058,7 @@
         <f t="shared" si="33"/>
         <v>468640</v>
       </c>
-      <c r="E433" s="99">
+      <c r="E433" s="91">
         <f t="shared" si="30"/>
         <v>468.64</v>
       </c>
@@ -46084,7 +46084,7 @@
         <f t="shared" si="33"/>
         <v>470805</v>
       </c>
-      <c r="E434" s="99">
+      <c r="E434" s="91">
         <f t="shared" si="30"/>
         <v>470.80500000000001</v>
       </c>
@@ -46110,7 +46110,7 @@
         <f t="shared" si="33"/>
         <v>472975</v>
       </c>
-      <c r="E435" s="99">
+      <c r="E435" s="91">
         <f t="shared" si="30"/>
         <v>472.97500000000002</v>
       </c>
@@ -46136,7 +46136,7 @@
         <f t="shared" si="33"/>
         <v>475150</v>
       </c>
-      <c r="E436" s="99">
+      <c r="E436" s="91">
         <f t="shared" si="30"/>
         <v>475.15</v>
       </c>
@@ -46162,7 +46162,7 @@
         <f t="shared" si="33"/>
         <v>477330</v>
       </c>
-      <c r="E437" s="99">
+      <c r="E437" s="91">
         <f t="shared" si="30"/>
         <v>477.33</v>
       </c>
@@ -46188,7 +46188,7 @@
         <f t="shared" si="33"/>
         <v>479515</v>
       </c>
-      <c r="E438" s="99">
+      <c r="E438" s="91">
         <f t="shared" si="30"/>
         <v>479.51499999999999</v>
       </c>
@@ -46214,7 +46214,7 @@
         <f t="shared" si="33"/>
         <v>481705</v>
       </c>
-      <c r="E439" s="99">
+      <c r="E439" s="91">
         <f t="shared" si="30"/>
         <v>481.70499999999998</v>
       </c>
@@ -46240,7 +46240,7 @@
         <f t="shared" si="33"/>
         <v>483900</v>
       </c>
-      <c r="E440" s="99">
+      <c r="E440" s="91">
         <f t="shared" si="30"/>
         <v>483.9</v>
       </c>
@@ -46266,7 +46266,7 @@
         <f t="shared" si="33"/>
         <v>486100</v>
       </c>
-      <c r="E441" s="99">
+      <c r="E441" s="91">
         <f t="shared" si="30"/>
         <v>486.1</v>
       </c>
@@ -46294,7 +46294,7 @@
         <f t="shared" si="33"/>
         <v>488305</v>
       </c>
-      <c r="E442" s="99">
+      <c r="E442" s="91">
         <f t="shared" si="30"/>
         <v>488.30500000000001</v>
       </c>
@@ -46320,7 +46320,7 @@
         <f t="shared" si="33"/>
         <v>490515</v>
       </c>
-      <c r="E443" s="99">
+      <c r="E443" s="91">
         <f t="shared" si="30"/>
         <v>490.51499999999999</v>
       </c>
@@ -46346,7 +46346,7 @@
         <f t="shared" si="33"/>
         <v>492730</v>
       </c>
-      <c r="E444" s="99">
+      <c r="E444" s="91">
         <f t="shared" si="30"/>
         <v>492.73</v>
       </c>
@@ -46372,7 +46372,7 @@
         <f t="shared" si="33"/>
         <v>494950</v>
       </c>
-      <c r="E445" s="99">
+      <c r="E445" s="91">
         <f t="shared" si="30"/>
         <v>494.95</v>
       </c>
@@ -46398,7 +46398,7 @@
         <f t="shared" si="33"/>
         <v>497175</v>
       </c>
-      <c r="E446" s="99">
+      <c r="E446" s="91">
         <f t="shared" si="30"/>
         <v>497.17500000000001</v>
       </c>
@@ -46424,7 +46424,7 @@
         <f t="shared" si="33"/>
         <v>499405</v>
       </c>
-      <c r="E447" s="99">
+      <c r="E447" s="91">
         <f t="shared" si="30"/>
         <v>499.40499999999997</v>
       </c>
@@ -46450,7 +46450,7 @@
         <f t="shared" si="33"/>
         <v>501640</v>
       </c>
-      <c r="E448" s="99">
+      <c r="E448" s="91">
         <f t="shared" si="30"/>
         <v>501.64</v>
       </c>
@@ -46476,7 +46476,7 @@
         <f t="shared" si="33"/>
         <v>503880</v>
       </c>
-      <c r="E449" s="99">
+      <c r="E449" s="91">
         <f t="shared" si="30"/>
         <v>503.88</v>
       </c>
@@ -46502,7 +46502,7 @@
         <f t="shared" si="33"/>
         <v>506125</v>
       </c>
-      <c r="E450" s="99">
+      <c r="E450" s="91">
         <f t="shared" ref="E450:E513" si="35">D450/1000</f>
         <v>506.125</v>
       </c>
@@ -46528,7 +46528,7 @@
         <f t="shared" si="33"/>
         <v>508375</v>
       </c>
-      <c r="E451" s="99">
+      <c r="E451" s="91">
         <f t="shared" si="35"/>
         <v>508.375</v>
       </c>
@@ -46556,7 +46556,7 @@
         <f t="shared" ref="D452:D515" si="38">D451+A452*5</f>
         <v>510630</v>
       </c>
-      <c r="E452" s="99">
+      <c r="E452" s="91">
         <f t="shared" si="35"/>
         <v>510.63</v>
       </c>
@@ -46582,7 +46582,7 @@
         <f t="shared" si="38"/>
         <v>512890</v>
       </c>
-      <c r="E453" s="99">
+      <c r="E453" s="91">
         <f t="shared" si="35"/>
         <v>512.89</v>
       </c>
@@ -46608,7 +46608,7 @@
         <f t="shared" si="38"/>
         <v>515155</v>
       </c>
-      <c r="E454" s="99">
+      <c r="E454" s="91">
         <f t="shared" si="35"/>
         <v>515.15499999999997</v>
       </c>
@@ -46634,7 +46634,7 @@
         <f t="shared" si="38"/>
         <v>517425</v>
       </c>
-      <c r="E455" s="99">
+      <c r="E455" s="91">
         <f t="shared" si="35"/>
         <v>517.42499999999995</v>
       </c>
@@ -46660,7 +46660,7 @@
         <f t="shared" si="38"/>
         <v>519700</v>
       </c>
-      <c r="E456" s="99">
+      <c r="E456" s="91">
         <f t="shared" si="35"/>
         <v>519.70000000000005</v>
       </c>
@@ -46686,7 +46686,7 @@
         <f t="shared" si="38"/>
         <v>521980</v>
       </c>
-      <c r="E457" s="99">
+      <c r="E457" s="91">
         <f t="shared" si="35"/>
         <v>521.98</v>
       </c>
@@ -46712,7 +46712,7 @@
         <f t="shared" si="38"/>
         <v>524265</v>
       </c>
-      <c r="E458" s="99">
+      <c r="E458" s="91">
         <f t="shared" si="35"/>
         <v>524.26499999999999</v>
       </c>
@@ -46738,7 +46738,7 @@
         <f t="shared" si="38"/>
         <v>526555</v>
       </c>
-      <c r="E459" s="99">
+      <c r="E459" s="91">
         <f t="shared" si="35"/>
         <v>526.55499999999995</v>
       </c>
@@ -46764,7 +46764,7 @@
         <f t="shared" si="38"/>
         <v>528850</v>
       </c>
-      <c r="E460" s="99">
+      <c r="E460" s="91">
         <f t="shared" si="35"/>
         <v>528.85</v>
       </c>
@@ -46790,7 +46790,7 @@
         <f t="shared" si="38"/>
         <v>531150</v>
       </c>
-      <c r="E461" s="99">
+      <c r="E461" s="91">
         <f t="shared" si="35"/>
         <v>531.15</v>
       </c>
@@ -46818,7 +46818,7 @@
         <f t="shared" si="38"/>
         <v>533455</v>
       </c>
-      <c r="E462" s="99">
+      <c r="E462" s="91">
         <f t="shared" si="35"/>
         <v>533.45500000000004</v>
       </c>
@@ -46844,7 +46844,7 @@
         <f t="shared" si="38"/>
         <v>535765</v>
       </c>
-      <c r="E463" s="99">
+      <c r="E463" s="91">
         <f t="shared" si="35"/>
         <v>535.76499999999999</v>
       </c>
@@ -46870,7 +46870,7 @@
         <f t="shared" si="38"/>
         <v>538080</v>
       </c>
-      <c r="E464" s="99">
+      <c r="E464" s="91">
         <f t="shared" si="35"/>
         <v>538.08000000000004</v>
       </c>
@@ -46896,7 +46896,7 @@
         <f t="shared" si="38"/>
         <v>540400</v>
       </c>
-      <c r="E465" s="99">
+      <c r="E465" s="91">
         <f t="shared" si="35"/>
         <v>540.4</v>
       </c>
@@ -46922,7 +46922,7 @@
         <f t="shared" si="38"/>
         <v>542725</v>
       </c>
-      <c r="E466" s="99">
+      <c r="E466" s="91">
         <f t="shared" si="35"/>
         <v>542.72500000000002</v>
       </c>
@@ -46948,7 +46948,7 @@
         <f t="shared" si="38"/>
         <v>545055</v>
       </c>
-      <c r="E467" s="99">
+      <c r="E467" s="91">
         <f t="shared" si="35"/>
         <v>545.05499999999995</v>
       </c>
@@ -46974,7 +46974,7 @@
         <f t="shared" si="38"/>
         <v>547390</v>
       </c>
-      <c r="E468" s="99">
+      <c r="E468" s="91">
         <f t="shared" si="35"/>
         <v>547.39</v>
       </c>
@@ -47000,7 +47000,7 @@
         <f t="shared" si="38"/>
         <v>549730</v>
       </c>
-      <c r="E469" s="99">
+      <c r="E469" s="91">
         <f t="shared" si="35"/>
         <v>549.73</v>
       </c>
@@ -47026,7 +47026,7 @@
         <f t="shared" si="38"/>
         <v>552075</v>
       </c>
-      <c r="E470" s="99">
+      <c r="E470" s="91">
         <f t="shared" si="35"/>
         <v>552.07500000000005</v>
       </c>
@@ -47052,7 +47052,7 @@
         <f t="shared" si="38"/>
         <v>554425</v>
       </c>
-      <c r="E471" s="99">
+      <c r="E471" s="91">
         <f t="shared" si="35"/>
         <v>554.42499999999995</v>
       </c>
@@ -47080,7 +47080,7 @@
         <f t="shared" si="38"/>
         <v>556780</v>
       </c>
-      <c r="E472" s="99">
+      <c r="E472" s="91">
         <f t="shared" si="35"/>
         <v>556.78</v>
       </c>
@@ -47106,7 +47106,7 @@
         <f t="shared" si="38"/>
         <v>559140</v>
       </c>
-      <c r="E473" s="99">
+      <c r="E473" s="91">
         <f t="shared" si="35"/>
         <v>559.14</v>
       </c>
@@ -47132,7 +47132,7 @@
         <f t="shared" si="38"/>
         <v>561505</v>
       </c>
-      <c r="E474" s="99">
+      <c r="E474" s="91">
         <f t="shared" si="35"/>
         <v>561.505</v>
       </c>
@@ -47158,7 +47158,7 @@
         <f t="shared" si="38"/>
         <v>563875</v>
       </c>
-      <c r="E475" s="99">
+      <c r="E475" s="91">
         <f t="shared" si="35"/>
         <v>563.875</v>
       </c>
@@ -47184,7 +47184,7 @@
         <f t="shared" si="38"/>
         <v>566250</v>
       </c>
-      <c r="E476" s="99">
+      <c r="E476" s="91">
         <f t="shared" si="35"/>
         <v>566.25</v>
       </c>
@@ -47210,7 +47210,7 @@
         <f t="shared" si="38"/>
         <v>568630</v>
       </c>
-      <c r="E477" s="99">
+      <c r="E477" s="91">
         <f t="shared" si="35"/>
         <v>568.63</v>
       </c>
@@ -47236,7 +47236,7 @@
         <f t="shared" si="38"/>
         <v>571015</v>
       </c>
-      <c r="E478" s="99">
+      <c r="E478" s="91">
         <f t="shared" si="35"/>
         <v>571.01499999999999</v>
       </c>
@@ -47262,7 +47262,7 @@
         <f t="shared" si="38"/>
         <v>573405</v>
       </c>
-      <c r="E479" s="99">
+      <c r="E479" s="91">
         <f t="shared" si="35"/>
         <v>573.40499999999997</v>
       </c>
@@ -47288,7 +47288,7 @@
         <f t="shared" si="38"/>
         <v>575800</v>
       </c>
-      <c r="E480" s="99">
+      <c r="E480" s="91">
         <f t="shared" si="35"/>
         <v>575.79999999999995</v>
       </c>
@@ -47316,7 +47316,7 @@
         <f t="shared" si="38"/>
         <v>578200</v>
       </c>
-      <c r="E481" s="99">
+      <c r="E481" s="91">
         <f t="shared" si="35"/>
         <v>578.20000000000005</v>
       </c>
@@ -47342,7 +47342,7 @@
         <f t="shared" si="38"/>
         <v>580605</v>
       </c>
-      <c r="E482" s="99">
+      <c r="E482" s="91">
         <f t="shared" si="35"/>
         <v>580.60500000000002</v>
       </c>
@@ -47368,7 +47368,7 @@
         <f t="shared" si="38"/>
         <v>583015</v>
       </c>
-      <c r="E483" s="99">
+      <c r="E483" s="91">
         <f t="shared" si="35"/>
         <v>583.01499999999999</v>
       </c>
@@ -47394,7 +47394,7 @@
         <f t="shared" si="38"/>
         <v>585430</v>
       </c>
-      <c r="E484" s="99">
+      <c r="E484" s="91">
         <f t="shared" si="35"/>
         <v>585.42999999999995</v>
       </c>
@@ -47420,7 +47420,7 @@
         <f t="shared" si="38"/>
         <v>587850</v>
       </c>
-      <c r="E485" s="99">
+      <c r="E485" s="91">
         <f t="shared" si="35"/>
         <v>587.85</v>
       </c>
@@ -47446,7 +47446,7 @@
         <f t="shared" si="38"/>
         <v>590275</v>
       </c>
-      <c r="E486" s="99">
+      <c r="E486" s="91">
         <f t="shared" si="35"/>
         <v>590.27499999999998</v>
       </c>
@@ -47472,7 +47472,7 @@
         <f t="shared" si="38"/>
         <v>592705</v>
       </c>
-      <c r="E487" s="99">
+      <c r="E487" s="91">
         <f t="shared" si="35"/>
         <v>592.70500000000004</v>
       </c>
@@ -47498,7 +47498,7 @@
         <f t="shared" si="38"/>
         <v>595140</v>
       </c>
-      <c r="E488" s="99">
+      <c r="E488" s="91">
         <f t="shared" si="35"/>
         <v>595.14</v>
       </c>
@@ -47524,7 +47524,7 @@
         <f t="shared" si="38"/>
         <v>597580</v>
       </c>
-      <c r="E489" s="99">
+      <c r="E489" s="91">
         <f t="shared" si="35"/>
         <v>597.58000000000004</v>
       </c>
@@ -47550,7 +47550,7 @@
         <f t="shared" si="38"/>
         <v>600025</v>
       </c>
-      <c r="E490" s="99">
+      <c r="E490" s="91">
         <f t="shared" si="35"/>
         <v>600.02499999999998</v>
       </c>
@@ -47576,7 +47576,7 @@
         <f t="shared" si="38"/>
         <v>602475</v>
       </c>
-      <c r="E491" s="99">
+      <c r="E491" s="91">
         <f t="shared" si="35"/>
         <v>602.47500000000002</v>
       </c>
@@ -47604,7 +47604,7 @@
         <f t="shared" si="38"/>
         <v>604930</v>
       </c>
-      <c r="E492" s="99">
+      <c r="E492" s="91">
         <f t="shared" si="35"/>
         <v>604.92999999999995</v>
       </c>
@@ -47630,7 +47630,7 @@
         <f t="shared" si="38"/>
         <v>607390</v>
       </c>
-      <c r="E493" s="99">
+      <c r="E493" s="91">
         <f t="shared" si="35"/>
         <v>607.39</v>
       </c>
@@ -47656,7 +47656,7 @@
         <f t="shared" si="38"/>
         <v>609855</v>
       </c>
-      <c r="E494" s="99">
+      <c r="E494" s="91">
         <f t="shared" si="35"/>
         <v>609.85500000000002</v>
       </c>
@@ -47682,7 +47682,7 @@
         <f t="shared" si="38"/>
         <v>612325</v>
       </c>
-      <c r="E495" s="99">
+      <c r="E495" s="91">
         <f t="shared" si="35"/>
         <v>612.32500000000005</v>
       </c>
@@ -47708,7 +47708,7 @@
         <f t="shared" si="38"/>
         <v>614800</v>
       </c>
-      <c r="E496" s="99">
+      <c r="E496" s="91">
         <f t="shared" si="35"/>
         <v>614.79999999999995</v>
       </c>
@@ -47734,7 +47734,7 @@
         <f t="shared" si="38"/>
         <v>617280</v>
       </c>
-      <c r="E497" s="99">
+      <c r="E497" s="91">
         <f t="shared" si="35"/>
         <v>617.28</v>
       </c>
@@ -47760,7 +47760,7 @@
         <f t="shared" si="38"/>
         <v>619765</v>
       </c>
-      <c r="E498" s="99">
+      <c r="E498" s="91">
         <f t="shared" si="35"/>
         <v>619.76499999999999</v>
       </c>
@@ -47786,7 +47786,7 @@
         <f t="shared" si="38"/>
         <v>622255</v>
       </c>
-      <c r="E499" s="99">
+      <c r="E499" s="91">
         <f t="shared" si="35"/>
         <v>622.255</v>
       </c>
@@ -47812,7 +47812,7 @@
         <f t="shared" si="38"/>
         <v>624750</v>
       </c>
-      <c r="E500" s="99">
+      <c r="E500" s="91">
         <f t="shared" si="35"/>
         <v>624.75</v>
       </c>
@@ -47838,7 +47838,7 @@
         <f t="shared" si="38"/>
         <v>627250</v>
       </c>
-      <c r="E501" s="99">
+      <c r="E501" s="91">
         <f t="shared" si="35"/>
         <v>627.25</v>
       </c>
@@ -47866,7 +47866,7 @@
         <f t="shared" si="38"/>
         <v>629755</v>
       </c>
-      <c r="E502" s="99">
+      <c r="E502" s="91">
         <f t="shared" si="35"/>
         <v>629.755</v>
       </c>
@@ -47892,7 +47892,7 @@
         <f t="shared" si="38"/>
         <v>632265</v>
       </c>
-      <c r="E503" s="99">
+      <c r="E503" s="91">
         <f t="shared" si="35"/>
         <v>632.26499999999999</v>
       </c>
@@ -47918,7 +47918,7 @@
         <f t="shared" si="38"/>
         <v>634780</v>
       </c>
-      <c r="E504" s="99">
+      <c r="E504" s="91">
         <f t="shared" si="35"/>
         <v>634.78</v>
       </c>
@@ -47944,7 +47944,7 @@
         <f t="shared" si="38"/>
         <v>637300</v>
       </c>
-      <c r="E505" s="99">
+      <c r="E505" s="91">
         <f t="shared" si="35"/>
         <v>637.29999999999995</v>
       </c>
@@ -47970,7 +47970,7 @@
         <f t="shared" si="38"/>
         <v>639825</v>
       </c>
-      <c r="E506" s="99">
+      <c r="E506" s="91">
         <f t="shared" si="35"/>
         <v>639.82500000000005</v>
       </c>
@@ -47996,7 +47996,7 @@
         <f t="shared" si="38"/>
         <v>642355</v>
       </c>
-      <c r="E507" s="99">
+      <c r="E507" s="91">
         <f t="shared" si="35"/>
         <v>642.35500000000002</v>
       </c>
@@ -48022,7 +48022,7 @@
         <f t="shared" si="38"/>
         <v>644890</v>
       </c>
-      <c r="E508" s="99">
+      <c r="E508" s="91">
         <f t="shared" si="35"/>
         <v>644.89</v>
       </c>
@@ -48048,7 +48048,7 @@
         <f t="shared" si="38"/>
         <v>647430</v>
       </c>
-      <c r="E509" s="99">
+      <c r="E509" s="91">
         <f t="shared" si="35"/>
         <v>647.42999999999995</v>
       </c>
@@ -48074,7 +48074,7 @@
         <f t="shared" si="38"/>
         <v>649975</v>
       </c>
-      <c r="E510" s="99">
+      <c r="E510" s="91">
         <f t="shared" si="35"/>
         <v>649.97500000000002</v>
       </c>
@@ -48100,7 +48100,7 @@
         <f t="shared" si="38"/>
         <v>652525</v>
       </c>
-      <c r="E511" s="99">
+      <c r="E511" s="91">
         <f t="shared" si="35"/>
         <v>652.52499999999998</v>
       </c>
@@ -48128,7 +48128,7 @@
         <f t="shared" si="38"/>
         <v>655080</v>
       </c>
-      <c r="E512" s="99">
+      <c r="E512" s="91">
         <f t="shared" si="35"/>
         <v>655.08000000000004</v>
       </c>
@@ -48154,7 +48154,7 @@
         <f t="shared" si="38"/>
         <v>657640</v>
       </c>
-      <c r="E513" s="99">
+      <c r="E513" s="91">
         <f t="shared" si="35"/>
         <v>657.64</v>
       </c>
@@ -48180,7 +48180,7 @@
         <f t="shared" si="38"/>
         <v>660205</v>
       </c>
-      <c r="E514" s="99">
+      <c r="E514" s="91">
         <f t="shared" ref="E514:E577" si="40">D514/1000</f>
         <v>660.20500000000004</v>
       </c>
@@ -48206,7 +48206,7 @@
         <f t="shared" si="38"/>
         <v>662775</v>
       </c>
-      <c r="E515" s="99">
+      <c r="E515" s="91">
         <f t="shared" si="40"/>
         <v>662.77499999999998</v>
       </c>
@@ -48232,7 +48232,7 @@
         <f t="shared" ref="D516:D579" si="43">D515+A516*5</f>
         <v>665350</v>
       </c>
-      <c r="E516" s="99">
+      <c r="E516" s="91">
         <f t="shared" si="40"/>
         <v>665.35</v>
       </c>
@@ -48258,7 +48258,7 @@
         <f t="shared" si="43"/>
         <v>667930</v>
       </c>
-      <c r="E517" s="99">
+      <c r="E517" s="91">
         <f t="shared" si="40"/>
         <v>667.93</v>
       </c>
@@ -48284,7 +48284,7 @@
         <f t="shared" si="43"/>
         <v>670515</v>
       </c>
-      <c r="E518" s="99">
+      <c r="E518" s="91">
         <f t="shared" si="40"/>
         <v>670.51499999999999</v>
       </c>
@@ -48310,7 +48310,7 @@
         <f t="shared" si="43"/>
         <v>673105</v>
       </c>
-      <c r="E519" s="99">
+      <c r="E519" s="91">
         <f t="shared" si="40"/>
         <v>673.10500000000002</v>
       </c>
@@ -48336,7 +48336,7 @@
         <f t="shared" si="43"/>
         <v>675700</v>
       </c>
-      <c r="E520" s="99">
+      <c r="E520" s="91">
         <f t="shared" si="40"/>
         <v>675.7</v>
       </c>
@@ -48362,7 +48362,7 @@
         <f t="shared" si="43"/>
         <v>678300</v>
       </c>
-      <c r="E521" s="99">
+      <c r="E521" s="91">
         <f t="shared" si="40"/>
         <v>678.3</v>
       </c>
@@ -48390,7 +48390,7 @@
         <f t="shared" si="43"/>
         <v>680905</v>
       </c>
-      <c r="E522" s="99">
+      <c r="E522" s="91">
         <f t="shared" si="40"/>
         <v>680.90499999999997</v>
       </c>
@@ -48416,7 +48416,7 @@
         <f t="shared" si="43"/>
         <v>683515</v>
       </c>
-      <c r="E523" s="99">
+      <c r="E523" s="91">
         <f t="shared" si="40"/>
         <v>683.51499999999999</v>
       </c>
@@ -48442,7 +48442,7 @@
         <f t="shared" si="43"/>
         <v>686130</v>
       </c>
-      <c r="E524" s="99">
+      <c r="E524" s="91">
         <f t="shared" si="40"/>
         <v>686.13</v>
       </c>
@@ -48468,7 +48468,7 @@
         <f t="shared" si="43"/>
         <v>688750</v>
       </c>
-      <c r="E525" s="99">
+      <c r="E525" s="91">
         <f t="shared" si="40"/>
         <v>688.75</v>
       </c>
@@ -48494,7 +48494,7 @@
         <f t="shared" si="43"/>
         <v>691375</v>
       </c>
-      <c r="E526" s="99">
+      <c r="E526" s="91">
         <f t="shared" si="40"/>
         <v>691.375</v>
       </c>
@@ -48520,7 +48520,7 @@
         <f t="shared" si="43"/>
         <v>694005</v>
       </c>
-      <c r="E527" s="99">
+      <c r="E527" s="91">
         <f t="shared" si="40"/>
         <v>694.005</v>
       </c>
@@ -48546,7 +48546,7 @@
         <f t="shared" si="43"/>
         <v>696640</v>
       </c>
-      <c r="E528" s="99">
+      <c r="E528" s="91">
         <f t="shared" si="40"/>
         <v>696.64</v>
       </c>
@@ -48572,7 +48572,7 @@
         <f t="shared" si="43"/>
         <v>699280</v>
       </c>
-      <c r="E529" s="99">
+      <c r="E529" s="91">
         <f t="shared" si="40"/>
         <v>699.28</v>
       </c>
@@ -48598,7 +48598,7 @@
         <f t="shared" si="43"/>
         <v>701925</v>
       </c>
-      <c r="E530" s="99">
+      <c r="E530" s="91">
         <f t="shared" si="40"/>
         <v>701.92499999999995</v>
       </c>
@@ -48624,7 +48624,7 @@
         <f t="shared" si="43"/>
         <v>704575</v>
       </c>
-      <c r="E531" s="99">
+      <c r="E531" s="91">
         <f t="shared" si="40"/>
         <v>704.57500000000005</v>
       </c>
@@ -48652,7 +48652,7 @@
         <f t="shared" si="43"/>
         <v>707230</v>
       </c>
-      <c r="E532" s="99">
+      <c r="E532" s="91">
         <f t="shared" si="40"/>
         <v>707.23</v>
       </c>
@@ -48678,7 +48678,7 @@
         <f t="shared" si="43"/>
         <v>709890</v>
       </c>
-      <c r="E533" s="99">
+      <c r="E533" s="91">
         <f t="shared" si="40"/>
         <v>709.89</v>
       </c>
@@ -48704,7 +48704,7 @@
         <f t="shared" si="43"/>
         <v>712555</v>
       </c>
-      <c r="E534" s="99">
+      <c r="E534" s="91">
         <f t="shared" si="40"/>
         <v>712.55499999999995</v>
       </c>
@@ -48730,7 +48730,7 @@
         <f t="shared" si="43"/>
         <v>715225</v>
       </c>
-      <c r="E535" s="99">
+      <c r="E535" s="91">
         <f t="shared" si="40"/>
         <v>715.22500000000002</v>
       </c>
@@ -48756,7 +48756,7 @@
         <f t="shared" si="43"/>
         <v>717900</v>
       </c>
-      <c r="E536" s="99">
+      <c r="E536" s="91">
         <f t="shared" si="40"/>
         <v>717.9</v>
       </c>
@@ -48782,7 +48782,7 @@
         <f t="shared" si="43"/>
         <v>720580</v>
       </c>
-      <c r="E537" s="99">
+      <c r="E537" s="91">
         <f t="shared" si="40"/>
         <v>720.58</v>
       </c>
@@ -48808,7 +48808,7 @@
         <f t="shared" si="43"/>
         <v>723265</v>
       </c>
-      <c r="E538" s="99">
+      <c r="E538" s="91">
         <f t="shared" si="40"/>
         <v>723.26499999999999</v>
       </c>
@@ -48834,7 +48834,7 @@
         <f t="shared" si="43"/>
         <v>725955</v>
       </c>
-      <c r="E539" s="99">
+      <c r="E539" s="91">
         <f t="shared" si="40"/>
         <v>725.95500000000004</v>
       </c>
@@ -48860,7 +48860,7 @@
         <f t="shared" si="43"/>
         <v>728650</v>
       </c>
-      <c r="E540" s="99">
+      <c r="E540" s="91">
         <f t="shared" si="40"/>
         <v>728.65</v>
       </c>
@@ -48886,7 +48886,7 @@
         <f t="shared" si="43"/>
         <v>731350</v>
       </c>
-      <c r="E541" s="99">
+      <c r="E541" s="91">
         <f t="shared" si="40"/>
         <v>731.35</v>
       </c>
@@ -48914,7 +48914,7 @@
         <f t="shared" si="43"/>
         <v>734055</v>
       </c>
-      <c r="E542" s="99">
+      <c r="E542" s="91">
         <f t="shared" si="40"/>
         <v>734.05499999999995</v>
       </c>
@@ -48940,7 +48940,7 @@
         <f t="shared" si="43"/>
         <v>736765</v>
       </c>
-      <c r="E543" s="99">
+      <c r="E543" s="91">
         <f t="shared" si="40"/>
         <v>736.76499999999999</v>
       </c>
@@ -48966,7 +48966,7 @@
         <f t="shared" si="43"/>
         <v>739480</v>
       </c>
-      <c r="E544" s="99">
+      <c r="E544" s="91">
         <f t="shared" si="40"/>
         <v>739.48</v>
       </c>
@@ -48992,7 +48992,7 @@
         <f t="shared" si="43"/>
         <v>742200</v>
       </c>
-      <c r="E545" s="99">
+      <c r="E545" s="91">
         <f t="shared" si="40"/>
         <v>742.2</v>
       </c>
@@ -49018,7 +49018,7 @@
         <f t="shared" si="43"/>
         <v>744925</v>
       </c>
-      <c r="E546" s="99">
+      <c r="E546" s="91">
         <f t="shared" si="40"/>
         <v>744.92499999999995</v>
       </c>
@@ -49044,7 +49044,7 @@
         <f t="shared" si="43"/>
         <v>747655</v>
       </c>
-      <c r="E547" s="99">
+      <c r="E547" s="91">
         <f t="shared" si="40"/>
         <v>747.65499999999997</v>
       </c>
@@ -49070,7 +49070,7 @@
         <f t="shared" si="43"/>
         <v>750390</v>
       </c>
-      <c r="E548" s="99">
+      <c r="E548" s="91">
         <f t="shared" si="40"/>
         <v>750.39</v>
       </c>
@@ -49096,7 +49096,7 @@
         <f t="shared" si="43"/>
         <v>753130</v>
       </c>
-      <c r="E549" s="99">
+      <c r="E549" s="91">
         <f t="shared" si="40"/>
         <v>753.13</v>
       </c>
@@ -49122,7 +49122,7 @@
         <f t="shared" si="43"/>
         <v>755875</v>
       </c>
-      <c r="E550" s="99">
+      <c r="E550" s="91">
         <f t="shared" si="40"/>
         <v>755.875</v>
       </c>
@@ -49148,7 +49148,7 @@
         <f t="shared" si="43"/>
         <v>758625</v>
       </c>
-      <c r="E551" s="99">
+      <c r="E551" s="91">
         <f t="shared" si="40"/>
         <v>758.625</v>
       </c>
@@ -49176,7 +49176,7 @@
         <f t="shared" si="43"/>
         <v>761380</v>
       </c>
-      <c r="E552" s="99">
+      <c r="E552" s="91">
         <f t="shared" si="40"/>
         <v>761.38</v>
       </c>
@@ -49202,7 +49202,7 @@
         <f t="shared" si="43"/>
         <v>764140</v>
       </c>
-      <c r="E553" s="99">
+      <c r="E553" s="91">
         <f t="shared" si="40"/>
         <v>764.14</v>
       </c>
@@ -49228,7 +49228,7 @@
         <f t="shared" si="43"/>
         <v>766905</v>
       </c>
-      <c r="E554" s="99">
+      <c r="E554" s="91">
         <f t="shared" si="40"/>
         <v>766.90499999999997</v>
       </c>
@@ -49254,7 +49254,7 @@
         <f t="shared" si="43"/>
         <v>769675</v>
       </c>
-      <c r="E555" s="99">
+      <c r="E555" s="91">
         <f t="shared" si="40"/>
         <v>769.67499999999995</v>
       </c>
@@ -49280,7 +49280,7 @@
         <f t="shared" si="43"/>
         <v>772450</v>
       </c>
-      <c r="E556" s="99">
+      <c r="E556" s="91">
         <f t="shared" si="40"/>
         <v>772.45</v>
       </c>
@@ -49306,7 +49306,7 @@
         <f t="shared" si="43"/>
         <v>775230</v>
       </c>
-      <c r="E557" s="99">
+      <c r="E557" s="91">
         <f t="shared" si="40"/>
         <v>775.23</v>
       </c>
@@ -49332,7 +49332,7 @@
         <f t="shared" si="43"/>
         <v>778015</v>
       </c>
-      <c r="E558" s="99">
+      <c r="E558" s="91">
         <f t="shared" si="40"/>
         <v>778.01499999999999</v>
       </c>
@@ -49358,7 +49358,7 @@
         <f t="shared" si="43"/>
         <v>780805</v>
       </c>
-      <c r="E559" s="99">
+      <c r="E559" s="91">
         <f t="shared" si="40"/>
         <v>780.80499999999995</v>
       </c>
@@ -49384,7 +49384,7 @@
         <f t="shared" si="43"/>
         <v>783600</v>
       </c>
-      <c r="E560" s="99">
+      <c r="E560" s="91">
         <f t="shared" si="40"/>
         <v>783.6</v>
       </c>
@@ -49410,7 +49410,7 @@
         <f t="shared" si="43"/>
         <v>786400</v>
       </c>
-      <c r="E561" s="99">
+      <c r="E561" s="91">
         <f t="shared" si="40"/>
         <v>786.4</v>
       </c>
@@ -49438,7 +49438,7 @@
         <f t="shared" si="43"/>
         <v>789205</v>
       </c>
-      <c r="E562" s="99">
+      <c r="E562" s="91">
         <f t="shared" si="40"/>
         <v>789.20500000000004</v>
       </c>
@@ -49464,7 +49464,7 @@
         <f t="shared" si="43"/>
         <v>792015</v>
       </c>
-      <c r="E563" s="99">
+      <c r="E563" s="91">
         <f t="shared" si="40"/>
         <v>792.01499999999999</v>
       </c>
@@ -49490,7 +49490,7 @@
         <f t="shared" si="43"/>
         <v>794830</v>
       </c>
-      <c r="E564" s="99">
+      <c r="E564" s="91">
         <f t="shared" si="40"/>
         <v>794.83</v>
       </c>
@@ -49516,7 +49516,7 @@
         <f t="shared" si="43"/>
         <v>797650</v>
       </c>
-      <c r="E565" s="99">
+      <c r="E565" s="91">
         <f t="shared" si="40"/>
         <v>797.65</v>
       </c>
@@ -49542,7 +49542,7 @@
         <f t="shared" si="43"/>
         <v>800475</v>
       </c>
-      <c r="E566" s="99">
+      <c r="E566" s="91">
         <f t="shared" si="40"/>
         <v>800.47500000000002</v>
       </c>
@@ -49568,7 +49568,7 @@
         <f t="shared" si="43"/>
         <v>803305</v>
       </c>
-      <c r="E567" s="99">
+      <c r="E567" s="91">
         <f t="shared" si="40"/>
         <v>803.30499999999995</v>
       </c>
@@ -49594,7 +49594,7 @@
         <f t="shared" si="43"/>
         <v>806140</v>
       </c>
-      <c r="E568" s="99">
+      <c r="E568" s="91">
         <f t="shared" si="40"/>
         <v>806.14</v>
       </c>
@@ -49620,7 +49620,7 @@
         <f t="shared" si="43"/>
         <v>808980</v>
       </c>
-      <c r="E569" s="99">
+      <c r="E569" s="91">
         <f t="shared" si="40"/>
         <v>808.98</v>
       </c>
@@ -49646,7 +49646,7 @@
         <f t="shared" si="43"/>
         <v>811825</v>
       </c>
-      <c r="E570" s="99">
+      <c r="E570" s="91">
         <f t="shared" si="40"/>
         <v>811.82500000000005</v>
       </c>
@@ -49672,7 +49672,7 @@
         <f t="shared" si="43"/>
         <v>814675</v>
       </c>
-      <c r="E571" s="99">
+      <c r="E571" s="91">
         <f t="shared" si="40"/>
         <v>814.67499999999995</v>
       </c>
@@ -49700,7 +49700,7 @@
         <f t="shared" si="43"/>
         <v>817530</v>
       </c>
-      <c r="E572" s="99">
+      <c r="E572" s="91">
         <f t="shared" si="40"/>
         <v>817.53</v>
       </c>
@@ -49726,7 +49726,7 @@
         <f t="shared" si="43"/>
         <v>820390</v>
       </c>
-      <c r="E573" s="99">
+      <c r="E573" s="91">
         <f t="shared" si="40"/>
         <v>820.39</v>
       </c>
@@ -49752,7 +49752,7 @@
         <f t="shared" si="43"/>
         <v>823255</v>
       </c>
-      <c r="E574" s="99">
+      <c r="E574" s="91">
         <f t="shared" si="40"/>
         <v>823.255</v>
       </c>
@@ -49778,7 +49778,7 @@
         <f t="shared" si="43"/>
         <v>826125</v>
       </c>
-      <c r="E575" s="99">
+      <c r="E575" s="91">
         <f t="shared" si="40"/>
         <v>826.125</v>
       </c>
@@ -49804,7 +49804,7 @@
         <f t="shared" si="43"/>
         <v>829000</v>
       </c>
-      <c r="E576" s="99">
+      <c r="E576" s="91">
         <f t="shared" si="40"/>
         <v>829</v>
       </c>
@@ -49830,7 +49830,7 @@
         <f t="shared" si="43"/>
         <v>831880</v>
       </c>
-      <c r="E577" s="99">
+      <c r="E577" s="91">
         <f t="shared" si="40"/>
         <v>831.88</v>
       </c>
@@ -49856,7 +49856,7 @@
         <f t="shared" si="43"/>
         <v>834765</v>
       </c>
-      <c r="E578" s="99">
+      <c r="E578" s="91">
         <f t="shared" ref="E578:E641" si="45">D578/1000</f>
         <v>834.76499999999999</v>
       </c>
@@ -49882,7 +49882,7 @@
         <f t="shared" si="43"/>
         <v>837655</v>
       </c>
-      <c r="E579" s="99">
+      <c r="E579" s="91">
         <f t="shared" si="45"/>
         <v>837.65499999999997</v>
       </c>
@@ -49908,7 +49908,7 @@
         <f t="shared" ref="D580:D643" si="48">D579+A580*5</f>
         <v>840550</v>
       </c>
-      <c r="E580" s="99">
+      <c r="E580" s="91">
         <f t="shared" si="45"/>
         <v>840.55</v>
       </c>
@@ -49934,7 +49934,7 @@
         <f t="shared" si="48"/>
         <v>843450</v>
       </c>
-      <c r="E581" s="99">
+      <c r="E581" s="91">
         <f t="shared" si="45"/>
         <v>843.45</v>
       </c>
@@ -49962,7 +49962,7 @@
         <f t="shared" si="48"/>
         <v>846355</v>
       </c>
-      <c r="E582" s="99">
+      <c r="E582" s="91">
         <f t="shared" si="45"/>
         <v>846.35500000000002</v>
       </c>
@@ -49988,7 +49988,7 @@
         <f t="shared" si="48"/>
         <v>849265</v>
       </c>
-      <c r="E583" s="99">
+      <c r="E583" s="91">
         <f t="shared" si="45"/>
         <v>849.26499999999999</v>
       </c>
@@ -50014,7 +50014,7 @@
         <f t="shared" si="48"/>
         <v>852180</v>
       </c>
-      <c r="E584" s="99">
+      <c r="E584" s="91">
         <f t="shared" si="45"/>
         <v>852.18</v>
       </c>
@@ -50040,7 +50040,7 @@
         <f t="shared" si="48"/>
         <v>855100</v>
       </c>
-      <c r="E585" s="99">
+      <c r="E585" s="91">
         <f t="shared" si="45"/>
         <v>855.1</v>
       </c>
@@ -50066,7 +50066,7 @@
         <f t="shared" si="48"/>
         <v>858025</v>
       </c>
-      <c r="E586" s="99">
+      <c r="E586" s="91">
         <f t="shared" si="45"/>
         <v>858.02499999999998</v>
       </c>
@@ -50092,7 +50092,7 @@
         <f t="shared" si="48"/>
         <v>860955</v>
       </c>
-      <c r="E587" s="99">
+      <c r="E587" s="91">
         <f t="shared" si="45"/>
         <v>860.95500000000004</v>
       </c>
@@ -50118,7 +50118,7 @@
         <f t="shared" si="48"/>
         <v>863890</v>
       </c>
-      <c r="E588" s="99">
+      <c r="E588" s="91">
         <f t="shared" si="45"/>
         <v>863.89</v>
       </c>
@@ -50144,7 +50144,7 @@
         <f t="shared" si="48"/>
         <v>866830</v>
       </c>
-      <c r="E589" s="99">
+      <c r="E589" s="91">
         <f t="shared" si="45"/>
         <v>866.83</v>
       </c>
@@ -50170,7 +50170,7 @@
         <f t="shared" si="48"/>
         <v>869775</v>
       </c>
-      <c r="E590" s="99">
+      <c r="E590" s="91">
         <f t="shared" si="45"/>
         <v>869.77499999999998</v>
       </c>
@@ -50196,7 +50196,7 @@
         <f t="shared" si="48"/>
         <v>872725</v>
       </c>
-      <c r="E591" s="99">
+      <c r="E591" s="91">
         <f t="shared" si="45"/>
         <v>872.72500000000002</v>
       </c>
@@ -50224,7 +50224,7 @@
         <f t="shared" si="48"/>
         <v>875680</v>
       </c>
-      <c r="E592" s="99">
+      <c r="E592" s="91">
         <f t="shared" si="45"/>
         <v>875.68</v>
       </c>
@@ -50250,7 +50250,7 @@
         <f t="shared" si="48"/>
         <v>878640</v>
       </c>
-      <c r="E593" s="99">
+      <c r="E593" s="91">
         <f t="shared" si="45"/>
         <v>878.64</v>
       </c>
@@ -50276,7 +50276,7 @@
         <f t="shared" si="48"/>
         <v>881605</v>
       </c>
-      <c r="E594" s="99">
+      <c r="E594" s="91">
         <f t="shared" si="45"/>
         <v>881.60500000000002</v>
       </c>
@@ -50302,7 +50302,7 @@
         <f t="shared" si="48"/>
         <v>884575</v>
       </c>
-      <c r="E595" s="99">
+      <c r="E595" s="91">
         <f t="shared" si="45"/>
         <v>884.57500000000005</v>
       </c>
@@ -50328,7 +50328,7 @@
         <f t="shared" si="48"/>
         <v>887550</v>
       </c>
-      <c r="E596" s="99">
+      <c r="E596" s="91">
         <f t="shared" si="45"/>
         <v>887.55</v>
       </c>
@@ -50354,7 +50354,7 @@
         <f t="shared" si="48"/>
         <v>890530</v>
       </c>
-      <c r="E597" s="99">
+      <c r="E597" s="91">
         <f t="shared" si="45"/>
         <v>890.53</v>
       </c>
@@ -50380,7 +50380,7 @@
         <f t="shared" si="48"/>
         <v>893515</v>
       </c>
-      <c r="E598" s="99">
+      <c r="E598" s="91">
         <f t="shared" si="45"/>
         <v>893.51499999999999</v>
       </c>
@@ -50406,7 +50406,7 @@
         <f t="shared" si="48"/>
         <v>896505</v>
       </c>
-      <c r="E599" s="99">
+      <c r="E599" s="91">
         <f t="shared" si="45"/>
         <v>896.505</v>
       </c>
@@ -50432,7 +50432,7 @@
         <f t="shared" si="48"/>
         <v>899500</v>
       </c>
-      <c r="E600" s="99">
+      <c r="E600" s="91">
         <f t="shared" si="45"/>
         <v>899.5</v>
       </c>
@@ -50458,7 +50458,7 @@
         <f t="shared" si="48"/>
         <v>902500</v>
       </c>
-      <c r="E601" s="99">
+      <c r="E601" s="91">
         <f t="shared" si="45"/>
         <v>902.5</v>
       </c>
@@ -50486,7 +50486,7 @@
         <f t="shared" si="48"/>
         <v>905505</v>
       </c>
-      <c r="E602" s="99">
+      <c r="E602" s="91">
         <f t="shared" si="45"/>
         <v>905.505</v>
       </c>
@@ -50512,7 +50512,7 @@
         <f t="shared" si="48"/>
         <v>908515</v>
       </c>
-      <c r="E603" s="99">
+      <c r="E603" s="91">
         <f t="shared" si="45"/>
         <v>908.51499999999999</v>
       </c>
@@ -50538,7 +50538,7 @@
         <f t="shared" si="48"/>
         <v>911530</v>
       </c>
-      <c r="E604" s="99">
+      <c r="E604" s="91">
         <f t="shared" si="45"/>
         <v>911.53</v>
       </c>
@@ -50564,7 +50564,7 @@
         <f t="shared" si="48"/>
         <v>914550</v>
       </c>
-      <c r="E605" s="99">
+      <c r="E605" s="91">
         <f t="shared" si="45"/>
         <v>914.55</v>
       </c>
@@ -50590,7 +50590,7 @@
         <f t="shared" si="48"/>
         <v>917575</v>
       </c>
-      <c r="E606" s="99">
+      <c r="E606" s="91">
         <f t="shared" si="45"/>
         <v>917.57500000000005</v>
       </c>
@@ -50616,7 +50616,7 @@
         <f t="shared" si="48"/>
         <v>920605</v>
       </c>
-      <c r="E607" s="99">
+      <c r="E607" s="91">
         <f t="shared" si="45"/>
         <v>920.60500000000002</v>
       </c>
@@ -50642,7 +50642,7 @@
         <f t="shared" si="48"/>
         <v>923640</v>
       </c>
-      <c r="E608" s="99">
+      <c r="E608" s="91">
         <f t="shared" si="45"/>
         <v>923.64</v>
       </c>
@@ -50668,7 +50668,7 @@
         <f t="shared" si="48"/>
         <v>926680</v>
       </c>
-      <c r="E609" s="99">
+      <c r="E609" s="91">
         <f t="shared" si="45"/>
         <v>926.68</v>
       </c>
@@ -50694,7 +50694,7 @@
         <f t="shared" si="48"/>
         <v>929725</v>
       </c>
-      <c r="E610" s="99">
+      <c r="E610" s="91">
         <f t="shared" si="45"/>
         <v>929.72500000000002</v>
       </c>
@@ -50720,7 +50720,7 @@
         <f t="shared" si="48"/>
         <v>932775</v>
       </c>
-      <c r="E611" s="99">
+      <c r="E611" s="91">
         <f t="shared" si="45"/>
         <v>932.77499999999998</v>
       </c>
@@ -50748,7 +50748,7 @@
         <f t="shared" si="48"/>
         <v>935830</v>
       </c>
-      <c r="E612" s="99">
+      <c r="E612" s="91">
         <f t="shared" si="45"/>
         <v>935.83</v>
       </c>
@@ -50774,7 +50774,7 @@
         <f t="shared" si="48"/>
         <v>938890</v>
       </c>
-      <c r="E613" s="99">
+      <c r="E613" s="91">
         <f t="shared" si="45"/>
         <v>938.89</v>
       </c>
@@ -50800,7 +50800,7 @@
         <f t="shared" si="48"/>
         <v>941955</v>
       </c>
-      <c r="E614" s="99">
+      <c r="E614" s="91">
         <f t="shared" si="45"/>
         <v>941.95500000000004</v>
       </c>
@@ -50826,7 +50826,7 @@
         <f t="shared" si="48"/>
         <v>945025</v>
       </c>
-      <c r="E615" s="99">
+      <c r="E615" s="91">
         <f t="shared" si="45"/>
         <v>945.02499999999998</v>
       </c>
@@ -50852,7 +50852,7 @@
         <f t="shared" si="48"/>
         <v>948100</v>
       </c>
-      <c r="E616" s="99">
+      <c r="E616" s="91">
         <f t="shared" si="45"/>
         <v>948.1</v>
       </c>
@@ -50878,7 +50878,7 @@
         <f t="shared" si="48"/>
         <v>951180</v>
       </c>
-      <c r="E617" s="99">
+      <c r="E617" s="91">
         <f t="shared" si="45"/>
         <v>951.18</v>
       </c>
@@ -50904,7 +50904,7 @@
         <f t="shared" si="48"/>
         <v>954265</v>
       </c>
-      <c r="E618" s="99">
+      <c r="E618" s="91">
         <f t="shared" si="45"/>
         <v>954.26499999999999</v>
       </c>
@@ -50930,7 +50930,7 @@
         <f t="shared" si="48"/>
         <v>957355</v>
       </c>
-      <c r="E619" s="99">
+      <c r="E619" s="91">
         <f t="shared" si="45"/>
         <v>957.35500000000002</v>
       </c>
@@ -50956,7 +50956,7 @@
         <f t="shared" si="48"/>
         <v>960450</v>
       </c>
-      <c r="E620" s="99">
+      <c r="E620" s="91">
         <f t="shared" si="45"/>
         <v>960.45</v>
       </c>
@@ -50982,7 +50982,7 @@
         <f t="shared" si="48"/>
         <v>963550</v>
       </c>
-      <c r="E621" s="99">
+      <c r="E621" s="91">
         <f t="shared" si="45"/>
         <v>963.55</v>
       </c>
@@ -51010,7 +51010,7 @@
         <f t="shared" si="48"/>
         <v>966655</v>
       </c>
-      <c r="E622" s="99">
+      <c r="E622" s="91">
         <f t="shared" si="45"/>
         <v>966.65499999999997</v>
       </c>
@@ -51036,7 +51036,7 @@
         <f t="shared" si="48"/>
         <v>969765</v>
       </c>
-      <c r="E623" s="99">
+      <c r="E623" s="91">
         <f t="shared" si="45"/>
         <v>969.76499999999999</v>
       </c>
@@ -51062,7 +51062,7 @@
         <f t="shared" si="48"/>
         <v>972880</v>
       </c>
-      <c r="E624" s="99">
+      <c r="E624" s="91">
         <f t="shared" si="45"/>
         <v>972.88</v>
       </c>
@@ -51088,7 +51088,7 @@
         <f t="shared" si="48"/>
         <v>976000</v>
       </c>
-      <c r="E625" s="99">
+      <c r="E625" s="91">
         <f t="shared" si="45"/>
         <v>976</v>
       </c>
@@ -51114,7 +51114,7 @@
         <f t="shared" si="48"/>
         <v>979125</v>
       </c>
-      <c r="E626" s="99">
+      <c r="E626" s="91">
         <f t="shared" si="45"/>
         <v>979.125</v>
       </c>
@@ -51140,7 +51140,7 @@
         <f t="shared" si="48"/>
         <v>982255</v>
       </c>
-      <c r="E627" s="99">
+      <c r="E627" s="91">
         <f t="shared" si="45"/>
         <v>982.255</v>
       </c>
@@ -51166,7 +51166,7 @@
         <f t="shared" si="48"/>
         <v>985390</v>
       </c>
-      <c r="E628" s="99">
+      <c r="E628" s="91">
         <f t="shared" si="45"/>
         <v>985.39</v>
       </c>
@@ -51192,7 +51192,7 @@
         <f t="shared" si="48"/>
         <v>988530</v>
       </c>
-      <c r="E629" s="99">
+      <c r="E629" s="91">
         <f t="shared" si="45"/>
         <v>988.53</v>
       </c>
@@ -51218,7 +51218,7 @@
         <f t="shared" si="48"/>
         <v>991675</v>
       </c>
-      <c r="E630" s="99">
+      <c r="E630" s="91">
         <f t="shared" si="45"/>
         <v>991.67499999999995</v>
       </c>
@@ -51244,7 +51244,7 @@
         <f t="shared" si="48"/>
         <v>994825</v>
       </c>
-      <c r="E631" s="99">
+      <c r="E631" s="91">
         <f t="shared" si="45"/>
         <v>994.82500000000005</v>
       </c>
@@ -51272,7 +51272,7 @@
         <f t="shared" si="48"/>
         <v>997980</v>
       </c>
-      <c r="E632" s="99">
+      <c r="E632" s="91">
         <f t="shared" si="45"/>
         <v>997.98</v>
       </c>
@@ -51298,7 +51298,7 @@
         <f t="shared" si="48"/>
         <v>1001140</v>
       </c>
-      <c r="E633" s="99">
+      <c r="E633" s="91">
         <f t="shared" si="45"/>
         <v>1001.14</v>
       </c>
@@ -51324,7 +51324,7 @@
         <f t="shared" si="48"/>
         <v>1004305</v>
       </c>
-      <c r="E634" s="99">
+      <c r="E634" s="91">
         <f t="shared" si="45"/>
         <v>1004.3049999999999</v>
       </c>
@@ -51350,7 +51350,7 @@
         <f t="shared" si="48"/>
         <v>1007475</v>
       </c>
-      <c r="E635" s="99">
+      <c r="E635" s="91">
         <f t="shared" si="45"/>
         <v>1007.475</v>
       </c>
@@ -51376,7 +51376,7 @@
         <f t="shared" si="48"/>
         <v>1010650</v>
       </c>
-      <c r="E636" s="99">
+      <c r="E636" s="91">
         <f t="shared" si="45"/>
         <v>1010.65</v>
       </c>
@@ -51402,7 +51402,7 @@
         <f t="shared" si="48"/>
         <v>1013830</v>
       </c>
-      <c r="E637" s="99">
+      <c r="E637" s="91">
         <f t="shared" si="45"/>
         <v>1013.83</v>
       </c>
@@ -51428,7 +51428,7 @@
         <f t="shared" si="48"/>
         <v>1017015</v>
       </c>
-      <c r="E638" s="99">
+      <c r="E638" s="91">
         <f t="shared" si="45"/>
         <v>1017.015</v>
       </c>
@@ -51454,7 +51454,7 @@
         <f t="shared" si="48"/>
         <v>1020205</v>
       </c>
-      <c r="E639" s="99">
+      <c r="E639" s="91">
         <f t="shared" si="45"/>
         <v>1020.205</v>
       </c>
@@ -51480,7 +51480,7 @@
         <f t="shared" si="48"/>
         <v>1023400</v>
       </c>
-      <c r="E640" s="99">
+      <c r="E640" s="91">
         <f t="shared" si="45"/>
         <v>1023.4</v>
       </c>
@@ -51506,7 +51506,7 @@
         <f t="shared" si="48"/>
         <v>1026600</v>
       </c>
-      <c r="E641" s="99">
+      <c r="E641" s="91">
         <f t="shared" si="45"/>
         <v>1026.5999999999999</v>
       </c>
@@ -51534,7 +51534,7 @@
         <f t="shared" si="48"/>
         <v>1029805</v>
       </c>
-      <c r="E642" s="99">
+      <c r="E642" s="91">
         <f t="shared" ref="E642:E650" si="50">D642/1000</f>
         <v>1029.8050000000001</v>
       </c>
@@ -51549,7 +51549,7 @@
         <v>642</v>
       </c>
       <c r="B643" s="61">
-        <f t="shared" ref="B643:B706" si="51">C642+1</f>
+        <f t="shared" ref="B643:B651" si="51">C642+1</f>
         <v>221148206</v>
       </c>
       <c r="C643" s="61">
@@ -51560,7 +51560,7 @@
         <f t="shared" si="48"/>
         <v>1033015</v>
       </c>
-      <c r="E643" s="99">
+      <c r="E643" s="91">
         <f t="shared" si="50"/>
         <v>1033.0150000000001</v>
       </c>
@@ -51586,7 +51586,7 @@
         <f t="shared" ref="D644:D651" si="53">D643+A644*5</f>
         <v>1036230</v>
       </c>
-      <c r="E644" s="99">
+      <c r="E644" s="91">
         <f t="shared" si="50"/>
         <v>1036.23</v>
       </c>
@@ -51612,7 +51612,7 @@
         <f t="shared" si="53"/>
         <v>1039450</v>
       </c>
-      <c r="E645" s="99">
+      <c r="E645" s="91">
         <f t="shared" si="50"/>
         <v>1039.45</v>
       </c>
@@ -51638,7 +51638,7 @@
         <f t="shared" si="53"/>
         <v>1042675</v>
       </c>
-      <c r="E646" s="99">
+      <c r="E646" s="91">
         <f t="shared" si="50"/>
         <v>1042.675</v>
       </c>
@@ -51664,7 +51664,7 @@
         <f t="shared" si="53"/>
         <v>1045905</v>
       </c>
-      <c r="E647" s="99">
+      <c r="E647" s="91">
         <f t="shared" si="50"/>
         <v>1045.905</v>
       </c>
@@ -51690,7 +51690,7 @@
         <f t="shared" si="53"/>
         <v>1049140</v>
       </c>
-      <c r="E648" s="99">
+      <c r="E648" s="91">
         <f t="shared" si="50"/>
         <v>1049.1400000000001</v>
       </c>
@@ -51716,7 +51716,7 @@
         <f t="shared" si="53"/>
         <v>1052380</v>
       </c>
-      <c r="E649" s="99">
+      <c r="E649" s="91">
         <f t="shared" si="50"/>
         <v>1052.3800000000001</v>
       </c>
@@ -51742,7 +51742,7 @@
         <f t="shared" si="53"/>
         <v>1055625</v>
       </c>
-      <c r="E650" s="99">
+      <c r="E650" s="91">
         <f t="shared" si="50"/>
         <v>1055.625</v>
       </c>
@@ -51768,7 +51768,7 @@
         <f t="shared" si="53"/>
         <v>1058875</v>
       </c>
-      <c r="E651" s="99">
+      <c r="E651" s="91">
         <f>D651/1000</f>
         <v>1058.875</v>
       </c>
@@ -52638,10 +52638,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC494"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="16" topLeftCell="A380" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="D405" sqref="D405"/>
+      <selection pane="bottomLeft" activeCell="M400" sqref="M400"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.3"/>
@@ -82466,11 +82466,11 @@
       <c r="N397" s="46">
         <v>0</v>
       </c>
-      <c r="O397" s="46">
-        <v>1000</v>
-      </c>
-      <c r="P397" s="46">
-        <v>3</v>
+      <c r="O397" s="47">
+        <v>300</v>
+      </c>
+      <c r="P397" s="47">
+        <v>1</v>
       </c>
       <c r="Q397" s="46">
         <v>1</v>
